--- a/Docs/LIN Traceability Matrix Template.xlsx
+++ b/Docs/LIN Traceability Matrix Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\LIN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\LIN  ws local\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Software reqs'!$6:$56</definedName>
     <definedName name="_Toc15890552" localSheetId="0">'Software reqs'!$E$15</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="160">
   <si>
     <t>Program</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>LIN System Report</t>
   </si>
   <si>
     <t>LIN Test Spec</t>
@@ -354,9 +351,6 @@
   </si>
   <si>
     <t>test plan.xls</t>
-  </si>
-  <si>
-    <t>dns template</t>
   </si>
   <si>
     <t>Comment</t>
@@ -527,9 +521,6 @@
     <t>LIN 1.3</t>
   </si>
   <si>
-    <t>Each message in LIN is encapsulated in a single message cycle.</t>
-  </si>
-  <si>
     <t>The message cycle is initiated by the master and contains two parts, the frame header sent by the master and the frame response.</t>
   </si>
   <si>
@@ -599,15 +590,6 @@
     <t>slave2_LEDstat</t>
   </si>
   <si>
-    <t>slave2_enabled</t>
-  </si>
-  <si>
-    <t>slave2_supplier</t>
-  </si>
-  <si>
-    <t>slave2_serial</t>
-  </si>
-  <si>
     <t>Two MPC5606B's On-board LEDs will be used to display LED status and node status, respectively.</t>
   </si>
   <si>
@@ -636,6 +618,21 @@
   </si>
   <si>
     <t>SLAVE2_ID / scalar</t>
+  </si>
+  <si>
+    <t>slave2_t_boolean</t>
+  </si>
+  <si>
+    <t>slave2_scalar</t>
+  </si>
+  <si>
+    <t>slave2_array</t>
+  </si>
+  <si>
+    <t>DSD_template_protocol_lin.docx</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -747,19 +744,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -778,8 +762,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,6 +856,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
@@ -1143,7 +1144,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1282,10 +1283,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1334,30 +1332,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,19 +1353,19 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,16 +1383,16 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,39 +1428,49 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Personal" xfId="2"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -2013,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:IV840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S66" sqref="S65:S66"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2069,14 +2053,14 @@
       <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:256" s="7" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="53" t="s">
-        <v>44</v>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="52" t="s">
+        <v>43</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2102,14 +2086,14 @@
       <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:256" s="7" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2135,14 +2119,14 @@
       <c r="AB3" s="6"/>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
@@ -2159,21 +2143,21 @@
       </c>
       <c r="Q4" s="44"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="72"/>
+      <c r="T4" s="103"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="76"/>
-      <c r="X4" s="77"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="108"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="70" t="s">
+      <c r="Z4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="71"/>
+      <c r="AA4" s="102"/>
       <c r="AB4" s="6"/>
     </row>
     <row r="5" spans="1:256" s="7" customFormat="1" ht="114.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2229,10 +2213,10 @@
     <row r="6" spans="1:256" s="10" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>7</v>
@@ -2258,14 +2242,14 @@
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W6" s="8" t="s">
         <v>22</v>
@@ -2275,7 +2259,7 @@
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>9</v>
@@ -2516,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="86" t="s">
-        <v>70</v>
+      <c r="E7" s="77" t="s">
+        <v>68</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>25</v>
@@ -2560,29 +2544,27 @@
       <c r="Q7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="62"/>
-      <c r="S7" s="51" t="s">
+      <c r="R7" s="61"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="61"/>
+      <c r="V7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="AA7" s="36" t="s">
         <v>30</v>
-      </c>
-      <c r="U7" s="62"/>
-      <c r="V7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA7" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="AB7" s="11"/>
       <c r="AC7" s="12"/>
@@ -2821,13 +2803,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="76" t="s">
         <v>71</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>73</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -2841,18 +2823,18 @@
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="28"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="29" t="s">
-        <v>67</v>
+      <c r="R8" s="64"/>
+      <c r="S8" s="110" t="s">
+        <v>158</v>
       </c>
       <c r="T8" s="30"/>
-      <c r="U8" s="65"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
-      <c r="Y8" s="66"/>
+      <c r="Y8" s="65"/>
       <c r="Z8" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA8" s="38"/>
       <c r="AB8" s="11"/>
@@ -3092,13 +3074,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="77" t="s">
         <v>72</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>74</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -3112,14 +3094,16 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="18"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="51"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T9" s="51"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="51"/>
-      <c r="Y9" s="63"/>
+      <c r="Y9" s="62"/>
       <c r="Z9" s="35"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="11"/>
@@ -3359,13 +3343,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>73</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -3379,14 +3363,16 @@
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="28"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="29"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T10" s="30"/>
-      <c r="U10" s="65"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="30"/>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
-      <c r="Y10" s="66"/>
+      <c r="Y10" s="65"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="38"/>
       <c r="AB10" s="11"/>
@@ -3626,13 +3612,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>154</v>
+        <v>74</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>148</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -3645,19 +3631,21 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" s="62"/>
-      <c r="S11" s="51"/>
+        <v>76</v>
+      </c>
+      <c r="R11" s="61"/>
+      <c r="S11" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T11" s="51"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="X11" s="51"/>
-      <c r="Y11" s="63"/>
+      <c r="Y11" s="62"/>
       <c r="Z11" s="35"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="11"/>
@@ -3897,54 +3885,36 @@
         <v>5</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="79" t="s">
-        <v>25</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="28"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="29"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T12" s="30"/>
-      <c r="U12" s="65"/>
+      <c r="U12" s="64"/>
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
-      <c r="Y12" s="66"/>
+      <c r="Y12" s="65"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="38"/>
       <c r="AB12" s="11"/>
@@ -4184,13 +4154,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>80</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>25</v>
@@ -4223,19 +4193,21 @@
         <v>25</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="22">
         <v>1</v>
       </c>
-      <c r="R13" s="62"/>
-      <c r="S13" s="51"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T13" s="51"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="X13" s="51"/>
-      <c r="Y13" s="63"/>
+      <c r="Y13" s="62"/>
       <c r="Z13" s="35"/>
       <c r="AA13" s="36"/>
       <c r="AB13" s="11"/>
@@ -4469,64 +4441,66 @@
       <c r="IV13" s="26"/>
     </row>
     <row r="14" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="84">
+      <c r="A14" s="73"/>
+      <c r="B14" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="79">
+      <c r="C14" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="70">
         <v>1</v>
       </c>
-      <c r="R14" s="65"/>
-      <c r="S14" s="29"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T14" s="30"/>
-      <c r="U14" s="65"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="30"/>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
-      <c r="Y14" s="66"/>
+      <c r="Y14" s="65"/>
       <c r="Z14" s="37"/>
       <c r="AA14" s="38"/>
       <c r="AB14" s="11"/>
@@ -4766,13 +4740,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>82</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>25</v>
@@ -4805,19 +4779,21 @@
         <v>25</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="22">
         <v>2</v>
       </c>
-      <c r="R15" s="62"/>
-      <c r="S15" s="51"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T15" s="51"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="51"/>
-      <c r="Y15" s="63"/>
+      <c r="Y15" s="62"/>
       <c r="Z15" s="35"/>
       <c r="AA15" s="36"/>
       <c r="AB15" s="11"/>
@@ -5051,64 +5027,66 @@
       <c r="IV15" s="26"/>
     </row>
     <row r="16" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="78">
+      <c r="A16" s="72"/>
+      <c r="B16" s="69">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="79">
+      <c r="C16" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="70">
         <v>7</v>
       </c>
-      <c r="R16" s="65"/>
-      <c r="S16" s="29"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T16" s="30"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
-      <c r="Y16" s="66"/>
+      <c r="Y16" s="65"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="11"/>
@@ -5343,18 +5321,18 @@
     </row>
     <row r="17" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
-      <c r="B17" s="88">
+      <c r="B17" s="79">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>88</v>
+      <c r="C17" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>86</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>25</v>
@@ -5386,16 +5364,18 @@
       <c r="O17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="51"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T17" s="51"/>
-      <c r="U17" s="62"/>
+      <c r="U17" s="61"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="X17" s="51"/>
-      <c r="Y17" s="63"/>
+      <c r="Y17" s="62"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="36"/>
       <c r="AB17" s="11"/>
@@ -5630,61 +5610,63 @@
     </row>
     <row r="18" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
-      <c r="B18" s="78">
+      <c r="B18" s="69">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C18" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="80" t="s">
+      <c r="C18" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="29"/>
+      <c r="F18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T18" s="30"/>
-      <c r="U18" s="65"/>
+      <c r="U18" s="64"/>
       <c r="V18" s="30"/>
       <c r="W18" s="30"/>
       <c r="X18" s="30"/>
-      <c r="Y18" s="66"/>
+      <c r="Y18" s="65"/>
       <c r="Z18" s="37"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="11"/>
@@ -5919,61 +5901,63 @@
     </row>
     <row r="19" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
-      <c r="B19" s="88">
+      <c r="B19" s="79">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C19" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="52"/>
+      <c r="C19" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T19" s="51"/>
-      <c r="U19" s="62"/>
+      <c r="U19" s="61"/>
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
       <c r="X19" s="51"/>
-      <c r="Y19" s="63"/>
+      <c r="Y19" s="62"/>
       <c r="Z19" s="35"/>
       <c r="AA19" s="36"/>
       <c r="AB19" s="11"/>
@@ -6208,61 +6192,63 @@
     </row>
     <row r="20" spans="1:256" s="13" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
-      <c r="B20" s="78">
+      <c r="B20" s="69">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C20" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="29"/>
+      <c r="C20" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T20" s="30"/>
-      <c r="U20" s="65"/>
+      <c r="U20" s="64"/>
       <c r="V20" s="30"/>
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
-      <c r="Y20" s="66"/>
+      <c r="Y20" s="65"/>
       <c r="Z20" s="37"/>
       <c r="AA20" s="38"/>
       <c r="AB20" s="11"/>
@@ -6497,61 +6483,63 @@
     </row>
     <row r="21" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
-      <c r="B21" s="88">
+      <c r="B21" s="79">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="51"/>
+      <c r="C21" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T21" s="51"/>
-      <c r="U21" s="62"/>
+      <c r="U21" s="61"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
       <c r="X21" s="51"/>
-      <c r="Y21" s="63"/>
+      <c r="Y21" s="62"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="36"/>
       <c r="AB21" s="11"/>
@@ -6786,63 +6774,65 @@
     </row>
     <row r="22" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
-      <c r="B22" s="78">
+      <c r="B22" s="69">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C22" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="87" t="s">
+      <c r="C22" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q22" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q22" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="R22" s="65"/>
-      <c r="S22" s="29"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T22" s="30"/>
-      <c r="U22" s="65"/>
+      <c r="U22" s="64"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
-      <c r="Y22" s="66"/>
+      <c r="Y22" s="65"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="38"/>
       <c r="AB22" s="11"/>
@@ -7077,61 +7067,63 @@
     </row>
     <row r="23" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
-      <c r="B23" s="88">
+      <c r="B23" s="79">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C23" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="51"/>
+      <c r="C23" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T23" s="51"/>
-      <c r="U23" s="62"/>
+      <c r="U23" s="61"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="X23" s="51"/>
-      <c r="Y23" s="63"/>
+      <c r="Y23" s="62"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="36"/>
       <c r="AB23" s="11"/>
@@ -7366,61 +7358,63 @@
     </row>
     <row r="24" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
-      <c r="B24" s="78">
+      <c r="B24" s="69">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="29"/>
+      <c r="C24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T24" s="30"/>
-      <c r="U24" s="65"/>
+      <c r="U24" s="64"/>
       <c r="V24" s="30"/>
       <c r="W24" s="30"/>
       <c r="X24" s="30"/>
-      <c r="Y24" s="66"/>
+      <c r="Y24" s="65"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="38"/>
       <c r="AB24" s="11"/>
@@ -7655,61 +7649,63 @@
     </row>
     <row r="25" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
-      <c r="B25" s="88">
+      <c r="B25" s="79">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C25" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="90" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="51"/>
+      <c r="C25" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T25" s="51"/>
-      <c r="U25" s="62"/>
+      <c r="U25" s="61"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
       <c r="X25" s="51"/>
-      <c r="Y25" s="63"/>
+      <c r="Y25" s="62"/>
       <c r="Z25" s="35"/>
       <c r="AA25" s="36"/>
       <c r="AB25" s="11"/>
@@ -7944,43 +7940,45 @@
     </row>
     <row r="26" spans="1:256" s="13" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
-      <c r="B26" s="78">
+      <c r="B26" s="69">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C26" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="80" t="s">
+      <c r="C26" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="Q26" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q26" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="R26" s="65"/>
-      <c r="S26" s="29"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T26" s="30"/>
-      <c r="U26" s="65"/>
+      <c r="U26" s="64"/>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
-      <c r="Y26" s="66"/>
+      <c r="Y26" s="65"/>
       <c r="Z26" s="37"/>
       <c r="AA26" s="38"/>
       <c r="AB26" s="11"/>
@@ -8215,39 +8213,41 @@
     </row>
     <row r="27" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
-      <c r="B27" s="88">
+      <c r="B27" s="79">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C27" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="51"/>
+      <c r="C27" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T27" s="51"/>
-      <c r="U27" s="62"/>
+      <c r="U27" s="61"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
       <c r="X27" s="51"/>
-      <c r="Y27" s="63"/>
+      <c r="Y27" s="62"/>
       <c r="Z27" s="35"/>
       <c r="AA27" s="36"/>
       <c r="AB27" s="11"/>
@@ -8482,39 +8482,41 @@
     </row>
     <row r="28" spans="1:256" s="13" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
-      <c r="B28" s="78">
+      <c r="B28" s="69">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C28" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="29"/>
+      <c r="C28" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T28" s="30"/>
-      <c r="U28" s="65"/>
+      <c r="U28" s="64"/>
       <c r="V28" s="30"/>
       <c r="W28" s="30"/>
       <c r="X28" s="30"/>
-      <c r="Y28" s="66"/>
+      <c r="Y28" s="65"/>
       <c r="Z28" s="37"/>
       <c r="AA28" s="38"/>
       <c r="AB28" s="11"/>
@@ -8749,63 +8751,65 @@
     </row>
     <row r="29" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
-      <c r="B29" s="88">
+      <c r="B29" s="79">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C29" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="89" t="s">
+      <c r="C29" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q29" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="R29" s="62"/>
-      <c r="S29" s="51"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T29" s="51"/>
-      <c r="U29" s="62"/>
+      <c r="U29" s="61"/>
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="X29" s="51"/>
-      <c r="Y29" s="63"/>
+      <c r="Y29" s="62"/>
       <c r="Z29" s="35"/>
       <c r="AA29" s="36"/>
       <c r="AB29" s="11"/>
@@ -9040,63 +9044,65 @@
     </row>
     <row r="30" spans="1:256" s="13" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
-      <c r="B30" s="78">
+      <c r="B30" s="69">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C30" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P30" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q30" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="R30" s="65"/>
-      <c r="S30" s="29"/>
+      <c r="C30" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q30" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="R30" s="64"/>
+      <c r="S30" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T30" s="30"/>
-      <c r="U30" s="65"/>
+      <c r="U30" s="64"/>
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
       <c r="X30" s="30"/>
-      <c r="Y30" s="66"/>
+      <c r="Y30" s="65"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="38"/>
       <c r="AB30" s="11"/>
@@ -9331,63 +9337,65 @@
     </row>
     <row r="31" spans="1:256" s="13" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
-      <c r="B31" s="88">
+      <c r="B31" s="79">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C31" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q31" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="R31" s="62"/>
-      <c r="S31" s="51"/>
+      <c r="C31" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q31" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="R31" s="61"/>
+      <c r="S31" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T31" s="51"/>
-      <c r="U31" s="62"/>
+      <c r="U31" s="61"/>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
       <c r="X31" s="51"/>
-      <c r="Y31" s="63"/>
+      <c r="Y31" s="62"/>
       <c r="Z31" s="35"/>
       <c r="AA31" s="36"/>
       <c r="AB31" s="11"/>
@@ -9622,63 +9630,65 @@
     </row>
     <row r="32" spans="1:256" s="13" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="78">
+      <c r="B32" s="69">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C32" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32" s="79" t="s">
+      <c r="C32" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q32" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="R32" s="64"/>
+      <c r="S32" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="Q32" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="R32" s="65"/>
-      <c r="S32" s="29"/>
       <c r="T32" s="30"/>
-      <c r="U32" s="65"/>
+      <c r="U32" s="64"/>
       <c r="V32" s="30"/>
       <c r="W32" s="30"/>
       <c r="X32" s="30"/>
-      <c r="Y32" s="66"/>
+      <c r="Y32" s="65"/>
       <c r="Z32" s="37"/>
       <c r="AA32" s="38"/>
       <c r="AB32" s="11"/>
@@ -9913,63 +9923,65 @@
     </row>
     <row r="33" spans="1:256" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
-      <c r="B33" s="88">
+      <c r="B33" s="79">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C33" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="89" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q33" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="R33" s="62"/>
-      <c r="S33" s="51"/>
+      <c r="C33" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q33" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="R33" s="61"/>
+      <c r="S33" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T33" s="51"/>
-      <c r="U33" s="62"/>
+      <c r="U33" s="61"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="X33" s="51"/>
-      <c r="Y33" s="63"/>
+      <c r="Y33" s="62"/>
       <c r="Z33" s="35"/>
       <c r="AA33" s="36"/>
       <c r="AB33" s="11"/>
@@ -10204,63 +10216,65 @@
     </row>
     <row r="34" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="78">
+      <c r="B34" s="69">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C34" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P34" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q34" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="R34" s="65"/>
-      <c r="S34" s="29"/>
+      <c r="C34" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q34" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="R34" s="64"/>
+      <c r="S34" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T34" s="30"/>
-      <c r="U34" s="65"/>
+      <c r="U34" s="64"/>
       <c r="V34" s="30"/>
       <c r="W34" s="30"/>
       <c r="X34" s="30"/>
-      <c r="Y34" s="66"/>
+      <c r="Y34" s="65"/>
       <c r="Z34" s="37"/>
       <c r="AA34" s="38"/>
       <c r="AB34" s="11"/>
@@ -10495,59 +10509,61 @@
     </row>
     <row r="35" spans="1:256" s="13" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="B35" s="88">
+      <c r="B35" s="79">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C35" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="51"/>
+      <c r="C35" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T35" s="51"/>
-      <c r="U35" s="62"/>
+      <c r="U35" s="61"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
       <c r="X35" s="51"/>
-      <c r="Y35" s="63"/>
+      <c r="Y35" s="62"/>
       <c r="Z35" s="35"/>
       <c r="AA35" s="36"/>
       <c r="AB35" s="11"/>
@@ -10782,59 +10798,61 @@
     </row>
     <row r="36" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="78">
+      <c r="B36" s="69">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C36" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="29"/>
+      <c r="C36" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="70"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T36" s="30"/>
-      <c r="U36" s="65"/>
+      <c r="U36" s="64"/>
       <c r="V36" s="30"/>
       <c r="W36" s="30"/>
       <c r="X36" s="30"/>
-      <c r="Y36" s="66"/>
+      <c r="Y36" s="65"/>
       <c r="Z36" s="37"/>
       <c r="AA36" s="38"/>
       <c r="AB36" s="11"/>
@@ -11069,39 +11087,41 @@
     </row>
     <row r="37" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="88">
+      <c r="B37" s="79">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C37" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>121</v>
+      <c r="C37" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>119</v>
       </c>
       <c r="E37" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="51"/>
+        <v>146</v>
+      </c>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T37" s="51"/>
-      <c r="U37" s="62"/>
+      <c r="U37" s="61"/>
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
       <c r="X37" s="51"/>
-      <c r="Y37" s="63"/>
+      <c r="Y37" s="62"/>
       <c r="Z37" s="35"/>
       <c r="AA37" s="36"/>
       <c r="AB37" s="11"/>
@@ -11336,59 +11356,61 @@
     </row>
     <row r="38" spans="1:256" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
-      <c r="B38" s="78">
+      <c r="B38" s="69">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C38" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="29"/>
+      <c r="C38" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T38" s="30"/>
-      <c r="U38" s="65"/>
+      <c r="U38" s="64"/>
       <c r="V38" s="30"/>
       <c r="W38" s="30"/>
       <c r="X38" s="30"/>
-      <c r="Y38" s="66"/>
+      <c r="Y38" s="65"/>
       <c r="Z38" s="37"/>
       <c r="AA38" s="38"/>
       <c r="AB38" s="11"/>
@@ -11623,59 +11645,61 @@
     </row>
     <row r="39" spans="1:256" s="13" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
-      <c r="B39" s="88">
+      <c r="B39" s="79">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C39" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="51"/>
+      <c r="C39" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T39" s="51"/>
-      <c r="U39" s="62"/>
+      <c r="U39" s="61"/>
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
       <c r="X39" s="51"/>
-      <c r="Y39" s="63"/>
+      <c r="Y39" s="62"/>
       <c r="Z39" s="35"/>
       <c r="AA39" s="36"/>
       <c r="AB39" s="11"/>
@@ -11910,59 +11934,61 @@
     </row>
     <row r="40" spans="1:256" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
-      <c r="B40" s="78">
+      <c r="B40" s="69">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C40" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="94"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="29"/>
+      <c r="C40" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T40" s="30"/>
-      <c r="U40" s="65"/>
+      <c r="U40" s="64"/>
       <c r="V40" s="30"/>
       <c r="W40" s="30"/>
       <c r="X40" s="30"/>
-      <c r="Y40" s="66"/>
+      <c r="Y40" s="65"/>
       <c r="Z40" s="37"/>
       <c r="AA40" s="38"/>
       <c r="AB40" s="11"/>
@@ -12197,59 +12223,61 @@
     </row>
     <row r="41" spans="1:256" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
-      <c r="B41" s="88">
+      <c r="B41" s="79">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C41" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="P41" s="90"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="51"/>
+      <c r="C41" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T41" s="51"/>
-      <c r="U41" s="62"/>
+      <c r="U41" s="61"/>
       <c r="V41" s="18"/>
       <c r="W41" s="18"/>
       <c r="X41" s="51"/>
-      <c r="Y41" s="63"/>
+      <c r="Y41" s="62"/>
       <c r="Z41" s="35"/>
       <c r="AA41" s="36"/>
       <c r="AB41" s="11"/>
@@ -12484,59 +12512,61 @@
     </row>
     <row r="42" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
-      <c r="B42" s="78">
+      <c r="B42" s="69">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C42" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E42" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="29"/>
+      <c r="C42" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T42" s="30"/>
-      <c r="U42" s="65"/>
+      <c r="U42" s="64"/>
       <c r="V42" s="30"/>
       <c r="W42" s="30"/>
       <c r="X42" s="30"/>
-      <c r="Y42" s="66"/>
+      <c r="Y42" s="65"/>
       <c r="Z42" s="37"/>
       <c r="AA42" s="38"/>
       <c r="AB42" s="11"/>
@@ -12771,59 +12801,61 @@
     </row>
     <row r="43" spans="1:256" s="13" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="88">
+      <c r="B43" s="79">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C43" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O43" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="51"/>
+      <c r="C43" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T43" s="51"/>
-      <c r="U43" s="62"/>
+      <c r="U43" s="61"/>
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
       <c r="X43" s="51"/>
-      <c r="Y43" s="63"/>
+      <c r="Y43" s="62"/>
       <c r="Z43" s="35"/>
       <c r="AA43" s="36"/>
       <c r="AB43" s="11"/>
@@ -13058,59 +13090,61 @@
     </row>
     <row r="44" spans="1:256" s="13" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
-      <c r="B44" s="78">
+      <c r="B44" s="69">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C44" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="29"/>
+      <c r="C44" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T44" s="30"/>
-      <c r="U44" s="65"/>
+      <c r="U44" s="64"/>
       <c r="V44" s="30"/>
       <c r="W44" s="30"/>
       <c r="X44" s="30"/>
-      <c r="Y44" s="66"/>
+      <c r="Y44" s="65"/>
       <c r="Z44" s="37"/>
       <c r="AA44" s="38"/>
       <c r="AB44" s="11"/>
@@ -13345,59 +13379,61 @@
     </row>
     <row r="45" spans="1:256" s="13" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
-      <c r="B45" s="88">
+      <c r="B45" s="79">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C45" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="51"/>
+      <c r="C45" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T45" s="51"/>
-      <c r="U45" s="62"/>
+      <c r="U45" s="61"/>
       <c r="V45" s="18"/>
       <c r="W45" s="18"/>
       <c r="X45" s="51"/>
-      <c r="Y45" s="63"/>
+      <c r="Y45" s="62"/>
       <c r="Z45" s="35"/>
       <c r="AA45" s="36"/>
       <c r="AB45" s="11"/>
@@ -13632,59 +13668,61 @@
     </row>
     <row r="46" spans="1:256" s="13" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
-      <c r="B46" s="78">
+      <c r="B46" s="69">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C46" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="E46" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O46" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P46" s="79"/>
-      <c r="Q46" s="94"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="29"/>
+      <c r="C46" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T46" s="30"/>
-      <c r="U46" s="65"/>
+      <c r="U46" s="64"/>
       <c r="V46" s="30"/>
       <c r="W46" s="30"/>
       <c r="X46" s="30"/>
-      <c r="Y46" s="66"/>
+      <c r="Y46" s="65"/>
       <c r="Z46" s="37"/>
       <c r="AA46" s="38"/>
       <c r="AB46" s="11"/>
@@ -13919,59 +13957,61 @@
     </row>
     <row r="47" spans="1:256" s="13" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
-      <c r="B47" s="88">
+      <c r="B47" s="79">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C47" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="P47" s="90"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="51"/>
+      <c r="C47" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="61"/>
+      <c r="S47" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T47" s="51"/>
-      <c r="U47" s="62"/>
+      <c r="U47" s="61"/>
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
       <c r="X47" s="51"/>
-      <c r="Y47" s="63"/>
+      <c r="Y47" s="62"/>
       <c r="Z47" s="35"/>
       <c r="AA47" s="36"/>
       <c r="AB47" s="11"/>
@@ -14206,59 +14246,61 @@
     </row>
     <row r="48" spans="1:256" s="13" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
-      <c r="B48" s="78">
+      <c r="B48" s="69">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C48" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="F48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="29"/>
+      <c r="C48" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T48" s="30"/>
-      <c r="U48" s="65"/>
+      <c r="U48" s="64"/>
       <c r="V48" s="30"/>
       <c r="W48" s="30"/>
       <c r="X48" s="30"/>
-      <c r="Y48" s="66"/>
+      <c r="Y48" s="65"/>
       <c r="Z48" s="37"/>
       <c r="AA48" s="38"/>
       <c r="AB48" s="11"/>
@@ -14493,59 +14535,61 @@
     </row>
     <row r="49" spans="1:256" s="13" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
-      <c r="B49" s="88">
+      <c r="B49" s="79">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C49" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="L49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="91"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="51"/>
+      <c r="C49" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T49" s="51"/>
-      <c r="U49" s="62"/>
+      <c r="U49" s="61"/>
       <c r="V49" s="18"/>
       <c r="W49" s="18"/>
       <c r="X49" s="51"/>
-      <c r="Y49" s="63"/>
+      <c r="Y49" s="62"/>
       <c r="Z49" s="35"/>
       <c r="AA49" s="36"/>
       <c r="AB49" s="11"/>
@@ -14780,59 +14824,61 @@
     </row>
     <row r="50" spans="1:256" s="13" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
-      <c r="B50" s="78">
+      <c r="B50" s="69">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C50" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="94"/>
-      <c r="R50" s="65"/>
-      <c r="S50" s="29"/>
+      <c r="C50" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T50" s="30"/>
-      <c r="U50" s="65"/>
+      <c r="U50" s="64"/>
       <c r="V50" s="30"/>
       <c r="W50" s="30"/>
       <c r="X50" s="30"/>
-      <c r="Y50" s="66"/>
+      <c r="Y50" s="65"/>
       <c r="Z50" s="37"/>
       <c r="AA50" s="38"/>
       <c r="AB50" s="11"/>
@@ -15067,59 +15113,61 @@
     </row>
     <row r="51" spans="1:256" s="13" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
-      <c r="B51" s="88">
+      <c r="B51" s="79">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C51" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="J51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="51"/>
+      <c r="C51" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T51" s="51"/>
-      <c r="U51" s="62"/>
+      <c r="U51" s="61"/>
       <c r="V51" s="18"/>
       <c r="W51" s="18"/>
       <c r="X51" s="51"/>
-      <c r="Y51" s="63"/>
+      <c r="Y51" s="62"/>
       <c r="Z51" s="35"/>
       <c r="AA51" s="36"/>
       <c r="AB51" s="11"/>
@@ -15354,61 +15402,63 @@
     </row>
     <row r="52" spans="1:256" s="13" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="78">
+      <c r="B52" s="69">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C52" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="29"/>
+      <c r="C52" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q52" s="70"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T52" s="30"/>
-      <c r="U52" s="65"/>
+      <c r="U52" s="64"/>
       <c r="V52" s="30"/>
       <c r="W52" s="30"/>
       <c r="X52" s="30"/>
-      <c r="Y52" s="66"/>
+      <c r="Y52" s="65"/>
       <c r="Z52" s="37"/>
       <c r="AA52" s="38"/>
       <c r="AB52" s="11"/>
@@ -15643,59 +15693,61 @@
     </row>
     <row r="53" spans="1:256" s="13" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
-      <c r="B53" s="88">
+      <c r="B53" s="79">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C53" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="J53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="51"/>
+      <c r="C53" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T53" s="51"/>
-      <c r="U53" s="62"/>
+      <c r="U53" s="61"/>
       <c r="V53" s="18"/>
       <c r="W53" s="18"/>
       <c r="X53" s="51"/>
-      <c r="Y53" s="63"/>
+      <c r="Y53" s="62"/>
       <c r="Z53" s="35"/>
       <c r="AA53" s="36"/>
       <c r="AB53" s="11"/>
@@ -15930,59 +15982,61 @@
     </row>
     <row r="54" spans="1:256" s="13" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="78">
+      <c r="B54" s="69">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C54" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="F54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="65"/>
-      <c r="S54" s="29"/>
+      <c r="C54" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="64"/>
+      <c r="S54" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T54" s="30"/>
-      <c r="U54" s="65"/>
+      <c r="U54" s="64"/>
       <c r="V54" s="30"/>
       <c r="W54" s="30"/>
       <c r="X54" s="30"/>
-      <c r="Y54" s="66"/>
+      <c r="Y54" s="65"/>
       <c r="Z54" s="37"/>
       <c r="AA54" s="38"/>
       <c r="AB54" s="11"/>
@@ -16217,59 +16271,61 @@
     </row>
     <row r="55" spans="1:256" s="13" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
-      <c r="B55" s="88">
+      <c r="B55" s="79">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C55" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="J55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="L55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="O55" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="P55" s="90"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="18"/>
+      <c r="C55" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="79"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T55" s="51"/>
-      <c r="U55" s="62"/>
+      <c r="U55" s="61"/>
       <c r="V55" s="18"/>
       <c r="W55" s="18"/>
       <c r="X55" s="18"/>
-      <c r="Y55" s="63"/>
+      <c r="Y55" s="62"/>
       <c r="Z55" s="35"/>
       <c r="AA55" s="36"/>
       <c r="AB55" s="11"/>
@@ -16504,61 +16560,63 @@
     </row>
     <row r="56" spans="1:256" s="13" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
-      <c r="B56" s="78">
+      <c r="B56" s="69">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C56" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P56" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q56" s="79"/>
-      <c r="R56" s="65"/>
-      <c r="S56" s="29"/>
+      <c r="C56" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q56" s="70"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T56" s="30"/>
-      <c r="U56" s="65"/>
+      <c r="U56" s="64"/>
       <c r="V56" s="30"/>
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
-      <c r="Y56" s="66"/>
+      <c r="Y56" s="65"/>
       <c r="Z56" s="37"/>
       <c r="AA56" s="38"/>
       <c r="AB56" s="11"/>
@@ -16793,59 +16851,61 @@
     </row>
     <row r="57" spans="1:256" s="13" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
-      <c r="B57" s="88">
+      <c r="B57" s="79">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C57" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O57" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P57" s="90"/>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="18"/>
+      <c r="C57" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="81"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="112" t="s">
+        <v>158</v>
+      </c>
       <c r="T57" s="18"/>
-      <c r="U57" s="62"/>
+      <c r="U57" s="61"/>
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
-      <c r="Y57" s="63"/>
+      <c r="Y57" s="62"/>
       <c r="Z57" s="35"/>
       <c r="AA57" s="36"/>
       <c r="AB57" s="11"/>
@@ -17080,59 +17140,61 @@
     </row>
     <row r="58" spans="1:256" s="13" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
-      <c r="B58" s="78">
+      <c r="B58" s="69">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C58" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="J58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="K58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="O58" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="P58" s="79"/>
-      <c r="Q58" s="94"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="29"/>
+      <c r="C58" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="70"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="110" t="s">
+        <v>158</v>
+      </c>
       <c r="T58" s="30"/>
-      <c r="U58" s="65"/>
+      <c r="U58" s="64"/>
       <c r="V58" s="30"/>
       <c r="W58" s="30"/>
       <c r="X58" s="30"/>
-      <c r="Y58" s="66"/>
+      <c r="Y58" s="65"/>
       <c r="Z58" s="37"/>
       <c r="AA58" s="38"/>
       <c r="AB58" s="11"/>
@@ -17367,59 +17429,61 @@
     </row>
     <row r="59" spans="1:256" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
-      <c r="B59" s="88">
+      <c r="B59" s="79">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C59" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="88" t="s">
-        <v>121</v>
-      </c>
-      <c r="E59" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="J59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="K59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="L59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="O59" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="P59" s="90"/>
-      <c r="Q59" s="91"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="18"/>
+      <c r="C59" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="82"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="111" t="s">
+        <v>158</v>
+      </c>
       <c r="T59" s="18"/>
-      <c r="U59" s="62"/>
+      <c r="U59" s="61"/>
       <c r="V59" s="18"/>
       <c r="W59" s="18"/>
       <c r="X59" s="18"/>
-      <c r="Y59" s="63"/>
+      <c r="Y59" s="62"/>
       <c r="Z59" s="35"/>
       <c r="AA59" s="36"/>
       <c r="AB59" s="11"/>
@@ -17653,33 +17717,33 @@
       <c r="IV59" s="26"/>
     </row>
     <row r="60" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="101"/>
-      <c r="K60" s="101"/>
-      <c r="L60" s="101"/>
-      <c r="M60" s="101"/>
-      <c r="N60" s="101"/>
-      <c r="O60" s="101"/>
-      <c r="P60" s="101"/>
-      <c r="Q60" s="103"/>
-      <c r="R60" s="104"/>
-      <c r="S60" s="105"/>
-      <c r="T60" s="106"/>
-      <c r="U60" s="104"/>
-      <c r="V60" s="106"/>
-      <c r="W60" s="106"/>
-      <c r="X60" s="106"/>
-      <c r="Y60" s="107"/>
-      <c r="Z60" s="108"/>
-      <c r="AA60" s="109"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="92"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="94"/>
+      <c r="R60" s="95"/>
+      <c r="S60" s="96"/>
+      <c r="T60" s="97"/>
+      <c r="U60" s="95"/>
+      <c r="V60" s="97"/>
+      <c r="W60" s="97"/>
+      <c r="X60" s="97"/>
+      <c r="Y60" s="98"/>
+      <c r="Z60" s="99"/>
+      <c r="AA60" s="100"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="12"/>
       <c r="AD60" s="12"/>
@@ -17928,14 +17992,14 @@
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="Q61" s="18"/>
-      <c r="R61" s="62"/>
+      <c r="R61" s="61"/>
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
-      <c r="U61" s="62"/>
+      <c r="U61" s="61"/>
       <c r="V61" s="18"/>
       <c r="W61" s="18"/>
       <c r="X61" s="18"/>
-      <c r="Y61" s="63"/>
+      <c r="Y61" s="62"/>
       <c r="Z61" s="35"/>
       <c r="AA61" s="36"/>
       <c r="AB61" s="11"/>
@@ -18186,14 +18250,14 @@
       <c r="O62" s="27"/>
       <c r="P62" s="27"/>
       <c r="Q62" s="28"/>
-      <c r="R62" s="65"/>
+      <c r="R62" s="64"/>
       <c r="S62" s="29"/>
       <c r="T62" s="30"/>
-      <c r="U62" s="65"/>
+      <c r="U62" s="64"/>
       <c r="V62" s="30"/>
       <c r="W62" s="30"/>
       <c r="X62" s="30"/>
-      <c r="Y62" s="66"/>
+      <c r="Y62" s="65"/>
       <c r="Z62" s="37"/>
       <c r="AA62" s="38"/>
       <c r="AB62" s="11"/>
@@ -18444,14 +18508,14 @@
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
       <c r="Q63" s="18"/>
-      <c r="R63" s="62"/>
+      <c r="R63" s="61"/>
       <c r="S63" s="18"/>
       <c r="T63" s="18"/>
-      <c r="U63" s="62"/>
+      <c r="U63" s="61"/>
       <c r="V63" s="18"/>
       <c r="W63" s="18"/>
       <c r="X63" s="18"/>
-      <c r="Y63" s="63"/>
+      <c r="Y63" s="62"/>
       <c r="Z63" s="35"/>
       <c r="AA63" s="36"/>
       <c r="AB63" s="11"/>
@@ -18702,14 +18766,14 @@
       <c r="O64" s="27"/>
       <c r="P64" s="27"/>
       <c r="Q64" s="28"/>
-      <c r="R64" s="65"/>
+      <c r="R64" s="64"/>
       <c r="S64" s="29"/>
       <c r="T64" s="30"/>
-      <c r="U64" s="65"/>
+      <c r="U64" s="64"/>
       <c r="V64" s="30"/>
       <c r="W64" s="30"/>
       <c r="X64" s="30"/>
-      <c r="Y64" s="66"/>
+      <c r="Y64" s="65"/>
       <c r="Z64" s="37"/>
       <c r="AA64" s="38"/>
       <c r="AB64" s="11"/>
@@ -18960,14 +19024,14 @@
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="18"/>
-      <c r="R65" s="62"/>
+      <c r="R65" s="61"/>
       <c r="S65" s="18"/>
       <c r="T65" s="18"/>
-      <c r="U65" s="62"/>
+      <c r="U65" s="61"/>
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
       <c r="X65" s="18"/>
-      <c r="Y65" s="63"/>
+      <c r="Y65" s="62"/>
       <c r="Z65" s="35"/>
       <c r="AA65" s="36"/>
       <c r="AB65" s="11"/>
@@ -19218,14 +19282,14 @@
       <c r="O66" s="27"/>
       <c r="P66" s="27"/>
       <c r="Q66" s="28"/>
-      <c r="R66" s="65"/>
+      <c r="R66" s="64"/>
       <c r="S66" s="29"/>
       <c r="T66" s="30"/>
-      <c r="U66" s="65"/>
+      <c r="U66" s="64"/>
       <c r="V66" s="30"/>
       <c r="W66" s="30"/>
       <c r="X66" s="30"/>
-      <c r="Y66" s="66"/>
+      <c r="Y66" s="65"/>
       <c r="Z66" s="37"/>
       <c r="AA66" s="38"/>
       <c r="AB66" s="11"/>
@@ -19476,14 +19540,14 @@
       <c r="O67" s="22"/>
       <c r="P67" s="22"/>
       <c r="Q67" s="18"/>
-      <c r="R67" s="62"/>
+      <c r="R67" s="61"/>
       <c r="S67" s="18"/>
       <c r="T67" s="18"/>
-      <c r="U67" s="62"/>
+      <c r="U67" s="61"/>
       <c r="V67" s="18"/>
       <c r="W67" s="18"/>
       <c r="X67" s="18"/>
-      <c r="Y67" s="63"/>
+      <c r="Y67" s="62"/>
       <c r="Z67" s="35"/>
       <c r="AA67" s="36"/>
       <c r="AB67" s="11"/>
@@ -19734,14 +19798,14 @@
       <c r="O68" s="27"/>
       <c r="P68" s="27"/>
       <c r="Q68" s="28"/>
-      <c r="R68" s="65"/>
+      <c r="R68" s="64"/>
       <c r="S68" s="29"/>
       <c r="T68" s="30"/>
-      <c r="U68" s="65"/>
+      <c r="U68" s="64"/>
       <c r="V68" s="30"/>
       <c r="W68" s="30"/>
       <c r="X68" s="30"/>
-      <c r="Y68" s="66"/>
+      <c r="Y68" s="65"/>
       <c r="Z68" s="37"/>
       <c r="AA68" s="38"/>
       <c r="AB68" s="11"/>
@@ -19992,14 +20056,14 @@
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
       <c r="Q69" s="18"/>
-      <c r="R69" s="62"/>
+      <c r="R69" s="61"/>
       <c r="S69" s="18"/>
       <c r="T69" s="18"/>
-      <c r="U69" s="62"/>
+      <c r="U69" s="61"/>
       <c r="V69" s="18"/>
       <c r="W69" s="18"/>
       <c r="X69" s="18"/>
-      <c r="Y69" s="63"/>
+      <c r="Y69" s="62"/>
       <c r="Z69" s="35"/>
       <c r="AA69" s="36"/>
       <c r="AB69" s="11"/>
@@ -20250,14 +20314,14 @@
       <c r="O70" s="27"/>
       <c r="P70" s="27"/>
       <c r="Q70" s="28"/>
-      <c r="R70" s="65"/>
+      <c r="R70" s="64"/>
       <c r="S70" s="29"/>
       <c r="T70" s="30"/>
-      <c r="U70" s="65"/>
+      <c r="U70" s="64"/>
       <c r="V70" s="30"/>
       <c r="W70" s="30"/>
       <c r="X70" s="30"/>
-      <c r="Y70" s="66"/>
+      <c r="Y70" s="65"/>
       <c r="Z70" s="37"/>
       <c r="AA70" s="38"/>
       <c r="AB70" s="11"/>
@@ -20508,14 +20572,14 @@
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
       <c r="Q71" s="18"/>
-      <c r="R71" s="62"/>
+      <c r="R71" s="61"/>
       <c r="S71" s="18"/>
       <c r="T71" s="18"/>
-      <c r="U71" s="62"/>
+      <c r="U71" s="61"/>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
       <c r="X71" s="18"/>
-      <c r="Y71" s="63"/>
+      <c r="Y71" s="62"/>
       <c r="Z71" s="35"/>
       <c r="AA71" s="36"/>
       <c r="AB71" s="11"/>
@@ -20766,14 +20830,14 @@
       <c r="O72" s="27"/>
       <c r="P72" s="27"/>
       <c r="Q72" s="28"/>
-      <c r="R72" s="65"/>
+      <c r="R72" s="64"/>
       <c r="S72" s="29"/>
       <c r="T72" s="30"/>
-      <c r="U72" s="65"/>
+      <c r="U72" s="64"/>
       <c r="V72" s="30"/>
       <c r="W72" s="30"/>
       <c r="X72" s="30"/>
-      <c r="Y72" s="66"/>
+      <c r="Y72" s="65"/>
       <c r="Z72" s="37"/>
       <c r="AA72" s="38"/>
       <c r="AB72" s="11"/>
@@ -21024,14 +21088,14 @@
       <c r="O73" s="22"/>
       <c r="P73" s="22"/>
       <c r="Q73" s="18"/>
-      <c r="R73" s="62"/>
+      <c r="R73" s="61"/>
       <c r="S73" s="18"/>
       <c r="T73" s="18"/>
-      <c r="U73" s="62"/>
+      <c r="U73" s="61"/>
       <c r="V73" s="18"/>
       <c r="W73" s="18"/>
       <c r="X73" s="18"/>
-      <c r="Y73" s="63"/>
+      <c r="Y73" s="62"/>
       <c r="Z73" s="35"/>
       <c r="AA73" s="36"/>
       <c r="AB73" s="11"/>
@@ -21282,14 +21346,14 @@
       <c r="O74" s="27"/>
       <c r="P74" s="27"/>
       <c r="Q74" s="28"/>
-      <c r="R74" s="65"/>
+      <c r="R74" s="64"/>
       <c r="S74" s="29"/>
       <c r="T74" s="30"/>
-      <c r="U74" s="65"/>
+      <c r="U74" s="64"/>
       <c r="V74" s="30"/>
       <c r="W74" s="30"/>
       <c r="X74" s="30"/>
-      <c r="Y74" s="66"/>
+      <c r="Y74" s="65"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="38"/>
       <c r="AB74" s="11"/>
@@ -21540,14 +21604,14 @@
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
       <c r="Q75" s="18"/>
-      <c r="R75" s="62"/>
+      <c r="R75" s="61"/>
       <c r="S75" s="18"/>
       <c r="T75" s="18"/>
-      <c r="U75" s="62"/>
+      <c r="U75" s="61"/>
       <c r="V75" s="18"/>
       <c r="W75" s="18"/>
       <c r="X75" s="18"/>
-      <c r="Y75" s="63"/>
+      <c r="Y75" s="62"/>
       <c r="Z75" s="35"/>
       <c r="AA75" s="36"/>
       <c r="AB75" s="11"/>
@@ -21798,14 +21862,14 @@
       <c r="O76" s="27"/>
       <c r="P76" s="27"/>
       <c r="Q76" s="28"/>
-      <c r="R76" s="65"/>
+      <c r="R76" s="64"/>
       <c r="S76" s="29"/>
       <c r="T76" s="30"/>
-      <c r="U76" s="65"/>
+      <c r="U76" s="64"/>
       <c r="V76" s="30"/>
       <c r="W76" s="30"/>
       <c r="X76" s="30"/>
-      <c r="Y76" s="66"/>
+      <c r="Y76" s="65"/>
       <c r="Z76" s="37"/>
       <c r="AA76" s="38"/>
       <c r="AB76" s="11"/>
@@ -22056,14 +22120,14 @@
       <c r="O77" s="22"/>
       <c r="P77" s="22"/>
       <c r="Q77" s="18"/>
-      <c r="R77" s="62"/>
+      <c r="R77" s="61"/>
       <c r="S77" s="18"/>
       <c r="T77" s="18"/>
-      <c r="U77" s="62"/>
+      <c r="U77" s="61"/>
       <c r="V77" s="18"/>
       <c r="W77" s="18"/>
       <c r="X77" s="18"/>
-      <c r="Y77" s="63"/>
+      <c r="Y77" s="62"/>
       <c r="Z77" s="35"/>
       <c r="AA77" s="36"/>
       <c r="AB77" s="11"/>
@@ -22314,14 +22378,14 @@
       <c r="O78" s="27"/>
       <c r="P78" s="27"/>
       <c r="Q78" s="28"/>
-      <c r="R78" s="65"/>
+      <c r="R78" s="64"/>
       <c r="S78" s="29"/>
       <c r="T78" s="30"/>
-      <c r="U78" s="65"/>
+      <c r="U78" s="64"/>
       <c r="V78" s="30"/>
       <c r="W78" s="30"/>
       <c r="X78" s="30"/>
-      <c r="Y78" s="66"/>
+      <c r="Y78" s="65"/>
       <c r="Z78" s="37"/>
       <c r="AA78" s="38"/>
       <c r="AB78" s="11"/>
@@ -22572,14 +22636,14 @@
       <c r="O79" s="22"/>
       <c r="P79" s="22"/>
       <c r="Q79" s="18"/>
-      <c r="R79" s="62"/>
+      <c r="R79" s="61"/>
       <c r="S79" s="18"/>
       <c r="T79" s="18"/>
-      <c r="U79" s="62"/>
+      <c r="U79" s="61"/>
       <c r="V79" s="18"/>
       <c r="W79" s="18"/>
       <c r="X79" s="18"/>
-      <c r="Y79" s="63"/>
+      <c r="Y79" s="62"/>
       <c r="Z79" s="35"/>
       <c r="AA79" s="36"/>
       <c r="AB79" s="11"/>
@@ -22830,14 +22894,14 @@
       <c r="O80" s="27"/>
       <c r="P80" s="27"/>
       <c r="Q80" s="28"/>
-      <c r="R80" s="65"/>
+      <c r="R80" s="64"/>
       <c r="S80" s="29"/>
       <c r="T80" s="30"/>
-      <c r="U80" s="65"/>
+      <c r="U80" s="64"/>
       <c r="V80" s="30"/>
       <c r="W80" s="30"/>
       <c r="X80" s="30"/>
-      <c r="Y80" s="66"/>
+      <c r="Y80" s="65"/>
       <c r="Z80" s="37"/>
       <c r="AA80" s="38"/>
       <c r="AB80" s="11"/>
@@ -23088,14 +23152,14 @@
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
       <c r="Q81" s="18"/>
-      <c r="R81" s="62"/>
+      <c r="R81" s="61"/>
       <c r="S81" s="18"/>
       <c r="T81" s="18"/>
-      <c r="U81" s="62"/>
+      <c r="U81" s="61"/>
       <c r="V81" s="18"/>
       <c r="W81" s="18"/>
       <c r="X81" s="18"/>
-      <c r="Y81" s="63"/>
+      <c r="Y81" s="62"/>
       <c r="Z81" s="35"/>
       <c r="AA81" s="36"/>
       <c r="AB81" s="11"/>
@@ -23346,14 +23410,14 @@
       <c r="O82" s="27"/>
       <c r="P82" s="27"/>
       <c r="Q82" s="28"/>
-      <c r="R82" s="65"/>
+      <c r="R82" s="64"/>
       <c r="S82" s="29"/>
       <c r="T82" s="30"/>
-      <c r="U82" s="65"/>
+      <c r="U82" s="64"/>
       <c r="V82" s="30"/>
       <c r="W82" s="30"/>
       <c r="X82" s="30"/>
-      <c r="Y82" s="66"/>
+      <c r="Y82" s="65"/>
       <c r="Z82" s="37"/>
       <c r="AA82" s="38"/>
       <c r="AB82" s="11"/>
@@ -23604,14 +23668,14 @@
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
       <c r="Q83" s="18"/>
-      <c r="R83" s="62"/>
+      <c r="R83" s="61"/>
       <c r="S83" s="18"/>
       <c r="T83" s="18"/>
-      <c r="U83" s="62"/>
+      <c r="U83" s="61"/>
       <c r="V83" s="18"/>
       <c r="W83" s="18"/>
       <c r="X83" s="18"/>
-      <c r="Y83" s="63"/>
+      <c r="Y83" s="62"/>
       <c r="Z83" s="35"/>
       <c r="AA83" s="36"/>
       <c r="AB83" s="11"/>
@@ -23862,14 +23926,14 @@
       <c r="O84" s="27"/>
       <c r="P84" s="27"/>
       <c r="Q84" s="28"/>
-      <c r="R84" s="65"/>
+      <c r="R84" s="64"/>
       <c r="S84" s="29"/>
       <c r="T84" s="30"/>
-      <c r="U84" s="65"/>
+      <c r="U84" s="64"/>
       <c r="V84" s="30"/>
       <c r="W84" s="30"/>
       <c r="X84" s="30"/>
-      <c r="Y84" s="66"/>
+      <c r="Y84" s="65"/>
       <c r="Z84" s="37"/>
       <c r="AA84" s="38"/>
       <c r="AB84" s="11"/>
@@ -24120,14 +24184,14 @@
       <c r="O85" s="22"/>
       <c r="P85" s="22"/>
       <c r="Q85" s="18"/>
-      <c r="R85" s="62"/>
+      <c r="R85" s="61"/>
       <c r="S85" s="18"/>
       <c r="T85" s="18"/>
-      <c r="U85" s="62"/>
+      <c r="U85" s="61"/>
       <c r="V85" s="18"/>
       <c r="W85" s="18"/>
       <c r="X85" s="18"/>
-      <c r="Y85" s="63"/>
+      <c r="Y85" s="62"/>
       <c r="Z85" s="35"/>
       <c r="AA85" s="36"/>
       <c r="AB85" s="11"/>
@@ -24378,14 +24442,14 @@
       <c r="O86" s="27"/>
       <c r="P86" s="27"/>
       <c r="Q86" s="28"/>
-      <c r="R86" s="65"/>
+      <c r="R86" s="64"/>
       <c r="S86" s="29"/>
       <c r="T86" s="30"/>
-      <c r="U86" s="65"/>
+      <c r="U86" s="64"/>
       <c r="V86" s="30"/>
       <c r="W86" s="30"/>
       <c r="X86" s="30"/>
-      <c r="Y86" s="66"/>
+      <c r="Y86" s="65"/>
       <c r="Z86" s="37"/>
       <c r="AA86" s="38"/>
       <c r="AB86" s="11"/>
@@ -24636,14 +24700,14 @@
       <c r="O87" s="22"/>
       <c r="P87" s="22"/>
       <c r="Q87" s="18"/>
-      <c r="R87" s="62"/>
+      <c r="R87" s="61"/>
       <c r="S87" s="18"/>
       <c r="T87" s="18"/>
-      <c r="U87" s="62"/>
+      <c r="U87" s="61"/>
       <c r="V87" s="18"/>
       <c r="W87" s="18"/>
       <c r="X87" s="18"/>
-      <c r="Y87" s="63"/>
+      <c r="Y87" s="62"/>
       <c r="Z87" s="35"/>
       <c r="AA87" s="36"/>
       <c r="AB87" s="11"/>
@@ -24894,14 +24958,14 @@
       <c r="O88" s="27"/>
       <c r="P88" s="27"/>
       <c r="Q88" s="28"/>
-      <c r="R88" s="65"/>
+      <c r="R88" s="64"/>
       <c r="S88" s="29"/>
       <c r="T88" s="30"/>
-      <c r="U88" s="65"/>
+      <c r="U88" s="64"/>
       <c r="V88" s="30"/>
       <c r="W88" s="30"/>
       <c r="X88" s="30"/>
-      <c r="Y88" s="66"/>
+      <c r="Y88" s="65"/>
       <c r="Z88" s="37"/>
       <c r="AA88" s="38"/>
       <c r="AB88" s="11"/>
@@ -25152,14 +25216,14 @@
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
       <c r="Q89" s="18"/>
-      <c r="R89" s="62"/>
+      <c r="R89" s="61"/>
       <c r="S89" s="18"/>
       <c r="T89" s="18"/>
-      <c r="U89" s="62"/>
+      <c r="U89" s="61"/>
       <c r="V89" s="18"/>
       <c r="W89" s="18"/>
       <c r="X89" s="18"/>
-      <c r="Y89" s="63"/>
+      <c r="Y89" s="62"/>
       <c r="Z89" s="35"/>
       <c r="AA89" s="36"/>
       <c r="AB89" s="11"/>
@@ -25410,14 +25474,14 @@
       <c r="O90" s="27"/>
       <c r="P90" s="27"/>
       <c r="Q90" s="28"/>
-      <c r="R90" s="65"/>
+      <c r="R90" s="64"/>
       <c r="S90" s="29"/>
       <c r="T90" s="30"/>
-      <c r="U90" s="65"/>
+      <c r="U90" s="64"/>
       <c r="V90" s="30"/>
       <c r="W90" s="30"/>
       <c r="X90" s="30"/>
-      <c r="Y90" s="66"/>
+      <c r="Y90" s="65"/>
       <c r="Z90" s="37"/>
       <c r="AA90" s="38"/>
       <c r="AB90" s="11"/>
@@ -25668,14 +25732,14 @@
       <c r="O91" s="22"/>
       <c r="P91" s="22"/>
       <c r="Q91" s="18"/>
-      <c r="R91" s="62"/>
+      <c r="R91" s="61"/>
       <c r="S91" s="18"/>
       <c r="T91" s="18"/>
-      <c r="U91" s="62"/>
+      <c r="U91" s="61"/>
       <c r="V91" s="18"/>
       <c r="W91" s="18"/>
       <c r="X91" s="18"/>
-      <c r="Y91" s="63"/>
+      <c r="Y91" s="62"/>
       <c r="Z91" s="35"/>
       <c r="AA91" s="36"/>
       <c r="AB91" s="11"/>
@@ -25926,14 +25990,14 @@
       <c r="O92" s="27"/>
       <c r="P92" s="27"/>
       <c r="Q92" s="28"/>
-      <c r="R92" s="65"/>
+      <c r="R92" s="64"/>
       <c r="S92" s="29"/>
       <c r="T92" s="30"/>
-      <c r="U92" s="65"/>
+      <c r="U92" s="64"/>
       <c r="V92" s="30"/>
       <c r="W92" s="30"/>
       <c r="X92" s="30"/>
-      <c r="Y92" s="66"/>
+      <c r="Y92" s="65"/>
       <c r="Z92" s="37"/>
       <c r="AA92" s="38"/>
       <c r="AB92" s="11"/>
@@ -26184,14 +26248,14 @@
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
       <c r="Q93" s="18"/>
-      <c r="R93" s="62"/>
+      <c r="R93" s="61"/>
       <c r="S93" s="18"/>
       <c r="T93" s="18"/>
-      <c r="U93" s="62"/>
+      <c r="U93" s="61"/>
       <c r="V93" s="18"/>
       <c r="W93" s="18"/>
       <c r="X93" s="18"/>
-      <c r="Y93" s="63"/>
+      <c r="Y93" s="62"/>
       <c r="Z93" s="35"/>
       <c r="AA93" s="36"/>
       <c r="AB93" s="11"/>
@@ -26442,14 +26506,14 @@
       <c r="O94" s="27"/>
       <c r="P94" s="27"/>
       <c r="Q94" s="28"/>
-      <c r="R94" s="65"/>
+      <c r="R94" s="64"/>
       <c r="S94" s="29"/>
       <c r="T94" s="30"/>
-      <c r="U94" s="65"/>
+      <c r="U94" s="64"/>
       <c r="V94" s="30"/>
       <c r="W94" s="30"/>
       <c r="X94" s="30"/>
-      <c r="Y94" s="66"/>
+      <c r="Y94" s="65"/>
       <c r="Z94" s="37"/>
       <c r="AA94" s="38"/>
       <c r="AB94" s="11"/>
@@ -26700,14 +26764,14 @@
       <c r="O95" s="22"/>
       <c r="P95" s="22"/>
       <c r="Q95" s="18"/>
-      <c r="R95" s="62"/>
+      <c r="R95" s="61"/>
       <c r="S95" s="18"/>
       <c r="T95" s="18"/>
-      <c r="U95" s="62"/>
+      <c r="U95" s="61"/>
       <c r="V95" s="18"/>
       <c r="W95" s="18"/>
       <c r="X95" s="18"/>
-      <c r="Y95" s="63"/>
+      <c r="Y95" s="62"/>
       <c r="Z95" s="35"/>
       <c r="AA95" s="36"/>
       <c r="AB95" s="11"/>
@@ -26958,14 +27022,14 @@
       <c r="O96" s="27"/>
       <c r="P96" s="27"/>
       <c r="Q96" s="28"/>
-      <c r="R96" s="65"/>
+      <c r="R96" s="64"/>
       <c r="S96" s="29"/>
       <c r="T96" s="30"/>
-      <c r="U96" s="65"/>
+      <c r="U96" s="64"/>
       <c r="V96" s="30"/>
       <c r="W96" s="30"/>
       <c r="X96" s="30"/>
-      <c r="Y96" s="66"/>
+      <c r="Y96" s="65"/>
       <c r="Z96" s="37"/>
       <c r="AA96" s="38"/>
       <c r="AB96" s="11"/>
@@ -27216,14 +27280,14 @@
       <c r="O97" s="22"/>
       <c r="P97" s="22"/>
       <c r="Q97" s="18"/>
-      <c r="R97" s="62"/>
+      <c r="R97" s="61"/>
       <c r="S97" s="18"/>
       <c r="T97" s="18"/>
-      <c r="U97" s="62"/>
+      <c r="U97" s="61"/>
       <c r="V97" s="18"/>
       <c r="W97" s="18"/>
       <c r="X97" s="18"/>
-      <c r="Y97" s="63"/>
+      <c r="Y97" s="62"/>
       <c r="Z97" s="35"/>
       <c r="AA97" s="36"/>
       <c r="AB97" s="11"/>
@@ -27474,14 +27538,14 @@
       <c r="O98" s="27"/>
       <c r="P98" s="27"/>
       <c r="Q98" s="28"/>
-      <c r="R98" s="65"/>
+      <c r="R98" s="64"/>
       <c r="S98" s="29"/>
       <c r="T98" s="30"/>
-      <c r="U98" s="65"/>
+      <c r="U98" s="64"/>
       <c r="V98" s="30"/>
       <c r="W98" s="30"/>
       <c r="X98" s="30"/>
-      <c r="Y98" s="66"/>
+      <c r="Y98" s="65"/>
       <c r="Z98" s="37"/>
       <c r="AA98" s="38"/>
       <c r="AB98" s="11"/>
@@ -27732,14 +27796,14 @@
       <c r="O99" s="22"/>
       <c r="P99" s="22"/>
       <c r="Q99" s="18"/>
-      <c r="R99" s="62"/>
+      <c r="R99" s="61"/>
       <c r="S99" s="18"/>
       <c r="T99" s="18"/>
-      <c r="U99" s="62"/>
+      <c r="U99" s="61"/>
       <c r="V99" s="18"/>
       <c r="W99" s="18"/>
       <c r="X99" s="18"/>
-      <c r="Y99" s="63"/>
+      <c r="Y99" s="62"/>
       <c r="Z99" s="35"/>
       <c r="AA99" s="36"/>
       <c r="AB99" s="11"/>
@@ -27990,14 +28054,14 @@
       <c r="O100" s="27"/>
       <c r="P100" s="27"/>
       <c r="Q100" s="28"/>
-      <c r="R100" s="65"/>
+      <c r="R100" s="64"/>
       <c r="S100" s="29"/>
       <c r="T100" s="30"/>
-      <c r="U100" s="65"/>
+      <c r="U100" s="64"/>
       <c r="V100" s="30"/>
       <c r="W100" s="30"/>
       <c r="X100" s="30"/>
-      <c r="Y100" s="66"/>
+      <c r="Y100" s="65"/>
       <c r="Z100" s="37"/>
       <c r="AA100" s="38"/>
       <c r="AB100" s="11"/>
@@ -28248,14 +28312,14 @@
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
       <c r="Q101" s="18"/>
-      <c r="R101" s="62"/>
+      <c r="R101" s="61"/>
       <c r="S101" s="18"/>
       <c r="T101" s="18"/>
-      <c r="U101" s="62"/>
+      <c r="U101" s="61"/>
       <c r="V101" s="18"/>
       <c r="W101" s="18"/>
       <c r="X101" s="18"/>
-      <c r="Y101" s="63"/>
+      <c r="Y101" s="62"/>
       <c r="Z101" s="35"/>
       <c r="AA101" s="36"/>
       <c r="AB101" s="11"/>
@@ -28506,14 +28570,14 @@
       <c r="O102" s="27"/>
       <c r="P102" s="27"/>
       <c r="Q102" s="28"/>
-      <c r="R102" s="65"/>
+      <c r="R102" s="64"/>
       <c r="S102" s="29"/>
       <c r="T102" s="30"/>
-      <c r="U102" s="65"/>
+      <c r="U102" s="64"/>
       <c r="V102" s="30"/>
       <c r="W102" s="30"/>
       <c r="X102" s="30"/>
-      <c r="Y102" s="66"/>
+      <c r="Y102" s="65"/>
       <c r="Z102" s="37"/>
       <c r="AA102" s="38"/>
       <c r="AB102" s="11"/>
@@ -28764,14 +28828,14 @@
       <c r="O103" s="22"/>
       <c r="P103" s="22"/>
       <c r="Q103" s="18"/>
-      <c r="R103" s="62"/>
+      <c r="R103" s="61"/>
       <c r="S103" s="18"/>
       <c r="T103" s="18"/>
-      <c r="U103" s="62"/>
+      <c r="U103" s="61"/>
       <c r="V103" s="18"/>
       <c r="W103" s="18"/>
       <c r="X103" s="18"/>
-      <c r="Y103" s="63"/>
+      <c r="Y103" s="62"/>
       <c r="Z103" s="35"/>
       <c r="AA103" s="36"/>
       <c r="AB103" s="11"/>
@@ -29022,14 +29086,14 @@
       <c r="O104" s="27"/>
       <c r="P104" s="27"/>
       <c r="Q104" s="28"/>
-      <c r="R104" s="65"/>
+      <c r="R104" s="64"/>
       <c r="S104" s="29"/>
       <c r="T104" s="30"/>
-      <c r="U104" s="65"/>
+      <c r="U104" s="64"/>
       <c r="V104" s="30"/>
       <c r="W104" s="30"/>
       <c r="X104" s="30"/>
-      <c r="Y104" s="66"/>
+      <c r="Y104" s="65"/>
       <c r="Z104" s="37"/>
       <c r="AA104" s="38"/>
       <c r="AB104" s="11"/>
@@ -29280,14 +29344,14 @@
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
       <c r="Q105" s="18"/>
-      <c r="R105" s="62"/>
+      <c r="R105" s="61"/>
       <c r="S105" s="18"/>
       <c r="T105" s="18"/>
-      <c r="U105" s="62"/>
+      <c r="U105" s="61"/>
       <c r="V105" s="18"/>
       <c r="W105" s="18"/>
       <c r="X105" s="18"/>
-      <c r="Y105" s="63"/>
+      <c r="Y105" s="62"/>
       <c r="Z105" s="35"/>
       <c r="AA105" s="36"/>
       <c r="AB105" s="11"/>
@@ -29538,14 +29602,14 @@
       <c r="O106" s="27"/>
       <c r="P106" s="27"/>
       <c r="Q106" s="28"/>
-      <c r="R106" s="65"/>
+      <c r="R106" s="64"/>
       <c r="S106" s="29"/>
       <c r="T106" s="30"/>
-      <c r="U106" s="65"/>
+      <c r="U106" s="64"/>
       <c r="V106" s="30"/>
       <c r="W106" s="30"/>
       <c r="X106" s="30"/>
-      <c r="Y106" s="66"/>
+      <c r="Y106" s="65"/>
       <c r="Z106" s="37"/>
       <c r="AA106" s="38"/>
       <c r="AB106" s="11"/>
@@ -29796,14 +29860,14 @@
       <c r="O107" s="22"/>
       <c r="P107" s="22"/>
       <c r="Q107" s="18"/>
-      <c r="R107" s="62"/>
+      <c r="R107" s="61"/>
       <c r="S107" s="18"/>
       <c r="T107" s="18"/>
-      <c r="U107" s="62"/>
+      <c r="U107" s="61"/>
       <c r="V107" s="18"/>
       <c r="W107" s="18"/>
       <c r="X107" s="18"/>
-      <c r="Y107" s="63"/>
+      <c r="Y107" s="62"/>
       <c r="Z107" s="35"/>
       <c r="AA107" s="36"/>
       <c r="AB107" s="11"/>
@@ -30054,14 +30118,14 @@
       <c r="O108" s="27"/>
       <c r="P108" s="27"/>
       <c r="Q108" s="28"/>
-      <c r="R108" s="65"/>
+      <c r="R108" s="64"/>
       <c r="S108" s="29"/>
       <c r="T108" s="30"/>
-      <c r="U108" s="65"/>
+      <c r="U108" s="64"/>
       <c r="V108" s="30"/>
       <c r="W108" s="30"/>
       <c r="X108" s="30"/>
-      <c r="Y108" s="66"/>
+      <c r="Y108" s="65"/>
       <c r="Z108" s="37"/>
       <c r="AA108" s="38"/>
       <c r="AB108" s="11"/>
@@ -30312,14 +30376,14 @@
       <c r="O109" s="22"/>
       <c r="P109" s="22"/>
       <c r="Q109" s="18"/>
-      <c r="R109" s="62"/>
+      <c r="R109" s="61"/>
       <c r="S109" s="18"/>
       <c r="T109" s="18"/>
-      <c r="U109" s="62"/>
+      <c r="U109" s="61"/>
       <c r="V109" s="18"/>
       <c r="W109" s="18"/>
       <c r="X109" s="18"/>
-      <c r="Y109" s="63"/>
+      <c r="Y109" s="62"/>
       <c r="Z109" s="35"/>
       <c r="AA109" s="36"/>
       <c r="AB109" s="11"/>
@@ -30570,14 +30634,14 @@
       <c r="O110" s="27"/>
       <c r="P110" s="27"/>
       <c r="Q110" s="28"/>
-      <c r="R110" s="65"/>
+      <c r="R110" s="64"/>
       <c r="S110" s="29"/>
       <c r="T110" s="30"/>
-      <c r="U110" s="65"/>
+      <c r="U110" s="64"/>
       <c r="V110" s="30"/>
       <c r="W110" s="30"/>
       <c r="X110" s="30"/>
-      <c r="Y110" s="66"/>
+      <c r="Y110" s="65"/>
       <c r="Z110" s="37"/>
       <c r="AA110" s="38"/>
       <c r="AB110" s="11"/>
@@ -30828,14 +30892,14 @@
       <c r="O111" s="22"/>
       <c r="P111" s="22"/>
       <c r="Q111" s="18"/>
-      <c r="R111" s="62"/>
+      <c r="R111" s="61"/>
       <c r="S111" s="18"/>
       <c r="T111" s="18"/>
-      <c r="U111" s="62"/>
+      <c r="U111" s="61"/>
       <c r="V111" s="18"/>
       <c r="W111" s="18"/>
       <c r="X111" s="18"/>
-      <c r="Y111" s="63"/>
+      <c r="Y111" s="62"/>
       <c r="Z111" s="35"/>
       <c r="AA111" s="36"/>
       <c r="AB111" s="11"/>
@@ -31086,14 +31150,14 @@
       <c r="O112" s="27"/>
       <c r="P112" s="27"/>
       <c r="Q112" s="28"/>
-      <c r="R112" s="65"/>
+      <c r="R112" s="64"/>
       <c r="S112" s="29"/>
       <c r="T112" s="30"/>
-      <c r="U112" s="65"/>
+      <c r="U112" s="64"/>
       <c r="V112" s="30"/>
       <c r="W112" s="30"/>
       <c r="X112" s="30"/>
-      <c r="Y112" s="66"/>
+      <c r="Y112" s="65"/>
       <c r="Z112" s="37"/>
       <c r="AA112" s="38"/>
       <c r="AB112" s="11"/>
@@ -31344,14 +31408,14 @@
       <c r="O113" s="22"/>
       <c r="P113" s="22"/>
       <c r="Q113" s="18"/>
-      <c r="R113" s="62"/>
+      <c r="R113" s="61"/>
       <c r="S113" s="18"/>
       <c r="T113" s="18"/>
-      <c r="U113" s="62"/>
+      <c r="U113" s="61"/>
       <c r="V113" s="18"/>
       <c r="W113" s="18"/>
       <c r="X113" s="18"/>
-      <c r="Y113" s="63"/>
+      <c r="Y113" s="62"/>
       <c r="Z113" s="35"/>
       <c r="AA113" s="36"/>
       <c r="AB113" s="11"/>
@@ -31602,14 +31666,14 @@
       <c r="O114" s="27"/>
       <c r="P114" s="27"/>
       <c r="Q114" s="28"/>
-      <c r="R114" s="65"/>
+      <c r="R114" s="64"/>
       <c r="S114" s="29"/>
       <c r="T114" s="30"/>
-      <c r="U114" s="65"/>
+      <c r="U114" s="64"/>
       <c r="V114" s="30"/>
       <c r="W114" s="30"/>
       <c r="X114" s="30"/>
-      <c r="Y114" s="66"/>
+      <c r="Y114" s="65"/>
       <c r="Z114" s="37"/>
       <c r="AA114" s="38"/>
       <c r="AB114" s="11"/>
@@ -31860,14 +31924,14 @@
       <c r="O115" s="22"/>
       <c r="P115" s="22"/>
       <c r="Q115" s="18"/>
-      <c r="R115" s="62"/>
+      <c r="R115" s="61"/>
       <c r="S115" s="18"/>
       <c r="T115" s="18"/>
-      <c r="U115" s="62"/>
+      <c r="U115" s="61"/>
       <c r="V115" s="18"/>
       <c r="W115" s="18"/>
       <c r="X115" s="18"/>
-      <c r="Y115" s="63"/>
+      <c r="Y115" s="62"/>
       <c r="Z115" s="35"/>
       <c r="AA115" s="36"/>
       <c r="AB115" s="11"/>
@@ -32118,14 +32182,14 @@
       <c r="O116" s="27"/>
       <c r="P116" s="27"/>
       <c r="Q116" s="28"/>
-      <c r="R116" s="65"/>
+      <c r="R116" s="64"/>
       <c r="S116" s="29"/>
       <c r="T116" s="30"/>
-      <c r="U116" s="65"/>
+      <c r="U116" s="64"/>
       <c r="V116" s="30"/>
       <c r="W116" s="30"/>
       <c r="X116" s="30"/>
-      <c r="Y116" s="66"/>
+      <c r="Y116" s="65"/>
       <c r="Z116" s="37"/>
       <c r="AA116" s="38"/>
       <c r="AB116" s="11"/>
@@ -32376,14 +32440,14 @@
       <c r="O117" s="22"/>
       <c r="P117" s="22"/>
       <c r="Q117" s="18"/>
-      <c r="R117" s="62"/>
+      <c r="R117" s="61"/>
       <c r="S117" s="18"/>
       <c r="T117" s="18"/>
-      <c r="U117" s="62"/>
+      <c r="U117" s="61"/>
       <c r="V117" s="18"/>
       <c r="W117" s="18"/>
       <c r="X117" s="18"/>
-      <c r="Y117" s="63"/>
+      <c r="Y117" s="62"/>
       <c r="Z117" s="35"/>
       <c r="AA117" s="36"/>
       <c r="AB117" s="11"/>
@@ -32634,14 +32698,14 @@
       <c r="O118" s="27"/>
       <c r="P118" s="27"/>
       <c r="Q118" s="28"/>
-      <c r="R118" s="65"/>
+      <c r="R118" s="64"/>
       <c r="S118" s="29"/>
       <c r="T118" s="30"/>
-      <c r="U118" s="65"/>
+      <c r="U118" s="64"/>
       <c r="V118" s="30"/>
       <c r="W118" s="30"/>
       <c r="X118" s="30"/>
-      <c r="Y118" s="66"/>
+      <c r="Y118" s="65"/>
       <c r="Z118" s="37"/>
       <c r="AA118" s="38"/>
       <c r="AB118" s="11"/>
@@ -32892,14 +32956,14 @@
       <c r="O119" s="22"/>
       <c r="P119" s="22"/>
       <c r="Q119" s="18"/>
-      <c r="R119" s="62"/>
+      <c r="R119" s="61"/>
       <c r="S119" s="18"/>
       <c r="T119" s="18"/>
-      <c r="U119" s="62"/>
+      <c r="U119" s="61"/>
       <c r="V119" s="18"/>
       <c r="W119" s="18"/>
       <c r="X119" s="18"/>
-      <c r="Y119" s="63"/>
+      <c r="Y119" s="62"/>
       <c r="Z119" s="35"/>
       <c r="AA119" s="36"/>
       <c r="AB119" s="11"/>
@@ -33150,14 +33214,14 @@
       <c r="O120" s="27"/>
       <c r="P120" s="27"/>
       <c r="Q120" s="28"/>
-      <c r="R120" s="65"/>
+      <c r="R120" s="64"/>
       <c r="S120" s="29"/>
       <c r="T120" s="30"/>
-      <c r="U120" s="65"/>
+      <c r="U120" s="64"/>
       <c r="V120" s="30"/>
       <c r="W120" s="30"/>
       <c r="X120" s="30"/>
-      <c r="Y120" s="66"/>
+      <c r="Y120" s="65"/>
       <c r="Z120" s="37"/>
       <c r="AA120" s="38"/>
       <c r="AB120" s="11"/>
@@ -33408,14 +33472,14 @@
       <c r="O121" s="22"/>
       <c r="P121" s="22"/>
       <c r="Q121" s="18"/>
-      <c r="R121" s="62"/>
+      <c r="R121" s="61"/>
       <c r="S121" s="18"/>
       <c r="T121" s="18"/>
-      <c r="U121" s="62"/>
+      <c r="U121" s="61"/>
       <c r="V121" s="18"/>
       <c r="W121" s="18"/>
       <c r="X121" s="18"/>
-      <c r="Y121" s="63"/>
+      <c r="Y121" s="62"/>
       <c r="Z121" s="35"/>
       <c r="AA121" s="36"/>
       <c r="AB121" s="11"/>
@@ -33666,14 +33730,14 @@
       <c r="O122" s="27"/>
       <c r="P122" s="27"/>
       <c r="Q122" s="28"/>
-      <c r="R122" s="65"/>
+      <c r="R122" s="64"/>
       <c r="S122" s="29"/>
       <c r="T122" s="30"/>
-      <c r="U122" s="65"/>
+      <c r="U122" s="64"/>
       <c r="V122" s="30"/>
       <c r="W122" s="30"/>
       <c r="X122" s="30"/>
-      <c r="Y122" s="66"/>
+      <c r="Y122" s="65"/>
       <c r="Z122" s="37"/>
       <c r="AA122" s="38"/>
       <c r="AB122" s="11"/>
@@ -33924,14 +33988,14 @@
       <c r="O123" s="22"/>
       <c r="P123" s="22"/>
       <c r="Q123" s="18"/>
-      <c r="R123" s="62"/>
+      <c r="R123" s="61"/>
       <c r="S123" s="18"/>
       <c r="T123" s="18"/>
-      <c r="U123" s="62"/>
+      <c r="U123" s="61"/>
       <c r="V123" s="18"/>
       <c r="W123" s="18"/>
       <c r="X123" s="18"/>
-      <c r="Y123" s="63"/>
+      <c r="Y123" s="62"/>
       <c r="Z123" s="35"/>
       <c r="AA123" s="36"/>
       <c r="AB123" s="11"/>
@@ -34182,14 +34246,14 @@
       <c r="O124" s="27"/>
       <c r="P124" s="27"/>
       <c r="Q124" s="28"/>
-      <c r="R124" s="65"/>
+      <c r="R124" s="64"/>
       <c r="S124" s="29"/>
       <c r="T124" s="30"/>
-      <c r="U124" s="65"/>
+      <c r="U124" s="64"/>
       <c r="V124" s="30"/>
       <c r="W124" s="30"/>
       <c r="X124" s="30"/>
-      <c r="Y124" s="66"/>
+      <c r="Y124" s="65"/>
       <c r="Z124" s="37"/>
       <c r="AA124" s="38"/>
       <c r="AB124" s="11"/>
@@ -34440,14 +34504,14 @@
       <c r="O125" s="22"/>
       <c r="P125" s="22"/>
       <c r="Q125" s="18"/>
-      <c r="R125" s="62"/>
+      <c r="R125" s="61"/>
       <c r="S125" s="18"/>
       <c r="T125" s="18"/>
-      <c r="U125" s="62"/>
+      <c r="U125" s="61"/>
       <c r="V125" s="18"/>
       <c r="W125" s="18"/>
       <c r="X125" s="18"/>
-      <c r="Y125" s="63"/>
+      <c r="Y125" s="62"/>
       <c r="Z125" s="35"/>
       <c r="AA125" s="36"/>
       <c r="AB125" s="11"/>
@@ -34698,14 +34762,14 @@
       <c r="O126" s="27"/>
       <c r="P126" s="27"/>
       <c r="Q126" s="28"/>
-      <c r="R126" s="65"/>
+      <c r="R126" s="64"/>
       <c r="S126" s="29"/>
       <c r="T126" s="30"/>
-      <c r="U126" s="65"/>
+      <c r="U126" s="64"/>
       <c r="V126" s="30"/>
       <c r="W126" s="30"/>
       <c r="X126" s="30"/>
-      <c r="Y126" s="66"/>
+      <c r="Y126" s="65"/>
       <c r="Z126" s="37"/>
       <c r="AA126" s="38"/>
       <c r="AB126" s="11"/>
@@ -34956,14 +35020,14 @@
       <c r="O127" s="22"/>
       <c r="P127" s="22"/>
       <c r="Q127" s="18"/>
-      <c r="R127" s="62"/>
+      <c r="R127" s="61"/>
       <c r="S127" s="18"/>
       <c r="T127" s="18"/>
-      <c r="U127" s="62"/>
+      <c r="U127" s="61"/>
       <c r="V127" s="18"/>
       <c r="W127" s="18"/>
       <c r="X127" s="18"/>
-      <c r="Y127" s="63"/>
+      <c r="Y127" s="62"/>
       <c r="Z127" s="35"/>
       <c r="AA127" s="36"/>
       <c r="AB127" s="11"/>
@@ -35214,14 +35278,14 @@
       <c r="O128" s="27"/>
       <c r="P128" s="27"/>
       <c r="Q128" s="28"/>
-      <c r="R128" s="65"/>
+      <c r="R128" s="64"/>
       <c r="S128" s="29"/>
       <c r="T128" s="30"/>
-      <c r="U128" s="65"/>
+      <c r="U128" s="64"/>
       <c r="V128" s="30"/>
       <c r="W128" s="30"/>
       <c r="X128" s="30"/>
-      <c r="Y128" s="66"/>
+      <c r="Y128" s="65"/>
       <c r="Z128" s="37"/>
       <c r="AA128" s="38"/>
       <c r="AB128" s="11"/>
@@ -35472,14 +35536,14 @@
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
       <c r="Q129" s="18"/>
-      <c r="R129" s="62"/>
+      <c r="R129" s="61"/>
       <c r="S129" s="18"/>
       <c r="T129" s="18"/>
-      <c r="U129" s="62"/>
+      <c r="U129" s="61"/>
       <c r="V129" s="18"/>
       <c r="W129" s="18"/>
       <c r="X129" s="18"/>
-      <c r="Y129" s="63"/>
+      <c r="Y129" s="62"/>
       <c r="Z129" s="35"/>
       <c r="AA129" s="36"/>
       <c r="AB129" s="11"/>
@@ -35730,14 +35794,14 @@
       <c r="O130" s="27"/>
       <c r="P130" s="27"/>
       <c r="Q130" s="28"/>
-      <c r="R130" s="65"/>
+      <c r="R130" s="64"/>
       <c r="S130" s="29"/>
       <c r="T130" s="30"/>
-      <c r="U130" s="65"/>
+      <c r="U130" s="64"/>
       <c r="V130" s="30"/>
       <c r="W130" s="30"/>
       <c r="X130" s="30"/>
-      <c r="Y130" s="66"/>
+      <c r="Y130" s="65"/>
       <c r="Z130" s="37"/>
       <c r="AA130" s="38"/>
       <c r="AB130" s="11"/>
@@ -35988,14 +36052,14 @@
       <c r="O131" s="22"/>
       <c r="P131" s="22"/>
       <c r="Q131" s="18"/>
-      <c r="R131" s="62"/>
+      <c r="R131" s="61"/>
       <c r="S131" s="18"/>
       <c r="T131" s="18"/>
-      <c r="U131" s="62"/>
+      <c r="U131" s="61"/>
       <c r="V131" s="18"/>
       <c r="W131" s="18"/>
       <c r="X131" s="18"/>
-      <c r="Y131" s="63"/>
+      <c r="Y131" s="62"/>
       <c r="Z131" s="35"/>
       <c r="AA131" s="36"/>
       <c r="AB131" s="11"/>
@@ -36246,14 +36310,14 @@
       <c r="O132" s="27"/>
       <c r="P132" s="27"/>
       <c r="Q132" s="28"/>
-      <c r="R132" s="65"/>
+      <c r="R132" s="64"/>
       <c r="S132" s="29"/>
       <c r="T132" s="30"/>
-      <c r="U132" s="65"/>
+      <c r="U132" s="64"/>
       <c r="V132" s="30"/>
       <c r="W132" s="30"/>
       <c r="X132" s="30"/>
-      <c r="Y132" s="66"/>
+      <c r="Y132" s="65"/>
       <c r="Z132" s="37"/>
       <c r="AA132" s="38"/>
       <c r="AB132" s="11"/>
@@ -36504,14 +36568,14 @@
       <c r="O133" s="22"/>
       <c r="P133" s="22"/>
       <c r="Q133" s="18"/>
-      <c r="R133" s="62"/>
+      <c r="R133" s="61"/>
       <c r="S133" s="18"/>
       <c r="T133" s="18"/>
-      <c r="U133" s="62"/>
+      <c r="U133" s="61"/>
       <c r="V133" s="18"/>
       <c r="W133" s="18"/>
       <c r="X133" s="18"/>
-      <c r="Y133" s="63"/>
+      <c r="Y133" s="62"/>
       <c r="Z133" s="35"/>
       <c r="AA133" s="36"/>
       <c r="AB133" s="11"/>
@@ -36762,14 +36826,14 @@
       <c r="O134" s="27"/>
       <c r="P134" s="27"/>
       <c r="Q134" s="28"/>
-      <c r="R134" s="65"/>
+      <c r="R134" s="64"/>
       <c r="S134" s="29"/>
       <c r="T134" s="30"/>
-      <c r="U134" s="65"/>
+      <c r="U134" s="64"/>
       <c r="V134" s="30"/>
       <c r="W134" s="30"/>
       <c r="X134" s="30"/>
-      <c r="Y134" s="66"/>
+      <c r="Y134" s="65"/>
       <c r="Z134" s="37"/>
       <c r="AA134" s="38"/>
       <c r="AB134" s="11"/>
@@ -37020,14 +37084,14 @@
       <c r="O135" s="22"/>
       <c r="P135" s="22"/>
       <c r="Q135" s="18"/>
-      <c r="R135" s="62"/>
+      <c r="R135" s="61"/>
       <c r="S135" s="18"/>
       <c r="T135" s="18"/>
-      <c r="U135" s="62"/>
+      <c r="U135" s="61"/>
       <c r="V135" s="18"/>
       <c r="W135" s="18"/>
       <c r="X135" s="18"/>
-      <c r="Y135" s="63"/>
+      <c r="Y135" s="62"/>
       <c r="Z135" s="35"/>
       <c r="AA135" s="36"/>
       <c r="AB135" s="11"/>
@@ -37278,14 +37342,14 @@
       <c r="O136" s="27"/>
       <c r="P136" s="27"/>
       <c r="Q136" s="28"/>
-      <c r="R136" s="65"/>
+      <c r="R136" s="64"/>
       <c r="S136" s="29"/>
       <c r="T136" s="30"/>
-      <c r="U136" s="65"/>
+      <c r="U136" s="64"/>
       <c r="V136" s="30"/>
       <c r="W136" s="30"/>
       <c r="X136" s="30"/>
-      <c r="Y136" s="66"/>
+      <c r="Y136" s="65"/>
       <c r="Z136" s="37"/>
       <c r="AA136" s="38"/>
       <c r="AB136" s="11"/>
@@ -37536,14 +37600,14 @@
       <c r="O137" s="22"/>
       <c r="P137" s="22"/>
       <c r="Q137" s="18"/>
-      <c r="R137" s="62"/>
+      <c r="R137" s="61"/>
       <c r="S137" s="18"/>
       <c r="T137" s="18"/>
-      <c r="U137" s="62"/>
+      <c r="U137" s="61"/>
       <c r="V137" s="18"/>
       <c r="W137" s="18"/>
       <c r="X137" s="18"/>
-      <c r="Y137" s="63"/>
+      <c r="Y137" s="62"/>
       <c r="Z137" s="35"/>
       <c r="AA137" s="36"/>
       <c r="AB137" s="11"/>
@@ -37794,14 +37858,14 @@
       <c r="O138" s="27"/>
       <c r="P138" s="27"/>
       <c r="Q138" s="28"/>
-      <c r="R138" s="65"/>
+      <c r="R138" s="64"/>
       <c r="S138" s="29"/>
       <c r="T138" s="30"/>
-      <c r="U138" s="65"/>
+      <c r="U138" s="64"/>
       <c r="V138" s="30"/>
       <c r="W138" s="30"/>
       <c r="X138" s="30"/>
-      <c r="Y138" s="66"/>
+      <c r="Y138" s="65"/>
       <c r="Z138" s="37"/>
       <c r="AA138" s="38"/>
       <c r="AB138" s="11"/>
@@ -38052,14 +38116,14 @@
       <c r="O139" s="22"/>
       <c r="P139" s="22"/>
       <c r="Q139" s="18"/>
-      <c r="R139" s="62"/>
+      <c r="R139" s="61"/>
       <c r="S139" s="18"/>
       <c r="T139" s="18"/>
-      <c r="U139" s="62"/>
+      <c r="U139" s="61"/>
       <c r="V139" s="18"/>
       <c r="W139" s="18"/>
       <c r="X139" s="18"/>
-      <c r="Y139" s="63"/>
+      <c r="Y139" s="62"/>
       <c r="Z139" s="35"/>
       <c r="AA139" s="36"/>
       <c r="AB139" s="11"/>
@@ -38310,14 +38374,14 @@
       <c r="O140" s="27"/>
       <c r="P140" s="27"/>
       <c r="Q140" s="28"/>
-      <c r="R140" s="65"/>
+      <c r="R140" s="64"/>
       <c r="S140" s="29"/>
       <c r="T140" s="30"/>
-      <c r="U140" s="65"/>
+      <c r="U140" s="64"/>
       <c r="V140" s="30"/>
       <c r="W140" s="30"/>
       <c r="X140" s="30"/>
-      <c r="Y140" s="66"/>
+      <c r="Y140" s="65"/>
       <c r="Z140" s="37"/>
       <c r="AA140" s="38"/>
       <c r="AB140" s="11"/>
@@ -38568,14 +38632,14 @@
       <c r="O141" s="22"/>
       <c r="P141" s="22"/>
       <c r="Q141" s="18"/>
-      <c r="R141" s="62"/>
+      <c r="R141" s="61"/>
       <c r="S141" s="18"/>
       <c r="T141" s="18"/>
-      <c r="U141" s="62"/>
+      <c r="U141" s="61"/>
       <c r="V141" s="18"/>
       <c r="W141" s="18"/>
       <c r="X141" s="18"/>
-      <c r="Y141" s="63"/>
+      <c r="Y141" s="62"/>
       <c r="Z141" s="35"/>
       <c r="AA141" s="36"/>
       <c r="AB141" s="11"/>
@@ -38826,14 +38890,14 @@
       <c r="O142" s="27"/>
       <c r="P142" s="27"/>
       <c r="Q142" s="28"/>
-      <c r="R142" s="65"/>
+      <c r="R142" s="64"/>
       <c r="S142" s="29"/>
       <c r="T142" s="30"/>
-      <c r="U142" s="65"/>
+      <c r="U142" s="64"/>
       <c r="V142" s="30"/>
       <c r="W142" s="30"/>
       <c r="X142" s="30"/>
-      <c r="Y142" s="66"/>
+      <c r="Y142" s="65"/>
       <c r="Z142" s="37"/>
       <c r="AA142" s="38"/>
       <c r="AB142" s="11"/>
@@ -39084,14 +39148,14 @@
       <c r="O143" s="22"/>
       <c r="P143" s="22"/>
       <c r="Q143" s="18"/>
-      <c r="R143" s="62"/>
+      <c r="R143" s="61"/>
       <c r="S143" s="18"/>
       <c r="T143" s="18"/>
-      <c r="U143" s="62"/>
+      <c r="U143" s="61"/>
       <c r="V143" s="18"/>
       <c r="W143" s="18"/>
       <c r="X143" s="18"/>
-      <c r="Y143" s="63"/>
+      <c r="Y143" s="62"/>
       <c r="Z143" s="35"/>
       <c r="AA143" s="36"/>
       <c r="AB143" s="11"/>
@@ -39342,14 +39406,14 @@
       <c r="O144" s="27"/>
       <c r="P144" s="27"/>
       <c r="Q144" s="28"/>
-      <c r="R144" s="65"/>
+      <c r="R144" s="64"/>
       <c r="S144" s="29"/>
       <c r="T144" s="30"/>
-      <c r="U144" s="65"/>
+      <c r="U144" s="64"/>
       <c r="V144" s="30"/>
       <c r="W144" s="30"/>
       <c r="X144" s="30"/>
-      <c r="Y144" s="66"/>
+      <c r="Y144" s="65"/>
       <c r="Z144" s="37"/>
       <c r="AA144" s="38"/>
       <c r="AB144" s="11"/>
@@ -39600,14 +39664,14 @@
       <c r="O145" s="22"/>
       <c r="P145" s="22"/>
       <c r="Q145" s="18"/>
-      <c r="R145" s="62"/>
+      <c r="R145" s="61"/>
       <c r="S145" s="18"/>
       <c r="T145" s="18"/>
-      <c r="U145" s="62"/>
+      <c r="U145" s="61"/>
       <c r="V145" s="18"/>
       <c r="W145" s="18"/>
       <c r="X145" s="18"/>
-      <c r="Y145" s="63"/>
+      <c r="Y145" s="62"/>
       <c r="Z145" s="35"/>
       <c r="AA145" s="36"/>
       <c r="AB145" s="11"/>
@@ -39858,14 +39922,14 @@
       <c r="O146" s="27"/>
       <c r="P146" s="27"/>
       <c r="Q146" s="28"/>
-      <c r="R146" s="65"/>
+      <c r="R146" s="64"/>
       <c r="S146" s="29"/>
       <c r="T146" s="30"/>
-      <c r="U146" s="65"/>
+      <c r="U146" s="64"/>
       <c r="V146" s="30"/>
       <c r="W146" s="30"/>
       <c r="X146" s="30"/>
-      <c r="Y146" s="66"/>
+      <c r="Y146" s="65"/>
       <c r="Z146" s="37"/>
       <c r="AA146" s="38"/>
       <c r="AB146" s="11"/>
@@ -40116,14 +40180,14 @@
       <c r="O147" s="22"/>
       <c r="P147" s="22"/>
       <c r="Q147" s="18"/>
-      <c r="R147" s="62"/>
+      <c r="R147" s="61"/>
       <c r="S147" s="18"/>
       <c r="T147" s="18"/>
-      <c r="U147" s="62"/>
+      <c r="U147" s="61"/>
       <c r="V147" s="18"/>
       <c r="W147" s="18"/>
       <c r="X147" s="18"/>
-      <c r="Y147" s="63"/>
+      <c r="Y147" s="62"/>
       <c r="Z147" s="35"/>
       <c r="AA147" s="36"/>
       <c r="AB147" s="11"/>
@@ -40374,14 +40438,14 @@
       <c r="O148" s="27"/>
       <c r="P148" s="27"/>
       <c r="Q148" s="28"/>
-      <c r="R148" s="65"/>
+      <c r="R148" s="64"/>
       <c r="S148" s="29"/>
       <c r="T148" s="30"/>
-      <c r="U148" s="65"/>
+      <c r="U148" s="64"/>
       <c r="V148" s="30"/>
       <c r="W148" s="30"/>
       <c r="X148" s="30"/>
-      <c r="Y148" s="66"/>
+      <c r="Y148" s="65"/>
       <c r="Z148" s="37"/>
       <c r="AA148" s="38"/>
       <c r="AB148" s="11"/>
@@ -40632,14 +40696,14 @@
       <c r="O149" s="22"/>
       <c r="P149" s="22"/>
       <c r="Q149" s="18"/>
-      <c r="R149" s="62"/>
+      <c r="R149" s="61"/>
       <c r="S149" s="18"/>
       <c r="T149" s="18"/>
-      <c r="U149" s="62"/>
+      <c r="U149" s="61"/>
       <c r="V149" s="18"/>
       <c r="W149" s="18"/>
       <c r="X149" s="18"/>
-      <c r="Y149" s="63"/>
+      <c r="Y149" s="62"/>
       <c r="Z149" s="35"/>
       <c r="AA149" s="36"/>
       <c r="AB149" s="11"/>
@@ -40890,14 +40954,14 @@
       <c r="O150" s="27"/>
       <c r="P150" s="27"/>
       <c r="Q150" s="28"/>
-      <c r="R150" s="65"/>
+      <c r="R150" s="64"/>
       <c r="S150" s="29"/>
       <c r="T150" s="30"/>
-      <c r="U150" s="65"/>
+      <c r="U150" s="64"/>
       <c r="V150" s="30"/>
       <c r="W150" s="30"/>
       <c r="X150" s="30"/>
-      <c r="Y150" s="66"/>
+      <c r="Y150" s="65"/>
       <c r="Z150" s="37"/>
       <c r="AA150" s="38"/>
       <c r="AB150" s="11"/>
@@ -41148,14 +41212,14 @@
       <c r="O151" s="22"/>
       <c r="P151" s="22"/>
       <c r="Q151" s="18"/>
-      <c r="R151" s="62"/>
+      <c r="R151" s="61"/>
       <c r="S151" s="18"/>
       <c r="T151" s="18"/>
-      <c r="U151" s="62"/>
+      <c r="U151" s="61"/>
       <c r="V151" s="18"/>
       <c r="W151" s="18"/>
       <c r="X151" s="18"/>
-      <c r="Y151" s="63"/>
+      <c r="Y151" s="62"/>
       <c r="Z151" s="35"/>
       <c r="AA151" s="36"/>
       <c r="AB151" s="11"/>
@@ -41406,14 +41470,14 @@
       <c r="O152" s="27"/>
       <c r="P152" s="27"/>
       <c r="Q152" s="28"/>
-      <c r="R152" s="65"/>
+      <c r="R152" s="64"/>
       <c r="S152" s="29"/>
       <c r="T152" s="30"/>
-      <c r="U152" s="65"/>
+      <c r="U152" s="64"/>
       <c r="V152" s="30"/>
       <c r="W152" s="30"/>
       <c r="X152" s="30"/>
-      <c r="Y152" s="66"/>
+      <c r="Y152" s="65"/>
       <c r="Z152" s="37"/>
       <c r="AA152" s="38"/>
       <c r="AB152" s="11"/>
@@ -41664,14 +41728,14 @@
       <c r="O153" s="22"/>
       <c r="P153" s="22"/>
       <c r="Q153" s="18"/>
-      <c r="R153" s="62"/>
+      <c r="R153" s="61"/>
       <c r="S153" s="18"/>
       <c r="T153" s="18"/>
-      <c r="U153" s="62"/>
+      <c r="U153" s="61"/>
       <c r="V153" s="18"/>
       <c r="W153" s="18"/>
       <c r="X153" s="18"/>
-      <c r="Y153" s="63"/>
+      <c r="Y153" s="62"/>
       <c r="Z153" s="35"/>
       <c r="AA153" s="36"/>
       <c r="AB153" s="11"/>
@@ -41922,14 +41986,14 @@
       <c r="O154" s="27"/>
       <c r="P154" s="27"/>
       <c r="Q154" s="28"/>
-      <c r="R154" s="65"/>
+      <c r="R154" s="64"/>
       <c r="S154" s="29"/>
       <c r="T154" s="30"/>
-      <c r="U154" s="65"/>
+      <c r="U154" s="64"/>
       <c r="V154" s="30"/>
       <c r="W154" s="30"/>
       <c r="X154" s="30"/>
-      <c r="Y154" s="66"/>
+      <c r="Y154" s="65"/>
       <c r="Z154" s="37"/>
       <c r="AA154" s="38"/>
       <c r="AB154" s="11"/>
@@ -42180,14 +42244,14 @@
       <c r="O155" s="22"/>
       <c r="P155" s="22"/>
       <c r="Q155" s="18"/>
-      <c r="R155" s="62"/>
+      <c r="R155" s="61"/>
       <c r="S155" s="18"/>
       <c r="T155" s="18"/>
-      <c r="U155" s="62"/>
+      <c r="U155" s="61"/>
       <c r="V155" s="18"/>
       <c r="W155" s="18"/>
       <c r="X155" s="18"/>
-      <c r="Y155" s="63"/>
+      <c r="Y155" s="62"/>
       <c r="Z155" s="35"/>
       <c r="AA155" s="36"/>
       <c r="AB155" s="11"/>
@@ -42438,14 +42502,14 @@
       <c r="O156" s="27"/>
       <c r="P156" s="27"/>
       <c r="Q156" s="28"/>
-      <c r="R156" s="65"/>
+      <c r="R156" s="64"/>
       <c r="S156" s="29"/>
       <c r="T156" s="30"/>
-      <c r="U156" s="65"/>
+      <c r="U156" s="64"/>
       <c r="V156" s="30"/>
       <c r="W156" s="30"/>
       <c r="X156" s="30"/>
-      <c r="Y156" s="66"/>
+      <c r="Y156" s="65"/>
       <c r="Z156" s="37"/>
       <c r="AA156" s="38"/>
       <c r="AB156" s="11"/>
@@ -42696,14 +42760,14 @@
       <c r="O157" s="22"/>
       <c r="P157" s="22"/>
       <c r="Q157" s="18"/>
-      <c r="R157" s="62"/>
+      <c r="R157" s="61"/>
       <c r="S157" s="18"/>
       <c r="T157" s="18"/>
-      <c r="U157" s="62"/>
+      <c r="U157" s="61"/>
       <c r="V157" s="18"/>
       <c r="W157" s="18"/>
       <c r="X157" s="18"/>
-      <c r="Y157" s="63"/>
+      <c r="Y157" s="62"/>
       <c r="Z157" s="35"/>
       <c r="AA157" s="36"/>
       <c r="AB157" s="11"/>
@@ -42954,14 +43018,14 @@
       <c r="O158" s="27"/>
       <c r="P158" s="27"/>
       <c r="Q158" s="28"/>
-      <c r="R158" s="65"/>
+      <c r="R158" s="64"/>
       <c r="S158" s="29"/>
       <c r="T158" s="30"/>
-      <c r="U158" s="65"/>
+      <c r="U158" s="64"/>
       <c r="V158" s="30"/>
       <c r="W158" s="30"/>
       <c r="X158" s="30"/>
-      <c r="Y158" s="66"/>
+      <c r="Y158" s="65"/>
       <c r="Z158" s="37"/>
       <c r="AA158" s="38"/>
       <c r="AB158" s="11"/>
@@ -43212,14 +43276,14 @@
       <c r="O159" s="22"/>
       <c r="P159" s="22"/>
       <c r="Q159" s="18"/>
-      <c r="R159" s="62"/>
+      <c r="R159" s="61"/>
       <c r="S159" s="18"/>
       <c r="T159" s="18"/>
-      <c r="U159" s="62"/>
+      <c r="U159" s="61"/>
       <c r="V159" s="18"/>
       <c r="W159" s="18"/>
       <c r="X159" s="18"/>
-      <c r="Y159" s="63"/>
+      <c r="Y159" s="62"/>
       <c r="Z159" s="35"/>
       <c r="AA159" s="36"/>
       <c r="AB159" s="11"/>
@@ -43470,14 +43534,14 @@
       <c r="O160" s="27"/>
       <c r="P160" s="27"/>
       <c r="Q160" s="28"/>
-      <c r="R160" s="65"/>
+      <c r="R160" s="64"/>
       <c r="S160" s="29"/>
       <c r="T160" s="30"/>
-      <c r="U160" s="65"/>
+      <c r="U160" s="64"/>
       <c r="V160" s="30"/>
       <c r="W160" s="30"/>
       <c r="X160" s="30"/>
-      <c r="Y160" s="66"/>
+      <c r="Y160" s="65"/>
       <c r="Z160" s="37"/>
       <c r="AA160" s="38"/>
       <c r="AB160" s="11"/>
@@ -43728,14 +43792,14 @@
       <c r="O161" s="22"/>
       <c r="P161" s="22"/>
       <c r="Q161" s="18"/>
-      <c r="R161" s="62"/>
+      <c r="R161" s="61"/>
       <c r="S161" s="18"/>
       <c r="T161" s="18"/>
-      <c r="U161" s="62"/>
+      <c r="U161" s="61"/>
       <c r="V161" s="18"/>
       <c r="W161" s="18"/>
       <c r="X161" s="18"/>
-      <c r="Y161" s="63"/>
+      <c r="Y161" s="62"/>
       <c r="Z161" s="35"/>
       <c r="AA161" s="36"/>
       <c r="AB161" s="11"/>
@@ -43986,14 +44050,14 @@
       <c r="O162" s="27"/>
       <c r="P162" s="27"/>
       <c r="Q162" s="28"/>
-      <c r="R162" s="65"/>
+      <c r="R162" s="64"/>
       <c r="S162" s="29"/>
       <c r="T162" s="30"/>
-      <c r="U162" s="65"/>
+      <c r="U162" s="64"/>
       <c r="V162" s="30"/>
       <c r="W162" s="30"/>
       <c r="X162" s="30"/>
-      <c r="Y162" s="66"/>
+      <c r="Y162" s="65"/>
       <c r="Z162" s="37"/>
       <c r="AA162" s="38"/>
       <c r="AB162" s="11"/>
@@ -44244,14 +44308,14 @@
       <c r="O163" s="22"/>
       <c r="P163" s="22"/>
       <c r="Q163" s="18"/>
-      <c r="R163" s="62"/>
+      <c r="R163" s="61"/>
       <c r="S163" s="18"/>
       <c r="T163" s="18"/>
-      <c r="U163" s="62"/>
+      <c r="U163" s="61"/>
       <c r="V163" s="18"/>
       <c r="W163" s="18"/>
       <c r="X163" s="18"/>
-      <c r="Y163" s="63"/>
+      <c r="Y163" s="62"/>
       <c r="Z163" s="35"/>
       <c r="AA163" s="36"/>
       <c r="AB163" s="11"/>
@@ -44502,14 +44566,14 @@
       <c r="O164" s="27"/>
       <c r="P164" s="27"/>
       <c r="Q164" s="28"/>
-      <c r="R164" s="65"/>
+      <c r="R164" s="64"/>
       <c r="S164" s="29"/>
       <c r="T164" s="30"/>
-      <c r="U164" s="65"/>
+      <c r="U164" s="64"/>
       <c r="V164" s="30"/>
       <c r="W164" s="30"/>
       <c r="X164" s="30"/>
-      <c r="Y164" s="66"/>
+      <c r="Y164" s="65"/>
       <c r="Z164" s="37"/>
       <c r="AA164" s="38"/>
       <c r="AB164" s="11"/>
@@ -44760,14 +44824,14 @@
       <c r="O165" s="22"/>
       <c r="P165" s="22"/>
       <c r="Q165" s="18"/>
-      <c r="R165" s="62"/>
+      <c r="R165" s="61"/>
       <c r="S165" s="18"/>
       <c r="T165" s="18"/>
-      <c r="U165" s="62"/>
+      <c r="U165" s="61"/>
       <c r="V165" s="18"/>
       <c r="W165" s="18"/>
       <c r="X165" s="18"/>
-      <c r="Y165" s="63"/>
+      <c r="Y165" s="62"/>
       <c r="Z165" s="35"/>
       <c r="AA165" s="36"/>
       <c r="AB165" s="11"/>
@@ -45018,14 +45082,14 @@
       <c r="O166" s="27"/>
       <c r="P166" s="27"/>
       <c r="Q166" s="28"/>
-      <c r="R166" s="65"/>
+      <c r="R166" s="64"/>
       <c r="S166" s="29"/>
       <c r="T166" s="30"/>
-      <c r="U166" s="65"/>
+      <c r="U166" s="64"/>
       <c r="V166" s="30"/>
       <c r="W166" s="30"/>
       <c r="X166" s="30"/>
-      <c r="Y166" s="66"/>
+      <c r="Y166" s="65"/>
       <c r="Z166" s="37"/>
       <c r="AA166" s="38"/>
       <c r="AB166" s="11"/>
@@ -45276,14 +45340,14 @@
       <c r="O167" s="22"/>
       <c r="P167" s="22"/>
       <c r="Q167" s="18"/>
-      <c r="R167" s="62"/>
+      <c r="R167" s="61"/>
       <c r="S167" s="18"/>
       <c r="T167" s="18"/>
-      <c r="U167" s="62"/>
+      <c r="U167" s="61"/>
       <c r="V167" s="18"/>
       <c r="W167" s="18"/>
       <c r="X167" s="18"/>
-      <c r="Y167" s="63"/>
+      <c r="Y167" s="62"/>
       <c r="Z167" s="35"/>
       <c r="AA167" s="36"/>
       <c r="AB167" s="11"/>
@@ -45534,14 +45598,14 @@
       <c r="O168" s="27"/>
       <c r="P168" s="27"/>
       <c r="Q168" s="28"/>
-      <c r="R168" s="65"/>
+      <c r="R168" s="64"/>
       <c r="S168" s="29"/>
       <c r="T168" s="30"/>
-      <c r="U168" s="65"/>
+      <c r="U168" s="64"/>
       <c r="V168" s="30"/>
       <c r="W168" s="30"/>
       <c r="X168" s="30"/>
-      <c r="Y168" s="66"/>
+      <c r="Y168" s="65"/>
       <c r="Z168" s="37"/>
       <c r="AA168" s="38"/>
       <c r="AB168" s="11"/>
@@ -59654,82 +59718,82 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B134:C134 B136:C136 B138:C138 B140:C140 B108:C108 B110:C110 B112:C112 B114:C114 B152:C152 B154:C154 B156:C156 B158:C158 B160:C160 B168:C168 B170:C170 B172:C172 B178:C178 B176:C176 B174:C174 B162:C162 B164:C164 B166:C166 B150:C150 B116:C116 B118:C118 B142:C142 B148:C148 B144:C144 B146:C146 B120:C120 B122:C122 B124:C124 B126:C126 B128:C128 B130:C130 B132:C132 B104:C104 B106:C106 B68:C68 B70:C70 B72:C72 B74:C74 B76:C76 B78:C78 B80:C80 B82:C82 B84:C84 B86:C86 B88:C88 B90:C90 B92:C92 B94:C94 B96:C96 B98:C98 B100:C100 B102:C102 A11:A12 A14 A19:A20 A22 A26 A28 B60:C60 B62:C62 B64:C64 B66:C66 A8:A9 A24 A16">
-    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8 C9:C10">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21 C23 C25 C27 C19">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C35">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43 C45 C47 C49 C41 C39 C51:C57">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39 B41">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59754,860 +59818,860 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56">
+      <c r="A1" s="55">
         <v>1</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60">
+        <v>2</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55">
+        <v>3</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="68" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
-        <v>2</v>
-      </c>
-      <c r="B2" s="59" t="s">
+      <c r="P3" s="68"/>
+    </row>
+    <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57">
+        <v>4</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
-        <v>3</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="69"/>
-    </row>
-    <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
-        <v>4</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="56" t="s">
+      <c r="E4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="55" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="68"/>
+    </row>
+    <row r="6" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57">
+        <v>6</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
+        <v>7</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="22"/>
+      <c r="P7" s="68"/>
+    </row>
+    <row r="8" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>8</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="69"/>
-    </row>
-    <row r="6" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
-        <v>6</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="27"/>
-    </row>
-    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <v>7</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="69"/>
-    </row>
-    <row r="8" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
-        <v>8</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="56" t="s">
+      <c r="E8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="55" t="s">
         <v>25</v>
       </c>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <v>9</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="68"/>
+    </row>
+    <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
+        <v>10</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="69"/>
-    </row>
-    <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>10</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="56" t="s">
+      <c r="E10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="55" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="A11" s="55">
         <v>11</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="22"/>
+      <c r="P11" s="68"/>
+    </row>
+    <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>12</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="69"/>
-    </row>
-    <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>12</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="56" t="s">
+      <c r="E12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="55" t="s">
         <v>25</v>
       </c>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="A13" s="55">
         <v>13</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="56" t="s">
+      <c r="D13" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="55" t="s">
         <v>25</v>
       </c>
       <c r="O13" s="22"/>
-      <c r="P13" s="69"/>
+      <c r="P13" s="68"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="60">
         <v>14</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="60" t="s">
+      <c r="B14" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="56" t="s">
+      <c r="D14" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="55" t="s">
         <v>25</v>
       </c>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="A15" s="55">
         <v>15</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="22"/>
+      <c r="P15" s="68"/>
+    </row>
+    <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>16</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="69"/>
-    </row>
-    <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
-        <v>16</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="56" t="s">
+      <c r="E16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="55" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
     </row>
     <row r="17" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="A17" s="55">
         <v>17</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="68"/>
+    </row>
+    <row r="18" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>18</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="69"/>
-    </row>
-    <row r="18" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
-        <v>18</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="56" t="s">
+      <c r="E18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="55" t="s">
         <v>25</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
     </row>
     <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="A19" s="55">
         <v>19</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
       <c r="O19" s="22"/>
       <c r="P19" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A4 A6 A8:A10 A14:A16 A12 A18">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/LIN Traceability Matrix Template.xlsx
+++ b/Docs/LIN Traceability Matrix Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\LIN  ws local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Desktop\Repositorios AEP\repo LIN\trunk\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1428,6 +1428,18 @@
     <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,18 +1463,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1997,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:IV840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2053,12 +2053,12 @@
       <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:256" s="7" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="52" t="s">
         <v>43</v>
       </c>
@@ -2086,12 +2086,12 @@
       <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:256" s="7" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="46" t="s">
         <v>35</v>
       </c>
@@ -2119,12 +2119,12 @@
       <c r="AB3" s="6"/>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="50" t="s">
         <v>64</v>
       </c>
@@ -2143,21 +2143,21 @@
       </c>
       <c r="Q4" s="44"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="103"/>
+      <c r="T4" s="107"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="107"/>
-      <c r="X4" s="108"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="112"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="101" t="s">
+      <c r="Z4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="102"/>
+      <c r="AA4" s="106"/>
       <c r="AB4" s="6"/>
     </row>
     <row r="5" spans="1:256" s="7" customFormat="1" ht="114.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2824,7 +2824,7 @@
       <c r="P8" s="27"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="64"/>
-      <c r="S8" s="110" t="s">
+      <c r="S8" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T8" s="30"/>
@@ -3095,7 +3095,7 @@
       <c r="P9" s="22"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="61"/>
-      <c r="S9" s="112" t="s">
+      <c r="S9" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T9" s="51"/>
@@ -3364,7 +3364,7 @@
       <c r="P10" s="27"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="64"/>
-      <c r="S10" s="110" t="s">
+      <c r="S10" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T10" s="30"/>
@@ -3637,7 +3637,7 @@
         <v>76</v>
       </c>
       <c r="R11" s="61"/>
-      <c r="S11" s="112" t="s">
+      <c r="S11" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T11" s="51"/>
@@ -3906,7 +3906,7 @@
       <c r="P12" s="27"/>
       <c r="Q12" s="28"/>
       <c r="R12" s="64"/>
-      <c r="S12" s="110" t="s">
+      <c r="S12" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T12" s="30"/>
@@ -4199,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="61"/>
-      <c r="S13" s="112" t="s">
+      <c r="S13" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T13" s="51"/>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="64"/>
-      <c r="S14" s="110" t="s">
+      <c r="S14" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T14" s="30"/>
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="61"/>
-      <c r="S15" s="111" t="s">
+      <c r="S15" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T15" s="51"/>
@@ -5078,7 +5078,7 @@
         <v>7</v>
       </c>
       <c r="R16" s="64"/>
-      <c r="S16" s="110" t="s">
+      <c r="S16" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T16" s="30"/>
@@ -5367,7 +5367,7 @@
       <c r="P17" s="81"/>
       <c r="Q17" s="82"/>
       <c r="R17" s="61"/>
-      <c r="S17" s="112" t="s">
+      <c r="S17" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T17" s="51"/>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="Q18" s="85"/>
       <c r="R18" s="64"/>
-      <c r="S18" s="110" t="s">
+      <c r="S18" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T18" s="30"/>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="Q19" s="82"/>
       <c r="R19" s="61"/>
-      <c r="S19" s="111" t="s">
+      <c r="S19" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T19" s="51"/>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="Q20" s="85"/>
       <c r="R20" s="64"/>
-      <c r="S20" s="110" t="s">
+      <c r="S20" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T20" s="30"/>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="Q21" s="82"/>
       <c r="R21" s="61"/>
-      <c r="S21" s="112" t="s">
+      <c r="S21" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T21" s="51"/>
@@ -6824,7 +6824,7 @@
         <v>97</v>
       </c>
       <c r="R22" s="64"/>
-      <c r="S22" s="110" t="s">
+      <c r="S22" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T22" s="30"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="Q23" s="82"/>
       <c r="R23" s="61"/>
-      <c r="S23" s="111" t="s">
+      <c r="S23" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T23" s="51"/>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="Q24" s="85"/>
       <c r="R24" s="64"/>
-      <c r="S24" s="110" t="s">
+      <c r="S24" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T24" s="30"/>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="Q25" s="82"/>
       <c r="R25" s="61"/>
-      <c r="S25" s="112" t="s">
+      <c r="S25" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T25" s="51"/>
@@ -7970,7 +7970,7 @@
         <v>107</v>
       </c>
       <c r="R26" s="64"/>
-      <c r="S26" s="110" t="s">
+      <c r="S26" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T26" s="30"/>
@@ -8239,7 +8239,7 @@
       <c r="P27" s="81"/>
       <c r="Q27" s="82"/>
       <c r="R27" s="61"/>
-      <c r="S27" s="111" t="s">
+      <c r="S27" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T27" s="51"/>
@@ -8508,7 +8508,7 @@
       <c r="P28" s="70"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="64"/>
-      <c r="S28" s="110" t="s">
+      <c r="S28" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T28" s="30"/>
@@ -8801,7 +8801,7 @@
         <v>112</v>
       </c>
       <c r="R29" s="61"/>
-      <c r="S29" s="112" t="s">
+      <c r="S29" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T29" s="51"/>
@@ -9094,7 +9094,7 @@
         <v>112</v>
       </c>
       <c r="R30" s="64"/>
-      <c r="S30" s="110" t="s">
+      <c r="S30" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T30" s="30"/>
@@ -9387,7 +9387,7 @@
         <v>114</v>
       </c>
       <c r="R31" s="61"/>
-      <c r="S31" s="111" t="s">
+      <c r="S31" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T31" s="51"/>
@@ -9680,7 +9680,7 @@
         <v>115</v>
       </c>
       <c r="R32" s="64"/>
-      <c r="S32" s="110" t="s">
+      <c r="S32" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T32" s="30"/>
@@ -9973,7 +9973,7 @@
         <v>116</v>
       </c>
       <c r="R33" s="61"/>
-      <c r="S33" s="112" t="s">
+      <c r="S33" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T33" s="51"/>
@@ -10266,7 +10266,7 @@
         <v>117</v>
       </c>
       <c r="R34" s="64"/>
-      <c r="S34" s="110" t="s">
+      <c r="S34" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T34" s="30"/>
@@ -10555,7 +10555,7 @@
       <c r="P35" s="81"/>
       <c r="Q35" s="82"/>
       <c r="R35" s="61"/>
-      <c r="S35" s="111" t="s">
+      <c r="S35" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T35" s="51"/>
@@ -10844,7 +10844,7 @@
       <c r="P36" s="70"/>
       <c r="Q36" s="85"/>
       <c r="R36" s="64"/>
-      <c r="S36" s="110" t="s">
+      <c r="S36" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T36" s="30"/>
@@ -11113,7 +11113,7 @@
       <c r="P37" s="81"/>
       <c r="Q37" s="82"/>
       <c r="R37" s="61"/>
-      <c r="S37" s="112" t="s">
+      <c r="S37" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T37" s="51"/>
@@ -11402,7 +11402,7 @@
       <c r="P38" s="70"/>
       <c r="Q38" s="70"/>
       <c r="R38" s="64"/>
-      <c r="S38" s="110" t="s">
+      <c r="S38" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T38" s="30"/>
@@ -11691,7 +11691,7 @@
       <c r="P39" s="81"/>
       <c r="Q39" s="82"/>
       <c r="R39" s="61"/>
-      <c r="S39" s="111" t="s">
+      <c r="S39" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T39" s="51"/>
@@ -11980,7 +11980,7 @@
       <c r="P40" s="70"/>
       <c r="Q40" s="85"/>
       <c r="R40" s="64"/>
-      <c r="S40" s="110" t="s">
+      <c r="S40" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T40" s="30"/>
@@ -12269,7 +12269,7 @@
       <c r="P41" s="81"/>
       <c r="Q41" s="82"/>
       <c r="R41" s="61"/>
-      <c r="S41" s="112" t="s">
+      <c r="S41" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T41" s="51"/>
@@ -12558,7 +12558,7 @@
       <c r="P42" s="70"/>
       <c r="Q42" s="85"/>
       <c r="R42" s="64"/>
-      <c r="S42" s="110" t="s">
+      <c r="S42" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T42" s="30"/>
@@ -12847,7 +12847,7 @@
       <c r="P43" s="81"/>
       <c r="Q43" s="82"/>
       <c r="R43" s="61"/>
-      <c r="S43" s="111" t="s">
+      <c r="S43" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T43" s="51"/>
@@ -13136,7 +13136,7 @@
       <c r="P44" s="70"/>
       <c r="Q44" s="85"/>
       <c r="R44" s="64"/>
-      <c r="S44" s="110" t="s">
+      <c r="S44" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T44" s="30"/>
@@ -13425,7 +13425,7 @@
       <c r="P45" s="81"/>
       <c r="Q45" s="82"/>
       <c r="R45" s="61"/>
-      <c r="S45" s="112" t="s">
+      <c r="S45" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T45" s="51"/>
@@ -13714,7 +13714,7 @@
       <c r="P46" s="70"/>
       <c r="Q46" s="85"/>
       <c r="R46" s="64"/>
-      <c r="S46" s="110" t="s">
+      <c r="S46" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T46" s="30"/>
@@ -14003,7 +14003,7 @@
       <c r="P47" s="81"/>
       <c r="Q47" s="82"/>
       <c r="R47" s="61"/>
-      <c r="S47" s="111" t="s">
+      <c r="S47" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T47" s="51"/>
@@ -14292,7 +14292,7 @@
       <c r="P48" s="70"/>
       <c r="Q48" s="70"/>
       <c r="R48" s="64"/>
-      <c r="S48" s="110" t="s">
+      <c r="S48" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T48" s="30"/>
@@ -14581,7 +14581,7 @@
       <c r="P49" s="81"/>
       <c r="Q49" s="82"/>
       <c r="R49" s="61"/>
-      <c r="S49" s="112" t="s">
+      <c r="S49" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T49" s="51"/>
@@ -14870,7 +14870,7 @@
       <c r="P50" s="70"/>
       <c r="Q50" s="85"/>
       <c r="R50" s="64"/>
-      <c r="S50" s="110" t="s">
+      <c r="S50" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T50" s="30"/>
@@ -15159,7 +15159,7 @@
       <c r="P51" s="81"/>
       <c r="Q51" s="79"/>
       <c r="R51" s="61"/>
-      <c r="S51" s="111" t="s">
+      <c r="S51" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T51" s="51"/>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="Q52" s="70"/>
       <c r="R52" s="64"/>
-      <c r="S52" s="110" t="s">
+      <c r="S52" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T52" s="30"/>
@@ -15739,7 +15739,7 @@
       <c r="P53" s="81"/>
       <c r="Q53" s="79"/>
       <c r="R53" s="61"/>
-      <c r="S53" s="112" t="s">
+      <c r="S53" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T53" s="51"/>
@@ -16028,7 +16028,7 @@
       <c r="P54" s="70"/>
       <c r="Q54" s="70"/>
       <c r="R54" s="64"/>
-      <c r="S54" s="110" t="s">
+      <c r="S54" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T54" s="30"/>
@@ -16317,7 +16317,7 @@
       <c r="P55" s="81"/>
       <c r="Q55" s="79"/>
       <c r="R55" s="61"/>
-      <c r="S55" s="111" t="s">
+      <c r="S55" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T55" s="51"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="Q56" s="70"/>
       <c r="R56" s="64"/>
-      <c r="S56" s="110" t="s">
+      <c r="S56" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T56" s="30"/>
@@ -16897,7 +16897,7 @@
       <c r="P57" s="81"/>
       <c r="Q57" s="82"/>
       <c r="R57" s="61"/>
-      <c r="S57" s="112" t="s">
+      <c r="S57" s="104" t="s">
         <v>158</v>
       </c>
       <c r="T57" s="18"/>
@@ -17147,7 +17147,7 @@
       <c r="C58" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="109" t="s">
+      <c r="D58" s="101" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="78" t="s">
@@ -17186,7 +17186,7 @@
       <c r="P58" s="70"/>
       <c r="Q58" s="85"/>
       <c r="R58" s="64"/>
-      <c r="S58" s="110" t="s">
+      <c r="S58" s="102" t="s">
         <v>158</v>
       </c>
       <c r="T58" s="30"/>
@@ -17475,7 +17475,7 @@
       <c r="P59" s="81"/>
       <c r="Q59" s="82"/>
       <c r="R59" s="61"/>
-      <c r="S59" s="111" t="s">
+      <c r="S59" s="103" t="s">
         <v>158</v>
       </c>
       <c r="T59" s="18"/>

--- a/Docs/LIN Traceability Matrix Template.xlsx
+++ b/Docs/LIN Traceability Matrix Template.xlsx
@@ -1997,8 +1997,8 @@
   </sheetPr>
   <dimension ref="A1:IV840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>

--- a/Docs/LIN Traceability Matrix Template.xlsx
+++ b/Docs/LIN Traceability Matrix Template.xlsx
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Software reqs" sheetId="5" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Software reqs'!$6:$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Software reqs'!$A$6:$IV$59</definedName>
     <definedName name="_Toc15890552" localSheetId="0">'Software reqs'!$E$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -114,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="140">
   <si>
     <t>Program</t>
   </si>
@@ -204,9 +203,6 @@
     <t>Functional</t>
   </si>
   <si>
-    <t>Design Section</t>
-  </si>
-  <si>
     <t>Link to the specific test covering the specific requirement number is available at the LIN Test Spec.</t>
   </si>
   <si>
@@ -236,115 +232,7 @@
     <t>Document/Test ID</t>
   </si>
   <si>
-    <t>Window lifter is controlled by two switches that indicate the direction of the window movement.</t>
-  </si>
-  <si>
-    <t>The color of this led bar has to be RED</t>
-  </si>
-  <si>
-    <t>No Functional</t>
-  </si>
-  <si>
-    <t>In order to consider a validate button press; the button has to be pressed at least 10 msec</t>
-  </si>
-  <si>
     <t xml:space="preserve">Window lifter </t>
-  </si>
-  <si>
-    <t>Anti pinch button press has to follow the same characteristics than UP and DOWN buttons for valid press</t>
-  </si>
-  <si>
-    <t>This signal just can be considered as valid when the movement is UP</t>
-  </si>
-  <si>
-    <t>If this signal is valid then the module has to stop the UP Movement and then DOWN the window until the window get totally OPEN</t>
-  </si>
-  <si>
-    <t>After window is totally OPEN the module has to ignore during 5 seconds all button press</t>
-  </si>
-  <si>
-    <t>After this time the module has to recognize every button press</t>
-  </si>
-  <si>
-    <t>For this purpose the window has to be emulated using a 10 led bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Functional</t>
-  </si>
-  <si>
-    <t>The movement of the window has to be simulated turning on/off the LEDS creating the animation of the window movement</t>
-  </si>
-  <si>
-    <t>The time between each transition shall be 400 msec</t>
-  </si>
-  <si>
-    <t>The module has to be able to detect fail button press. In that case the button press or button combination has to be considered as invalid</t>
-  </si>
-  <si>
-    <t>The window shall UP until get totally CLOSED while the button keep press.</t>
-  </si>
-  <si>
-    <t>The window shall DOWN until get totally OPEN while the button keep press.</t>
-  </si>
-  <si>
-    <t>The window shall UP until get totally CLOSED automatically. (Function one touch)</t>
-  </si>
-  <si>
-    <t>The window shall DOWN until get totally OPEN automatically. (Function one touch)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Each window movement has to be indicated trough a led color. Depending on movement each led has to be turn on:  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="MS Sans Serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>blue -UP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS Sans Serif"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="MS Sans Serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>green -DOWN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS Sans Serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Doesn´t specify what kind and brand of leds to use</t>
-  </si>
-  <si>
-    <t>Doesn´t specify what kind of switches are going to be used</t>
-  </si>
-  <si>
-    <t>Can work with any color</t>
-  </si>
-  <si>
-    <t>The time of the antipich function can be different</t>
-  </si>
-  <si>
-    <t>The signal that indicates to the module the detection of a pinch will be a push button.</t>
   </si>
   <si>
     <t>Francisco Javier Quirarte Pelayo  y   David Antonio Díaz Ramirez</t>
@@ -633,6 +521,21 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>DSD_template_protocol_lin.docx/ 2.0 Requeriments</t>
+  </si>
+  <si>
+    <t>DSD_template_protocol_lin.docx/10.0 Lin Network</t>
+  </si>
+  <si>
+    <t>DSD_template_protocol_lin.docx/4.0 LIN protocol concepts</t>
+  </si>
+  <si>
+    <t>DSD_template_protocol_lin.docx/4.0 LIN protocol concepts             /5.0 LIN Chart Concepts</t>
+  </si>
+  <si>
+    <t>DSD_template_protocol_lin.doc/10.0 Lin Network</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1047,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1286,51 +1189,17 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1464,26 +1333,19 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Personal" xfId="2"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b/>
@@ -1997,8 +1859,8 @@
   </sheetPr>
   <dimension ref="A1:IV840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2011,7 +1873,7 @@
     <col min="16" max="16" width="62.28515625" style="2" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="54.7109375" style="14" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="2.7109375" style="17" customWidth="1"/>
-    <col min="19" max="19" width="52" style="14" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="73.140625" style="14" customWidth="1" outlineLevel="1"/>
     <col min="20" max="20" width="39.28515625" style="14" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="2.7109375" style="17" customWidth="1"/>
     <col min="22" max="22" width="28.28515625" style="14" customWidth="1" outlineLevel="1" collapsed="1"/>
@@ -2053,14 +1915,14 @@
       <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:256" s="7" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2086,14 +1948,14 @@
       <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:256" s="7" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2119,14 +1981,14 @@
       <c r="AB3" s="6"/>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="50" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
@@ -2143,21 +2005,21 @@
       </c>
       <c r="Q4" s="44"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="107"/>
+      <c r="T4" s="95"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="110" t="s">
+      <c r="V4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="111"/>
-      <c r="X4" s="112"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="100"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="105" t="s">
+      <c r="Z4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="106"/>
+      <c r="AA4" s="94"/>
       <c r="AB4" s="6"/>
     </row>
     <row r="5" spans="1:256" s="7" customFormat="1" ht="114.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2213,7 +2075,7 @@
     <row r="6" spans="1:256" s="10" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>27</v>
@@ -2242,14 +2104,14 @@
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W6" s="8" t="s">
         <v>22</v>
@@ -2259,7 +2121,7 @@
       </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>9</v>
@@ -2500,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="77" t="s">
-        <v>68</v>
+      <c r="E7" s="65" t="s">
+        <v>43</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>25</v>
@@ -2544,27 +2406,25 @@
       <c r="Q7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="61"/>
+      <c r="R7" s="53"/>
       <c r="S7" s="51"/>
-      <c r="T7" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="U7" s="61"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="53"/>
       <c r="V7" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X7" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y7" s="62"/>
+        <v>30</v>
+      </c>
+      <c r="Y7" s="54"/>
       <c r="Z7" s="35" t="s">
         <v>26</v>
       </c>
       <c r="AA7" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB7" s="11"/>
       <c r="AC7" s="12"/>
@@ -2803,13 +2663,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -2823,18 +2683,18 @@
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="28"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="102" t="s">
-        <v>158</v>
+      <c r="R8" s="55"/>
+      <c r="S8" s="90" t="s">
+        <v>135</v>
       </c>
       <c r="T8" s="30"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="55"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
-      <c r="Y8" s="65"/>
+      <c r="Y8" s="56"/>
       <c r="Z8" s="37" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AA8" s="38"/>
       <c r="AB8" s="11"/>
@@ -3074,13 +2934,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>72</v>
+        <v>45</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>47</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -3094,16 +2954,16 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="18"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="104" t="s">
-        <v>158</v>
+      <c r="R9" s="53"/>
+      <c r="S9" s="92" t="s">
+        <v>136</v>
       </c>
       <c r="T9" s="51"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="53"/>
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="X9" s="51"/>
-      <c r="Y9" s="62"/>
+      <c r="Y9" s="54"/>
       <c r="Z9" s="35"/>
       <c r="AA9" s="36"/>
       <c r="AB9" s="11"/>
@@ -3343,13 +3203,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>48</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -3363,16 +3223,16 @@
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="28"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="102" t="s">
-        <v>158</v>
+      <c r="R10" s="55"/>
+      <c r="S10" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T10" s="30"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="55"/>
       <c r="V10" s="30"/>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
-      <c r="Y10" s="65"/>
+      <c r="Y10" s="56"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="38"/>
       <c r="AB10" s="11"/>
@@ -3612,13 +3472,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>148</v>
+        <v>49</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>123</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -3631,21 +3491,21 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" s="61"/>
-      <c r="S11" s="104" t="s">
-        <v>158</v>
+        <v>51</v>
+      </c>
+      <c r="R11" s="53"/>
+      <c r="S11" s="92" t="s">
+        <v>136</v>
       </c>
       <c r="T11" s="51"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="53"/>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="X11" s="51"/>
-      <c r="Y11" s="62"/>
+      <c r="Y11" s="54"/>
       <c r="Z11" s="35"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="11"/>
@@ -3885,36 +3745,36 @@
         <v>5</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
+        <v>49</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="28"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="102" t="s">
-        <v>158</v>
+      <c r="R12" s="55"/>
+      <c r="S12" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T12" s="30"/>
-      <c r="U12" s="64"/>
+      <c r="U12" s="55"/>
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
-      <c r="Y12" s="65"/>
+      <c r="Y12" s="56"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="38"/>
       <c r="AB12" s="11"/>
@@ -4157,10 +4017,10 @@
         <v>28</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>80</v>
+        <v>49</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>55</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>25</v>
@@ -4193,21 +4053,21 @@
         <v>25</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="22">
         <v>1</v>
       </c>
-      <c r="R13" s="61"/>
-      <c r="S13" s="104" t="s">
-        <v>158</v>
+      <c r="R13" s="53"/>
+      <c r="S13" s="92" t="s">
+        <v>136</v>
       </c>
       <c r="T13" s="51"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="53"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="X13" s="51"/>
-      <c r="Y13" s="62"/>
+      <c r="Y13" s="54"/>
       <c r="Z13" s="35"/>
       <c r="AA13" s="36"/>
       <c r="AB13" s="11"/>
@@ -4441,66 +4301,66 @@
       <c r="IV13" s="26"/>
     </row>
     <row r="14" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="75">
+      <c r="A14" s="61"/>
+      <c r="B14" s="63">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="70" t="s">
+      <c r="C14" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="70" t="s">
+      <c r="L14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="70" t="s">
+      <c r="M14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="70" t="s">
+      <c r="N14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="70" t="s">
+      <c r="O14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="70">
+      <c r="P14" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="58">
         <v>1</v>
       </c>
-      <c r="R14" s="64"/>
-      <c r="S14" s="102" t="s">
-        <v>158</v>
+      <c r="R14" s="55"/>
+      <c r="S14" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T14" s="30"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="55"/>
       <c r="V14" s="30"/>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
-      <c r="Y14" s="65"/>
+      <c r="Y14" s="56"/>
       <c r="Z14" s="37"/>
       <c r="AA14" s="38"/>
       <c r="AB14" s="11"/>
@@ -4740,13 +4600,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>82</v>
+        <v>49</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>57</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>25</v>
@@ -4779,21 +4639,21 @@
         <v>25</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="22">
         <v>2</v>
       </c>
-      <c r="R15" s="61"/>
-      <c r="S15" s="103" t="s">
-        <v>158</v>
+      <c r="R15" s="53"/>
+      <c r="S15" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="T15" s="51"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="53"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="X15" s="51"/>
-      <c r="Y15" s="62"/>
+      <c r="Y15" s="54"/>
       <c r="Z15" s="35"/>
       <c r="AA15" s="36"/>
       <c r="AB15" s="11"/>
@@ -5027,66 +4887,66 @@
       <c r="IV15" s="26"/>
     </row>
     <row r="16" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="69">
+      <c r="A16" s="60"/>
+      <c r="B16" s="57">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="70" t="s">
+      <c r="C16" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="70" t="s">
+      <c r="K16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="70" t="s">
+      <c r="L16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="70" t="s">
+      <c r="M16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="70" t="s">
+      <c r="N16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="70" t="s">
+      <c r="O16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="70">
+      <c r="P16" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="58">
         <v>7</v>
       </c>
-      <c r="R16" s="64"/>
-      <c r="S16" s="102" t="s">
-        <v>158</v>
+      <c r="R16" s="55"/>
+      <c r="S16" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T16" s="30"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="55"/>
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
-      <c r="Y16" s="65"/>
+      <c r="Y16" s="56"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="11"/>
@@ -5321,18 +5181,18 @@
     </row>
     <row r="17" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
-      <c r="B17" s="79">
+      <c r="B17" s="67">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C17" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>86</v>
+      <c r="C17" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>61</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>25</v>
@@ -5364,18 +5224,18 @@
       <c r="O17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="104" t="s">
-        <v>158</v>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="92" t="s">
+        <v>136</v>
       </c>
       <c r="T17" s="51"/>
-      <c r="U17" s="61"/>
+      <c r="U17" s="53"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="X17" s="51"/>
-      <c r="Y17" s="62"/>
+      <c r="Y17" s="54"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="36"/>
       <c r="AB17" s="11"/>
@@ -5610,63 +5470,63 @@
     </row>
     <row r="18" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
-      <c r="B18" s="69">
+      <c r="B18" s="57">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C18" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="70" t="s">
+      <c r="C18" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="70" t="s">
+      <c r="I18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="70" t="s">
+      <c r="L18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="70" t="s">
+      <c r="M18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="70" t="s">
+      <c r="N18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="70" t="s">
+      <c r="O18" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="102" t="s">
-        <v>158</v>
+      <c r="P18" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T18" s="30"/>
-      <c r="U18" s="64"/>
+      <c r="U18" s="55"/>
       <c r="V18" s="30"/>
       <c r="W18" s="30"/>
       <c r="X18" s="30"/>
-      <c r="Y18" s="65"/>
+      <c r="Y18" s="56"/>
       <c r="Z18" s="37"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="11"/>
@@ -5901,63 +5761,63 @@
     </row>
     <row r="19" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
-      <c r="B19" s="79">
+      <c r="B19" s="67">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="81" t="s">
+      <c r="D19" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="81" t="s">
+      <c r="H19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="81" t="s">
+      <c r="I19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="J19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="81" t="s">
+      <c r="L19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="81" t="s">
+      <c r="M19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="81" t="s">
+      <c r="N19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="81" t="s">
+      <c r="O19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="103" t="s">
-        <v>158</v>
+      <c r="P19" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="T19" s="51"/>
-      <c r="U19" s="61"/>
+      <c r="U19" s="53"/>
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
       <c r="X19" s="51"/>
-      <c r="Y19" s="62"/>
+      <c r="Y19" s="54"/>
       <c r="Z19" s="35"/>
       <c r="AA19" s="36"/>
       <c r="AB19" s="11"/>
@@ -6192,63 +6052,63 @@
     </row>
     <row r="20" spans="1:256" s="13" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
-      <c r="B20" s="69">
+      <c r="B20" s="57">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="70" t="s">
+      <c r="D20" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="G20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="J20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="70" t="s">
+      <c r="K20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="70" t="s">
+      <c r="L20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="70" t="s">
+      <c r="M20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="70" t="s">
+      <c r="N20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="70" t="s">
+      <c r="O20" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="102" t="s">
-        <v>158</v>
+      <c r="P20" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T20" s="30"/>
-      <c r="U20" s="64"/>
+      <c r="U20" s="55"/>
       <c r="V20" s="30"/>
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
-      <c r="Y20" s="65"/>
+      <c r="Y20" s="56"/>
       <c r="Z20" s="37"/>
       <c r="AA20" s="38"/>
       <c r="AB20" s="11"/>
@@ -6483,63 +6343,63 @@
     </row>
     <row r="21" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
-      <c r="B21" s="79">
+      <c r="B21" s="67">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="81" t="s">
+      <c r="D21" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="81" t="s">
+      <c r="I21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="81" t="s">
+      <c r="J21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="81" t="s">
+      <c r="K21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="81" t="s">
+      <c r="M21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="81" t="s">
+      <c r="N21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="81" t="s">
+      <c r="O21" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="104" t="s">
-        <v>158</v>
+      <c r="P21" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="T21" s="51"/>
-      <c r="U21" s="61"/>
+      <c r="U21" s="53"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
       <c r="X21" s="51"/>
-      <c r="Y21" s="62"/>
+      <c r="Y21" s="54"/>
       <c r="Z21" s="35"/>
       <c r="AA21" s="36"/>
       <c r="AB21" s="11"/>
@@ -6774,65 +6634,65 @@
     </row>
     <row r="22" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
-      <c r="B22" s="69">
+      <c r="B22" s="57">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C22" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="70" t="s">
+      <c r="C22" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="70" t="s">
+      <c r="G22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="70" t="s">
+      <c r="H22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="70" t="s">
+      <c r="I22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="70" t="s">
+      <c r="J22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="70" t="s">
+      <c r="K22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="70" t="s">
+      <c r="L22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="70" t="s">
+      <c r="M22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="70" t="s">
+      <c r="N22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="70" t="s">
+      <c r="O22" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="R22" s="64"/>
-      <c r="S22" s="102" t="s">
-        <v>158</v>
+      <c r="P22" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" s="55"/>
+      <c r="S22" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T22" s="30"/>
-      <c r="U22" s="64"/>
+      <c r="U22" s="55"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
-      <c r="Y22" s="65"/>
+      <c r="Y22" s="56"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="38"/>
       <c r="AB22" s="11"/>
@@ -7067,63 +6927,63 @@
     </row>
     <row r="23" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
-      <c r="B23" s="79">
+      <c r="B23" s="67">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="81" t="s">
+      <c r="D23" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="81" t="s">
+      <c r="H23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="81" t="s">
+      <c r="I23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="81" t="s">
+      <c r="J23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="81" t="s">
+      <c r="K23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="81" t="s">
+      <c r="L23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="81" t="s">
+      <c r="M23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="81" t="s">
+      <c r="N23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="81" t="s">
+      <c r="O23" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="103" t="s">
-        <v>158</v>
+      <c r="P23" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="92" t="s">
+        <v>136</v>
       </c>
       <c r="T23" s="51"/>
-      <c r="U23" s="61"/>
+      <c r="U23" s="53"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="X23" s="51"/>
-      <c r="Y23" s="62"/>
+      <c r="Y23" s="54"/>
       <c r="Z23" s="35"/>
       <c r="AA23" s="36"/>
       <c r="AB23" s="11"/>
@@ -7358,63 +7218,63 @@
     </row>
     <row r="24" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
-      <c r="B24" s="69">
+      <c r="B24" s="57">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="70" t="s">
+      <c r="D24" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="G24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="70" t="s">
+      <c r="I24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="K24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="70" t="s">
+      <c r="L24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="70" t="s">
+      <c r="M24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="70" t="s">
+      <c r="N24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="70" t="s">
+      <c r="O24" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="102" t="s">
-        <v>158</v>
+      <c r="P24" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T24" s="30"/>
-      <c r="U24" s="64"/>
+      <c r="U24" s="55"/>
       <c r="V24" s="30"/>
       <c r="W24" s="30"/>
       <c r="X24" s="30"/>
-      <c r="Y24" s="65"/>
+      <c r="Y24" s="56"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="38"/>
       <c r="AB24" s="11"/>
@@ -7649,63 +7509,63 @@
     </row>
     <row r="25" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
-      <c r="B25" s="79">
+      <c r="B25" s="67">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="81" t="s">
+      <c r="D25" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="81" t="s">
+      <c r="G25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="81" t="s">
+      <c r="I25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="81" t="s">
+      <c r="J25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="81" t="s">
+      <c r="K25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="81" t="s">
+      <c r="L25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="81" t="s">
+      <c r="M25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="81" t="s">
+      <c r="N25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O25" s="81" t="s">
+      <c r="O25" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P25" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="104" t="s">
-        <v>158</v>
+      <c r="P25" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="T25" s="51"/>
-      <c r="U25" s="61"/>
+      <c r="U25" s="53"/>
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
       <c r="X25" s="51"/>
-      <c r="Y25" s="62"/>
+      <c r="Y25" s="54"/>
       <c r="Z25" s="35"/>
       <c r="AA25" s="36"/>
       <c r="AB25" s="11"/>
@@ -7940,45 +7800,45 @@
     </row>
     <row r="26" spans="1:256" s="13" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
-      <c r="B26" s="69">
+      <c r="B26" s="57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C26" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q26" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="R26" s="64"/>
-      <c r="S26" s="102" t="s">
-        <v>158</v>
+      <c r="C26" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="R26" s="55"/>
+      <c r="S26" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T26" s="30"/>
-      <c r="U26" s="64"/>
+      <c r="U26" s="55"/>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
-      <c r="Y26" s="65"/>
+      <c r="Y26" s="56"/>
       <c r="Z26" s="37"/>
       <c r="AA26" s="38"/>
       <c r="AB26" s="11"/>
@@ -8213,41 +8073,41 @@
     </row>
     <row r="27" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
-      <c r="B27" s="79">
+      <c r="B27" s="67">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C27" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="103" t="s">
-        <v>158</v>
+      <c r="C27" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="T27" s="51"/>
-      <c r="U27" s="61"/>
+      <c r="U27" s="53"/>
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
       <c r="X27" s="51"/>
-      <c r="Y27" s="62"/>
+      <c r="Y27" s="54"/>
       <c r="Z27" s="35"/>
       <c r="AA27" s="36"/>
       <c r="AB27" s="11"/>
@@ -8482,41 +8342,41 @@
     </row>
     <row r="28" spans="1:256" s="13" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
-      <c r="B28" s="69">
+      <c r="B28" s="57">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C28" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="102" t="s">
-        <v>158</v>
+      <c r="C28" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T28" s="30"/>
-      <c r="U28" s="64"/>
+      <c r="U28" s="55"/>
       <c r="V28" s="30"/>
       <c r="W28" s="30"/>
       <c r="X28" s="30"/>
-      <c r="Y28" s="65"/>
+      <c r="Y28" s="56"/>
       <c r="Z28" s="37"/>
       <c r="AA28" s="38"/>
       <c r="AB28" s="11"/>
@@ -8751,65 +8611,65 @@
     </row>
     <row r="29" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
-      <c r="B29" s="79">
+      <c r="B29" s="67">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="81" t="s">
+      <c r="D29" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="81" t="s">
+      <c r="I29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="81" t="s">
+      <c r="J29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="81" t="s">
+      <c r="K29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="81" t="s">
+      <c r="L29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="81" t="s">
+      <c r="M29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="81" t="s">
+      <c r="N29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="81" t="s">
+      <c r="O29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q29" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="R29" s="61"/>
-      <c r="S29" s="104" t="s">
-        <v>158</v>
+      <c r="P29" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="R29" s="53"/>
+      <c r="S29" s="92" t="s">
+        <v>136</v>
       </c>
       <c r="T29" s="51"/>
-      <c r="U29" s="61"/>
+      <c r="U29" s="53"/>
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="X29" s="51"/>
-      <c r="Y29" s="62"/>
+      <c r="Y29" s="54"/>
       <c r="Z29" s="35"/>
       <c r="AA29" s="36"/>
       <c r="AB29" s="11"/>
@@ -9044,65 +8904,65 @@
     </row>
     <row r="30" spans="1:256" s="13" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
-      <c r="B30" s="69">
+      <c r="B30" s="57">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="70" t="s">
+      <c r="D30" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="70" t="s">
+      <c r="I30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="70" t="s">
+      <c r="K30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="70" t="s">
+      <c r="L30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="70" t="s">
+      <c r="M30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="70" t="s">
+      <c r="N30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O30" s="70" t="s">
+      <c r="O30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q30" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="R30" s="64"/>
-      <c r="S30" s="102" t="s">
-        <v>158</v>
+      <c r="P30" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="R30" s="55"/>
+      <c r="S30" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T30" s="30"/>
-      <c r="U30" s="64"/>
+      <c r="U30" s="55"/>
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
       <c r="X30" s="30"/>
-      <c r="Y30" s="65"/>
+      <c r="Y30" s="56"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="38"/>
       <c r="AB30" s="11"/>
@@ -9337,65 +9197,65 @@
     </row>
     <row r="31" spans="1:256" s="13" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
-      <c r="B31" s="79">
+      <c r="B31" s="67">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="F31" s="81" t="s">
+      <c r="D31" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="81" t="s">
+      <c r="G31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="81" t="s">
+      <c r="I31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="81" t="s">
+      <c r="J31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="81" t="s">
+      <c r="K31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="81" t="s">
+      <c r="L31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="81" t="s">
+      <c r="M31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="81" t="s">
+      <c r="N31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O31" s="81" t="s">
+      <c r="O31" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q31" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="R31" s="61"/>
-      <c r="S31" s="103" t="s">
-        <v>158</v>
+      <c r="P31" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q31" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="R31" s="53"/>
+      <c r="S31" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="T31" s="51"/>
-      <c r="U31" s="61"/>
+      <c r="U31" s="53"/>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
       <c r="X31" s="51"/>
-      <c r="Y31" s="62"/>
+      <c r="Y31" s="54"/>
       <c r="Z31" s="35"/>
       <c r="AA31" s="36"/>
       <c r="AB31" s="11"/>
@@ -9630,65 +9490,65 @@
     </row>
     <row r="32" spans="1:256" s="13" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="69">
+      <c r="B32" s="57">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" s="70" t="s">
+      <c r="D32" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="70" t="s">
+      <c r="H32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="70" t="s">
+      <c r="I32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="70" t="s">
+      <c r="J32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="70" t="s">
+      <c r="K32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="70" t="s">
+      <c r="L32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="70" t="s">
+      <c r="M32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="70" t="s">
+      <c r="N32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="70" t="s">
+      <c r="O32" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P32" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q32" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="R32" s="64"/>
-      <c r="S32" s="102" t="s">
-        <v>158</v>
+      <c r="P32" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q32" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="R32" s="55"/>
+      <c r="S32" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T32" s="30"/>
-      <c r="U32" s="64"/>
+      <c r="U32" s="55"/>
       <c r="V32" s="30"/>
       <c r="W32" s="30"/>
       <c r="X32" s="30"/>
-      <c r="Y32" s="65"/>
+      <c r="Y32" s="56"/>
       <c r="Z32" s="37"/>
       <c r="AA32" s="38"/>
       <c r="AB32" s="11"/>
@@ -9923,65 +9783,65 @@
     </row>
     <row r="33" spans="1:256" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
-      <c r="B33" s="79">
+      <c r="B33" s="67">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="81" t="s">
+      <c r="D33" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="81" t="s">
+      <c r="H33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="81" t="s">
+      <c r="I33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="81" t="s">
+      <c r="J33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="81" t="s">
+      <c r="K33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="81" t="s">
+      <c r="L33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="81" t="s">
+      <c r="M33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="81" t="s">
+      <c r="N33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O33" s="81" t="s">
+      <c r="O33" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P33" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q33" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="R33" s="61"/>
-      <c r="S33" s="104" t="s">
-        <v>158</v>
+      <c r="P33" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q33" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="R33" s="53"/>
+      <c r="S33" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="T33" s="51"/>
-      <c r="U33" s="61"/>
+      <c r="U33" s="53"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="X33" s="51"/>
-      <c r="Y33" s="62"/>
+      <c r="Y33" s="54"/>
       <c r="Z33" s="35"/>
       <c r="AA33" s="36"/>
       <c r="AB33" s="11"/>
@@ -10216,65 +10076,65 @@
     </row>
     <row r="34" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="69">
+      <c r="B34" s="57">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="70" t="s">
+      <c r="D34" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="70" t="s">
+      <c r="G34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="70" t="s">
+      <c r="H34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="70" t="s">
+      <c r="I34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="70" t="s">
+      <c r="J34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="70" t="s">
+      <c r="K34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="70" t="s">
+      <c r="L34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="70" t="s">
+      <c r="M34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="70" t="s">
+      <c r="N34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O34" s="70" t="s">
+      <c r="O34" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P34" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q34" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="R34" s="64"/>
-      <c r="S34" s="102" t="s">
-        <v>158</v>
+      <c r="P34" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q34" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="R34" s="55"/>
+      <c r="S34" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T34" s="30"/>
-      <c r="U34" s="64"/>
+      <c r="U34" s="55"/>
       <c r="V34" s="30"/>
       <c r="W34" s="30"/>
       <c r="X34" s="30"/>
-      <c r="Y34" s="65"/>
+      <c r="Y34" s="56"/>
       <c r="Z34" s="37"/>
       <c r="AA34" s="38"/>
       <c r="AB34" s="11"/>
@@ -10509,61 +10369,61 @@
     </row>
     <row r="35" spans="1:256" s="13" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="B35" s="79">
+      <c r="B35" s="67">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="81" t="s">
+      <c r="D35" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="81" t="s">
+      <c r="H35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="81" t="s">
+      <c r="I35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="81" t="s">
+      <c r="J35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="81" t="s">
+      <c r="K35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="81" t="s">
+      <c r="L35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="81" t="s">
+      <c r="M35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="81" t="s">
+      <c r="N35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="81" t="s">
+      <c r="O35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="103" t="s">
-        <v>158</v>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="101" t="s">
+        <v>136</v>
       </c>
       <c r="T35" s="51"/>
-      <c r="U35" s="61"/>
+      <c r="U35" s="53"/>
       <c r="V35" s="18"/>
       <c r="W35" s="18"/>
       <c r="X35" s="51"/>
-      <c r="Y35" s="62"/>
+      <c r="Y35" s="54"/>
       <c r="Z35" s="35"/>
       <c r="AA35" s="36"/>
       <c r="AB35" s="11"/>
@@ -10798,61 +10658,61 @@
     </row>
     <row r="36" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="69">
+      <c r="B36" s="57">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="70" t="s">
+      <c r="D36" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="70" t="s">
+      <c r="G36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="70" t="s">
+      <c r="I36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="70" t="s">
+      <c r="J36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K36" s="70" t="s">
+      <c r="K36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="70" t="s">
+      <c r="L36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="70" t="s">
+      <c r="M36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="70" t="s">
+      <c r="N36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O36" s="70" t="s">
+      <c r="O36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="102" t="s">
-        <v>158</v>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="90" t="s">
+        <v>136</v>
       </c>
       <c r="T36" s="30"/>
-      <c r="U36" s="64"/>
+      <c r="U36" s="55"/>
       <c r="V36" s="30"/>
       <c r="W36" s="30"/>
       <c r="X36" s="30"/>
-      <c r="Y36" s="65"/>
+      <c r="Y36" s="56"/>
       <c r="Z36" s="37"/>
       <c r="AA36" s="38"/>
       <c r="AB36" s="11"/>
@@ -11087,41 +10947,41 @@
     </row>
     <row r="37" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="79">
+      <c r="B37" s="67">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="104" t="s">
-        <v>158</v>
+      <c r="D37" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="91" t="s">
+        <v>137</v>
       </c>
       <c r="T37" s="51"/>
-      <c r="U37" s="61"/>
+      <c r="U37" s="53"/>
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
       <c r="X37" s="51"/>
-      <c r="Y37" s="62"/>
+      <c r="Y37" s="54"/>
       <c r="Z37" s="35"/>
       <c r="AA37" s="36"/>
       <c r="AB37" s="11"/>
@@ -11356,61 +11216,61 @@
     </row>
     <row r="38" spans="1:256" s="13" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
-      <c r="B38" s="69">
+      <c r="B38" s="57">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C38" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="70" t="s">
+      <c r="C38" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="70" t="s">
+      <c r="G38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="H38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="70" t="s">
+      <c r="I38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="J38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="70" t="s">
+      <c r="K38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="70" t="s">
+      <c r="L38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="70" t="s">
+      <c r="M38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="70" t="s">
+      <c r="N38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O38" s="70" t="s">
+      <c r="O38" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="102" t="s">
-        <v>158</v>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="90" t="s">
+        <v>133</v>
       </c>
       <c r="T38" s="30"/>
-      <c r="U38" s="64"/>
+      <c r="U38" s="55"/>
       <c r="V38" s="30"/>
       <c r="W38" s="30"/>
       <c r="X38" s="30"/>
-      <c r="Y38" s="65"/>
+      <c r="Y38" s="56"/>
       <c r="Z38" s="37"/>
       <c r="AA38" s="38"/>
       <c r="AB38" s="11"/>
@@ -11645,61 +11505,61 @@
     </row>
     <row r="39" spans="1:256" s="13" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
-      <c r="B39" s="79">
+      <c r="B39" s="67">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C39" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="83" t="s">
+      <c r="C39" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G39" s="83" t="s">
+      <c r="G39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="83" t="s">
+      <c r="I39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="83" t="s">
+      <c r="J39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="83" t="s">
+      <c r="K39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="83" t="s">
+      <c r="L39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="83" t="s">
+      <c r="M39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N39" s="83" t="s">
+      <c r="N39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O39" s="83" t="s">
+      <c r="O39" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="103" t="s">
-        <v>158</v>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="91" t="s">
+        <v>138</v>
       </c>
       <c r="T39" s="51"/>
-      <c r="U39" s="61"/>
+      <c r="U39" s="53"/>
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
       <c r="X39" s="51"/>
-      <c r="Y39" s="62"/>
+      <c r="Y39" s="54"/>
       <c r="Z39" s="35"/>
       <c r="AA39" s="36"/>
       <c r="AB39" s="11"/>
@@ -11932,63 +11792,63 @@
       <c r="IU39" s="26"/>
       <c r="IV39" s="26"/>
     </row>
-    <row r="40" spans="1:256" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:256" s="13" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
-      <c r="B40" s="69">
+      <c r="B40" s="57">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C40" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="70" t="s">
+      <c r="C40" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="70" t="s">
+      <c r="G40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="70" t="s">
+      <c r="I40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J40" s="70" t="s">
+      <c r="J40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K40" s="70" t="s">
+      <c r="K40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="70" t="s">
+      <c r="L40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="70" t="s">
+      <c r="M40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N40" s="70" t="s">
+      <c r="N40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O40" s="70" t="s">
+      <c r="O40" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="64"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="55"/>
       <c r="S40" s="102" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="T40" s="30"/>
-      <c r="U40" s="64"/>
+      <c r="U40" s="55"/>
       <c r="V40" s="30"/>
       <c r="W40" s="30"/>
       <c r="X40" s="30"/>
-      <c r="Y40" s="65"/>
+      <c r="Y40" s="56"/>
       <c r="Z40" s="37"/>
       <c r="AA40" s="38"/>
       <c r="AB40" s="11"/>
@@ -12221,63 +12081,63 @@
       <c r="IU40" s="26"/>
       <c r="IV40" s="26"/>
     </row>
-    <row r="41" spans="1:256" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:256" s="13" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
-      <c r="B41" s="79">
+      <c r="B41" s="67">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C41" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="80" t="s">
+      <c r="C41" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="E41" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="83" t="s">
+      <c r="G41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="83" t="s">
+      <c r="I41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="83" t="s">
+      <c r="J41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K41" s="83" t="s">
+      <c r="K41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="83" t="s">
+      <c r="L41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M41" s="83" t="s">
+      <c r="M41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="83" t="s">
+      <c r="N41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O41" s="83" t="s">
+      <c r="O41" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="104" t="s">
-        <v>158</v>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="91" t="s">
+        <v>138</v>
       </c>
       <c r="T41" s="51"/>
-      <c r="U41" s="61"/>
+      <c r="U41" s="53"/>
       <c r="V41" s="18"/>
       <c r="W41" s="18"/>
       <c r="X41" s="51"/>
-      <c r="Y41" s="62"/>
+      <c r="Y41" s="54"/>
       <c r="Z41" s="35"/>
       <c r="AA41" s="36"/>
       <c r="AB41" s="11"/>
@@ -12510,63 +12370,63 @@
       <c r="IU41" s="26"/>
       <c r="IV41" s="26"/>
     </row>
-    <row r="42" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:256" s="13" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
-      <c r="B42" s="69">
+      <c r="B42" s="57">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C42" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="78" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="70" t="s">
+      <c r="C42" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="70" t="s">
+      <c r="G42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="70" t="s">
+      <c r="H42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="70" t="s">
+      <c r="I42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="70" t="s">
+      <c r="J42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K42" s="70" t="s">
+      <c r="K42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="70" t="s">
+      <c r="L42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M42" s="70" t="s">
+      <c r="M42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N42" s="70" t="s">
+      <c r="N42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O42" s="70" t="s">
+      <c r="O42" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="70"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="64"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="55"/>
       <c r="S42" s="102" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="T42" s="30"/>
-      <c r="U42" s="64"/>
+      <c r="U42" s="55"/>
       <c r="V42" s="30"/>
       <c r="W42" s="30"/>
       <c r="X42" s="30"/>
-      <c r="Y42" s="65"/>
+      <c r="Y42" s="56"/>
       <c r="Z42" s="37"/>
       <c r="AA42" s="38"/>
       <c r="AB42" s="11"/>
@@ -12799,63 +12659,63 @@
       <c r="IU42" s="26"/>
       <c r="IV42" s="26"/>
     </row>
-    <row r="43" spans="1:256" s="13" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:256" s="13" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="79">
+      <c r="B43" s="67">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C43" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="83" t="s">
+      <c r="C43" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="83" t="s">
+      <c r="G43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="83" t="s">
+      <c r="H43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="83" t="s">
+      <c r="I43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="83" t="s">
+      <c r="J43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="83" t="s">
+      <c r="K43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="83" t="s">
+      <c r="L43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="83" t="s">
+      <c r="M43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N43" s="83" t="s">
+      <c r="N43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O43" s="83" t="s">
+      <c r="O43" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="103" t="s">
-        <v>158</v>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="102" t="s">
+        <v>138</v>
       </c>
       <c r="T43" s="51"/>
-      <c r="U43" s="61"/>
+      <c r="U43" s="53"/>
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
       <c r="X43" s="51"/>
-      <c r="Y43" s="62"/>
+      <c r="Y43" s="54"/>
       <c r="Z43" s="35"/>
       <c r="AA43" s="36"/>
       <c r="AB43" s="11"/>
@@ -13088,63 +12948,63 @@
       <c r="IU43" s="26"/>
       <c r="IV43" s="26"/>
     </row>
-    <row r="44" spans="1:256" s="13" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:256" s="13" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
-      <c r="B44" s="69">
+      <c r="B44" s="57">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C44" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="70" t="s">
+      <c r="C44" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="70" t="s">
+      <c r="G44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="70" t="s">
+      <c r="H44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="70" t="s">
+      <c r="I44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="70" t="s">
+      <c r="J44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K44" s="70" t="s">
+      <c r="K44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="70" t="s">
+      <c r="L44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M44" s="70" t="s">
+      <c r="M44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N44" s="70" t="s">
+      <c r="N44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O44" s="70" t="s">
+      <c r="O44" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="102" t="s">
-        <v>158</v>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="91" t="s">
+        <v>138</v>
       </c>
       <c r="T44" s="30"/>
-      <c r="U44" s="64"/>
+      <c r="U44" s="55"/>
       <c r="V44" s="30"/>
       <c r="W44" s="30"/>
       <c r="X44" s="30"/>
-      <c r="Y44" s="65"/>
+      <c r="Y44" s="56"/>
       <c r="Z44" s="37"/>
       <c r="AA44" s="38"/>
       <c r="AB44" s="11"/>
@@ -13379,61 +13239,61 @@
     </row>
     <row r="45" spans="1:256" s="13" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
-      <c r="B45" s="79">
+      <c r="B45" s="67">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C45" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="83" t="s">
+      <c r="C45" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="83" t="s">
+      <c r="G45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H45" s="83" t="s">
+      <c r="H45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="83" t="s">
+      <c r="I45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="83" t="s">
+      <c r="J45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="83" t="s">
+      <c r="K45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L45" s="83" t="s">
+      <c r="L45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M45" s="83" t="s">
+      <c r="M45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N45" s="83" t="s">
+      <c r="N45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O45" s="83" t="s">
+      <c r="O45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="104" t="s">
-        <v>158</v>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="102" t="s">
+        <v>138</v>
       </c>
       <c r="T45" s="51"/>
-      <c r="U45" s="61"/>
+      <c r="U45" s="53"/>
       <c r="V45" s="18"/>
       <c r="W45" s="18"/>
       <c r="X45" s="51"/>
-      <c r="Y45" s="62"/>
+      <c r="Y45" s="54"/>
       <c r="Z45" s="35"/>
       <c r="AA45" s="36"/>
       <c r="AB45" s="11"/>
@@ -13668,61 +13528,61 @@
     </row>
     <row r="46" spans="1:256" s="13" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
-      <c r="B46" s="69">
+      <c r="B46" s="57">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C46" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="70" t="s">
+      <c r="C46" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="70" t="s">
+      <c r="G46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="70" t="s">
+      <c r="I46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="70" t="s">
+      <c r="J46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="70" t="s">
+      <c r="K46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L46" s="70" t="s">
+      <c r="L46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M46" s="70" t="s">
+      <c r="M46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N46" s="70" t="s">
+      <c r="N46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O46" s="70" t="s">
+      <c r="O46" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="64"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="55"/>
       <c r="S46" s="102" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="T46" s="30"/>
-      <c r="U46" s="64"/>
+      <c r="U46" s="55"/>
       <c r="V46" s="30"/>
       <c r="W46" s="30"/>
       <c r="X46" s="30"/>
-      <c r="Y46" s="65"/>
+      <c r="Y46" s="56"/>
       <c r="Z46" s="37"/>
       <c r="AA46" s="38"/>
       <c r="AB46" s="11"/>
@@ -13957,61 +13817,61 @@
     </row>
     <row r="47" spans="1:256" s="13" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
-      <c r="B47" s="79">
+      <c r="B47" s="67">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C47" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="83" t="s">
+      <c r="C47" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="83" t="s">
+      <c r="G47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="83" t="s">
+      <c r="H47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="83" t="s">
+      <c r="I47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="83" t="s">
+      <c r="J47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K47" s="83" t="s">
+      <c r="K47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="83" t="s">
+      <c r="L47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M47" s="83" t="s">
+      <c r="M47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N47" s="83" t="s">
+      <c r="N47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O47" s="83" t="s">
+      <c r="O47" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="103" t="s">
-        <v>158</v>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="91" t="s">
+        <v>138</v>
       </c>
       <c r="T47" s="51"/>
-      <c r="U47" s="61"/>
+      <c r="U47" s="53"/>
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
       <c r="X47" s="51"/>
-      <c r="Y47" s="62"/>
+      <c r="Y47" s="54"/>
       <c r="Z47" s="35"/>
       <c r="AA47" s="36"/>
       <c r="AB47" s="11"/>
@@ -14246,61 +14106,61 @@
     </row>
     <row r="48" spans="1:256" s="13" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
-      <c r="B48" s="69">
+      <c r="B48" s="57">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C48" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="70" t="s">
+      <c r="C48" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="70" t="s">
+      <c r="G48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H48" s="70" t="s">
+      <c r="H48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="70" t="s">
+      <c r="I48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="70" t="s">
+      <c r="J48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K48" s="70" t="s">
+      <c r="K48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="70" t="s">
+      <c r="L48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M48" s="70" t="s">
+      <c r="M48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N48" s="70" t="s">
+      <c r="N48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O48" s="70" t="s">
+      <c r="O48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="64"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="55"/>
       <c r="S48" s="102" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="T48" s="30"/>
-      <c r="U48" s="64"/>
+      <c r="U48" s="55"/>
       <c r="V48" s="30"/>
       <c r="W48" s="30"/>
       <c r="X48" s="30"/>
-      <c r="Y48" s="65"/>
+      <c r="Y48" s="56"/>
       <c r="Z48" s="37"/>
       <c r="AA48" s="38"/>
       <c r="AB48" s="11"/>
@@ -14535,61 +14395,61 @@
     </row>
     <row r="49" spans="1:256" s="13" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
-      <c r="B49" s="79">
+      <c r="B49" s="67">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C49" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="83" t="s">
+      <c r="C49" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="83" t="s">
+      <c r="G49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="83" t="s">
+      <c r="H49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="83" t="s">
+      <c r="I49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="83" t="s">
+      <c r="J49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="83" t="s">
+      <c r="K49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L49" s="83" t="s">
+      <c r="L49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M49" s="83" t="s">
+      <c r="M49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N49" s="83" t="s">
+      <c r="N49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O49" s="83" t="s">
+      <c r="O49" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="104" t="s">
-        <v>158</v>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="102" t="s">
+        <v>138</v>
       </c>
       <c r="T49" s="51"/>
-      <c r="U49" s="61"/>
+      <c r="U49" s="53"/>
       <c r="V49" s="18"/>
       <c r="W49" s="18"/>
       <c r="X49" s="51"/>
-      <c r="Y49" s="62"/>
+      <c r="Y49" s="54"/>
       <c r="Z49" s="35"/>
       <c r="AA49" s="36"/>
       <c r="AB49" s="11"/>
@@ -14824,61 +14684,61 @@
     </row>
     <row r="50" spans="1:256" s="13" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
-      <c r="B50" s="69">
+      <c r="B50" s="57">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C50" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" s="70" t="s">
+      <c r="C50" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="70" t="s">
+      <c r="G50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H50" s="70" t="s">
+      <c r="H50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I50" s="70" t="s">
+      <c r="I50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="70" t="s">
+      <c r="J50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="70" t="s">
+      <c r="K50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L50" s="70" t="s">
+      <c r="L50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M50" s="70" t="s">
+      <c r="M50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N50" s="70" t="s">
+      <c r="N50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O50" s="70" t="s">
+      <c r="O50" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="102" t="s">
-        <v>158</v>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="91" t="s">
+        <v>138</v>
       </c>
       <c r="T50" s="30"/>
-      <c r="U50" s="64"/>
+      <c r="U50" s="55"/>
       <c r="V50" s="30"/>
       <c r="W50" s="30"/>
       <c r="X50" s="30"/>
-      <c r="Y50" s="65"/>
+      <c r="Y50" s="56"/>
       <c r="Z50" s="37"/>
       <c r="AA50" s="38"/>
       <c r="AB50" s="11"/>
@@ -15113,61 +14973,61 @@
     </row>
     <row r="51" spans="1:256" s="13" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
-      <c r="B51" s="79">
+      <c r="B51" s="67">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C51" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="83" t="s">
+      <c r="C51" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G51" s="83" t="s">
+      <c r="G51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H51" s="83" t="s">
+      <c r="H51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I51" s="83" t="s">
+      <c r="I51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J51" s="83" t="s">
+      <c r="J51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K51" s="83" t="s">
+      <c r="K51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L51" s="83" t="s">
+      <c r="L51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="83" t="s">
+      <c r="M51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N51" s="83" t="s">
+      <c r="N51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O51" s="83" t="s">
+      <c r="O51" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="79"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="103" t="s">
-        <v>158</v>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="102" t="s">
+        <v>138</v>
       </c>
       <c r="T51" s="51"/>
-      <c r="U51" s="61"/>
+      <c r="U51" s="53"/>
       <c r="V51" s="18"/>
       <c r="W51" s="18"/>
       <c r="X51" s="51"/>
-      <c r="Y51" s="62"/>
+      <c r="Y51" s="54"/>
       <c r="Z51" s="35"/>
       <c r="AA51" s="36"/>
       <c r="AB51" s="11"/>
@@ -15402,63 +15262,63 @@
     </row>
     <row r="52" spans="1:256" s="13" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="69">
+      <c r="B52" s="57">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C52" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="F52" s="70" t="s">
+      <c r="C52" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="70" t="s">
+      <c r="G52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H52" s="70" t="s">
+      <c r="H52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="70" t="s">
+      <c r="I52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J52" s="70" t="s">
+      <c r="J52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="70" t="s">
+      <c r="K52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="70" t="s">
+      <c r="L52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M52" s="70" t="s">
+      <c r="M52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N52" s="70" t="s">
+      <c r="N52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O52" s="70" t="s">
+      <c r="O52" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="64"/>
+      <c r="P52" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q52" s="58"/>
+      <c r="R52" s="55"/>
       <c r="S52" s="102" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="T52" s="30"/>
-      <c r="U52" s="64"/>
+      <c r="U52" s="55"/>
       <c r="V52" s="30"/>
       <c r="W52" s="30"/>
       <c r="X52" s="30"/>
-      <c r="Y52" s="65"/>
+      <c r="Y52" s="56"/>
       <c r="Z52" s="37"/>
       <c r="AA52" s="38"/>
       <c r="AB52" s="11"/>
@@ -15693,61 +15553,61 @@
     </row>
     <row r="53" spans="1:256" s="13" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
-      <c r="B53" s="79">
+      <c r="B53" s="67">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C53" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="83" t="s">
+      <c r="C53" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="83" t="s">
+      <c r="G53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="83" t="s">
+      <c r="H53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I53" s="83" t="s">
+      <c r="I53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J53" s="83" t="s">
+      <c r="J53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K53" s="83" t="s">
+      <c r="K53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L53" s="83" t="s">
+      <c r="L53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M53" s="83" t="s">
+      <c r="M53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N53" s="83" t="s">
+      <c r="N53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O53" s="83" t="s">
+      <c r="O53" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="104" t="s">
-        <v>158</v>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="67"/>
+      <c r="R53" s="53"/>
+      <c r="S53" s="91" t="s">
+        <v>138</v>
       </c>
       <c r="T53" s="51"/>
-      <c r="U53" s="61"/>
+      <c r="U53" s="53"/>
       <c r="V53" s="18"/>
       <c r="W53" s="18"/>
       <c r="X53" s="51"/>
-      <c r="Y53" s="62"/>
+      <c r="Y53" s="54"/>
       <c r="Z53" s="35"/>
       <c r="AA53" s="36"/>
       <c r="AB53" s="11"/>
@@ -15982,61 +15842,61 @@
     </row>
     <row r="54" spans="1:256" s="13" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="69">
+      <c r="B54" s="57">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C54" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="78" t="s">
+      <c r="C54" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="P54" s="70"/>
-      <c r="Q54" s="70"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="102" t="s">
-        <v>158</v>
-      </c>
       <c r="T54" s="30"/>
-      <c r="U54" s="64"/>
+      <c r="U54" s="55"/>
       <c r="V54" s="30"/>
       <c r="W54" s="30"/>
       <c r="X54" s="30"/>
-      <c r="Y54" s="65"/>
+      <c r="Y54" s="56"/>
       <c r="Z54" s="37"/>
       <c r="AA54" s="38"/>
       <c r="AB54" s="11"/>
@@ -16271,61 +16131,61 @@
     </row>
     <row r="55" spans="1:256" s="13" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
-      <c r="B55" s="79">
+      <c r="B55" s="67">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C55" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="83" t="s">
+      <c r="C55" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="83" t="s">
+      <c r="G55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="83" t="s">
+      <c r="H55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I55" s="83" t="s">
+      <c r="I55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="83" t="s">
+      <c r="J55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="83" t="s">
+      <c r="K55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L55" s="83" t="s">
+      <c r="L55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M55" s="83" t="s">
+      <c r="M55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N55" s="83" t="s">
+      <c r="N55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="O55" s="83" t="s">
+      <c r="O55" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="79"/>
-      <c r="R55" s="61"/>
-      <c r="S55" s="103" t="s">
-        <v>158</v>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="102" t="s">
+        <v>138</v>
       </c>
       <c r="T55" s="51"/>
-      <c r="U55" s="61"/>
+      <c r="U55" s="53"/>
       <c r="V55" s="18"/>
       <c r="W55" s="18"/>
       <c r="X55" s="18"/>
-      <c r="Y55" s="62"/>
+      <c r="Y55" s="54"/>
       <c r="Z55" s="35"/>
       <c r="AA55" s="36"/>
       <c r="AB55" s="11"/>
@@ -16560,63 +16420,63 @@
     </row>
     <row r="56" spans="1:256" s="13" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
-      <c r="B56" s="69">
+      <c r="B56" s="57">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C56" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="F56" s="70" t="s">
+      <c r="C56" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G56" s="70" t="s">
+      <c r="G56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="70" t="s">
+      <c r="H56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="70" t="s">
+      <c r="I56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="70" t="s">
+      <c r="J56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K56" s="70" t="s">
+      <c r="K56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="70" t="s">
+      <c r="L56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M56" s="70" t="s">
+      <c r="M56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N56" s="70" t="s">
+      <c r="N56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O56" s="70" t="s">
+      <c r="O56" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P56" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="102" t="s">
-        <v>158</v>
+      <c r="P56" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="91" t="s">
+        <v>138</v>
       </c>
       <c r="T56" s="30"/>
-      <c r="U56" s="64"/>
+      <c r="U56" s="55"/>
       <c r="V56" s="30"/>
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
-      <c r="Y56" s="65"/>
+      <c r="Y56" s="56"/>
       <c r="Z56" s="37"/>
       <c r="AA56" s="38"/>
       <c r="AB56" s="11"/>
@@ -16851,61 +16711,61 @@
     </row>
     <row r="57" spans="1:256" s="13" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
-      <c r="B57" s="79">
+      <c r="B57" s="67">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E57" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57" s="81" t="s">
+      <c r="D57" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="81" t="s">
+      <c r="G57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I57" s="81" t="s">
+      <c r="I57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="81" t="s">
+      <c r="J57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="81" t="s">
+      <c r="K57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L57" s="81" t="s">
+      <c r="L57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M57" s="81" t="s">
+      <c r="M57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N57" s="81" t="s">
+      <c r="N57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O57" s="81" t="s">
+      <c r="O57" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="104" t="s">
-        <v>158</v>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="92" t="s">
+        <v>136</v>
       </c>
       <c r="T57" s="18"/>
-      <c r="U57" s="61"/>
+      <c r="U57" s="53"/>
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
-      <c r="Y57" s="62"/>
+      <c r="Y57" s="54"/>
       <c r="Z57" s="35"/>
       <c r="AA57" s="36"/>
       <c r="AB57" s="11"/>
@@ -17140,61 +17000,61 @@
     </row>
     <row r="58" spans="1:256" s="13" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
-      <c r="B58" s="69">
+      <c r="B58" s="57">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="78" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" s="70" t="s">
+      <c r="D58" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="70" t="s">
+      <c r="G58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H58" s="70" t="s">
+      <c r="H58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="I58" s="70" t="s">
+      <c r="I58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="70" t="s">
+      <c r="J58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="K58" s="70" t="s">
+      <c r="K58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="L58" s="70" t="s">
+      <c r="L58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M58" s="70" t="s">
+      <c r="M58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N58" s="70" t="s">
+      <c r="N58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O58" s="70" t="s">
+      <c r="O58" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="85"/>
-      <c r="R58" s="64"/>
-      <c r="S58" s="102" t="s">
-        <v>158</v>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="90" t="s">
+        <v>139</v>
       </c>
       <c r="T58" s="30"/>
-      <c r="U58" s="64"/>
+      <c r="U58" s="55"/>
       <c r="V58" s="30"/>
       <c r="W58" s="30"/>
       <c r="X58" s="30"/>
-      <c r="Y58" s="65"/>
+      <c r="Y58" s="56"/>
       <c r="Z58" s="37"/>
       <c r="AA58" s="38"/>
       <c r="AB58" s="11"/>
@@ -17429,61 +17289,61 @@
     </row>
     <row r="59" spans="1:256" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
-      <c r="B59" s="79">
+      <c r="B59" s="67">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="81" t="s">
+      <c r="D59" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="81" t="s">
+      <c r="G59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="81" t="s">
+      <c r="H59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="I59" s="81" t="s">
+      <c r="I59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J59" s="81" t="s">
+      <c r="J59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="K59" s="81" t="s">
+      <c r="K59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="L59" s="81" t="s">
+      <c r="L59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="M59" s="81" t="s">
+      <c r="M59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N59" s="81" t="s">
+      <c r="N59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O59" s="81" t="s">
+      <c r="O59" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="103" t="s">
-        <v>158</v>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="70"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="91" t="s">
+        <v>136</v>
       </c>
       <c r="T59" s="18"/>
-      <c r="U59" s="61"/>
+      <c r="U59" s="53"/>
       <c r="V59" s="18"/>
       <c r="W59" s="18"/>
       <c r="X59" s="18"/>
-      <c r="Y59" s="62"/>
+      <c r="Y59" s="54"/>
       <c r="Z59" s="35"/>
       <c r="AA59" s="36"/>
       <c r="AB59" s="11"/>
@@ -17717,33 +17577,33 @@
       <c r="IV59" s="26"/>
     </row>
     <row r="60" spans="1:256" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
-      <c r="M60" s="92"/>
-      <c r="N60" s="92"/>
-      <c r="O60" s="92"/>
-      <c r="P60" s="92"/>
-      <c r="Q60" s="94"/>
-      <c r="R60" s="95"/>
-      <c r="S60" s="96"/>
-      <c r="T60" s="97"/>
-      <c r="U60" s="95"/>
-      <c r="V60" s="97"/>
-      <c r="W60" s="97"/>
-      <c r="X60" s="97"/>
-      <c r="Y60" s="98"/>
-      <c r="Z60" s="99"/>
-      <c r="AA60" s="100"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="82"/>
+      <c r="R60" s="83"/>
+      <c r="S60" s="84"/>
+      <c r="T60" s="85"/>
+      <c r="U60" s="83"/>
+      <c r="V60" s="85"/>
+      <c r="W60" s="85"/>
+      <c r="X60" s="85"/>
+      <c r="Y60" s="86"/>
+      <c r="Z60" s="87"/>
+      <c r="AA60" s="88"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="12"/>
       <c r="AD60" s="12"/>
@@ -17992,14 +17852,14 @@
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="Q61" s="18"/>
-      <c r="R61" s="61"/>
+      <c r="R61" s="53"/>
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
-      <c r="U61" s="61"/>
+      <c r="U61" s="53"/>
       <c r="V61" s="18"/>
       <c r="W61" s="18"/>
       <c r="X61" s="18"/>
-      <c r="Y61" s="62"/>
+      <c r="Y61" s="54"/>
       <c r="Z61" s="35"/>
       <c r="AA61" s="36"/>
       <c r="AB61" s="11"/>
@@ -18250,14 +18110,14 @@
       <c r="O62" s="27"/>
       <c r="P62" s="27"/>
       <c r="Q62" s="28"/>
-      <c r="R62" s="64"/>
+      <c r="R62" s="55"/>
       <c r="S62" s="29"/>
       <c r="T62" s="30"/>
-      <c r="U62" s="64"/>
+      <c r="U62" s="55"/>
       <c r="V62" s="30"/>
       <c r="W62" s="30"/>
       <c r="X62" s="30"/>
-      <c r="Y62" s="65"/>
+      <c r="Y62" s="56"/>
       <c r="Z62" s="37"/>
       <c r="AA62" s="38"/>
       <c r="AB62" s="11"/>
@@ -18508,14 +18368,14 @@
       <c r="O63" s="22"/>
       <c r="P63" s="22"/>
       <c r="Q63" s="18"/>
-      <c r="R63" s="61"/>
+      <c r="R63" s="53"/>
       <c r="S63" s="18"/>
       <c r="T63" s="18"/>
-      <c r="U63" s="61"/>
+      <c r="U63" s="53"/>
       <c r="V63" s="18"/>
       <c r="W63" s="18"/>
       <c r="X63" s="18"/>
-      <c r="Y63" s="62"/>
+      <c r="Y63" s="54"/>
       <c r="Z63" s="35"/>
       <c r="AA63" s="36"/>
       <c r="AB63" s="11"/>
@@ -18766,14 +18626,14 @@
       <c r="O64" s="27"/>
       <c r="P64" s="27"/>
       <c r="Q64" s="28"/>
-      <c r="R64" s="64"/>
+      <c r="R64" s="55"/>
       <c r="S64" s="29"/>
       <c r="T64" s="30"/>
-      <c r="U64" s="64"/>
+      <c r="U64" s="55"/>
       <c r="V64" s="30"/>
       <c r="W64" s="30"/>
       <c r="X64" s="30"/>
-      <c r="Y64" s="65"/>
+      <c r="Y64" s="56"/>
       <c r="Z64" s="37"/>
       <c r="AA64" s="38"/>
       <c r="AB64" s="11"/>
@@ -19024,14 +18884,14 @@
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="18"/>
-      <c r="R65" s="61"/>
+      <c r="R65" s="53"/>
       <c r="S65" s="18"/>
       <c r="T65" s="18"/>
-      <c r="U65" s="61"/>
+      <c r="U65" s="53"/>
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
       <c r="X65" s="18"/>
-      <c r="Y65" s="62"/>
+      <c r="Y65" s="54"/>
       <c r="Z65" s="35"/>
       <c r="AA65" s="36"/>
       <c r="AB65" s="11"/>
@@ -19282,14 +19142,14 @@
       <c r="O66" s="27"/>
       <c r="P66" s="27"/>
       <c r="Q66" s="28"/>
-      <c r="R66" s="64"/>
+      <c r="R66" s="55"/>
       <c r="S66" s="29"/>
       <c r="T66" s="30"/>
-      <c r="U66" s="64"/>
+      <c r="U66" s="55"/>
       <c r="V66" s="30"/>
       <c r="W66" s="30"/>
       <c r="X66" s="30"/>
-      <c r="Y66" s="65"/>
+      <c r="Y66" s="56"/>
       <c r="Z66" s="37"/>
       <c r="AA66" s="38"/>
       <c r="AB66" s="11"/>
@@ -19540,14 +19400,14 @@
       <c r="O67" s="22"/>
       <c r="P67" s="22"/>
       <c r="Q67" s="18"/>
-      <c r="R67" s="61"/>
+      <c r="R67" s="53"/>
       <c r="S67" s="18"/>
       <c r="T67" s="18"/>
-      <c r="U67" s="61"/>
+      <c r="U67" s="53"/>
       <c r="V67" s="18"/>
       <c r="W67" s="18"/>
       <c r="X67" s="18"/>
-      <c r="Y67" s="62"/>
+      <c r="Y67" s="54"/>
       <c r="Z67" s="35"/>
       <c r="AA67" s="36"/>
       <c r="AB67" s="11"/>
@@ -19798,14 +19658,14 @@
       <c r="O68" s="27"/>
       <c r="P68" s="27"/>
       <c r="Q68" s="28"/>
-      <c r="R68" s="64"/>
+      <c r="R68" s="55"/>
       <c r="S68" s="29"/>
       <c r="T68" s="30"/>
-      <c r="U68" s="64"/>
+      <c r="U68" s="55"/>
       <c r="V68" s="30"/>
       <c r="W68" s="30"/>
       <c r="X68" s="30"/>
-      <c r="Y68" s="65"/>
+      <c r="Y68" s="56"/>
       <c r="Z68" s="37"/>
       <c r="AA68" s="38"/>
       <c r="AB68" s="11"/>
@@ -20056,14 +19916,14 @@
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
       <c r="Q69" s="18"/>
-      <c r="R69" s="61"/>
+      <c r="R69" s="53"/>
       <c r="S69" s="18"/>
       <c r="T69" s="18"/>
-      <c r="U69" s="61"/>
+      <c r="U69" s="53"/>
       <c r="V69" s="18"/>
       <c r="W69" s="18"/>
       <c r="X69" s="18"/>
-      <c r="Y69" s="62"/>
+      <c r="Y69" s="54"/>
       <c r="Z69" s="35"/>
       <c r="AA69" s="36"/>
       <c r="AB69" s="11"/>
@@ -20314,14 +20174,14 @@
       <c r="O70" s="27"/>
       <c r="P70" s="27"/>
       <c r="Q70" s="28"/>
-      <c r="R70" s="64"/>
+      <c r="R70" s="55"/>
       <c r="S70" s="29"/>
       <c r="T70" s="30"/>
-      <c r="U70" s="64"/>
+      <c r="U70" s="55"/>
       <c r="V70" s="30"/>
       <c r="W70" s="30"/>
       <c r="X70" s="30"/>
-      <c r="Y70" s="65"/>
+      <c r="Y70" s="56"/>
       <c r="Z70" s="37"/>
       <c r="AA70" s="38"/>
       <c r="AB70" s="11"/>
@@ -20572,14 +20432,14 @@
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
       <c r="Q71" s="18"/>
-      <c r="R71" s="61"/>
+      <c r="R71" s="53"/>
       <c r="S71" s="18"/>
       <c r="T71" s="18"/>
-      <c r="U71" s="61"/>
+      <c r="U71" s="53"/>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
       <c r="X71" s="18"/>
-      <c r="Y71" s="62"/>
+      <c r="Y71" s="54"/>
       <c r="Z71" s="35"/>
       <c r="AA71" s="36"/>
       <c r="AB71" s="11"/>
@@ -20830,14 +20690,14 @@
       <c r="O72" s="27"/>
       <c r="P72" s="27"/>
       <c r="Q72" s="28"/>
-      <c r="R72" s="64"/>
+      <c r="R72" s="55"/>
       <c r="S72" s="29"/>
       <c r="T72" s="30"/>
-      <c r="U72" s="64"/>
+      <c r="U72" s="55"/>
       <c r="V72" s="30"/>
       <c r="W72" s="30"/>
       <c r="X72" s="30"/>
-      <c r="Y72" s="65"/>
+      <c r="Y72" s="56"/>
       <c r="Z72" s="37"/>
       <c r="AA72" s="38"/>
       <c r="AB72" s="11"/>
@@ -21088,14 +20948,14 @@
       <c r="O73" s="22"/>
       <c r="P73" s="22"/>
       <c r="Q73" s="18"/>
-      <c r="R73" s="61"/>
+      <c r="R73" s="53"/>
       <c r="S73" s="18"/>
       <c r="T73" s="18"/>
-      <c r="U73" s="61"/>
+      <c r="U73" s="53"/>
       <c r="V73" s="18"/>
       <c r="W73" s="18"/>
       <c r="X73" s="18"/>
-      <c r="Y73" s="62"/>
+      <c r="Y73" s="54"/>
       <c r="Z73" s="35"/>
       <c r="AA73" s="36"/>
       <c r="AB73" s="11"/>
@@ -21346,14 +21206,14 @@
       <c r="O74" s="27"/>
       <c r="P74" s="27"/>
       <c r="Q74" s="28"/>
-      <c r="R74" s="64"/>
+      <c r="R74" s="55"/>
       <c r="S74" s="29"/>
       <c r="T74" s="30"/>
-      <c r="U74" s="64"/>
+      <c r="U74" s="55"/>
       <c r="V74" s="30"/>
       <c r="W74" s="30"/>
       <c r="X74" s="30"/>
-      <c r="Y74" s="65"/>
+      <c r="Y74" s="56"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="38"/>
       <c r="AB74" s="11"/>
@@ -21604,14 +21464,14 @@
       <c r="O75" s="22"/>
       <c r="P75" s="22"/>
       <c r="Q75" s="18"/>
-      <c r="R75" s="61"/>
+      <c r="R75" s="53"/>
       <c r="S75" s="18"/>
       <c r="T75" s="18"/>
-      <c r="U75" s="61"/>
+      <c r="U75" s="53"/>
       <c r="V75" s="18"/>
       <c r="W75" s="18"/>
       <c r="X75" s="18"/>
-      <c r="Y75" s="62"/>
+      <c r="Y75" s="54"/>
       <c r="Z75" s="35"/>
       <c r="AA75" s="36"/>
       <c r="AB75" s="11"/>
@@ -21862,14 +21722,14 @@
       <c r="O76" s="27"/>
       <c r="P76" s="27"/>
       <c r="Q76" s="28"/>
-      <c r="R76" s="64"/>
+      <c r="R76" s="55"/>
       <c r="S76" s="29"/>
       <c r="T76" s="30"/>
-      <c r="U76" s="64"/>
+      <c r="U76" s="55"/>
       <c r="V76" s="30"/>
       <c r="W76" s="30"/>
       <c r="X76" s="30"/>
-      <c r="Y76" s="65"/>
+      <c r="Y76" s="56"/>
       <c r="Z76" s="37"/>
       <c r="AA76" s="38"/>
       <c r="AB76" s="11"/>
@@ -22120,14 +21980,14 @@
       <c r="O77" s="22"/>
       <c r="P77" s="22"/>
       <c r="Q77" s="18"/>
-      <c r="R77" s="61"/>
+      <c r="R77" s="53"/>
       <c r="S77" s="18"/>
       <c r="T77" s="18"/>
-      <c r="U77" s="61"/>
+      <c r="U77" s="53"/>
       <c r="V77" s="18"/>
       <c r="W77" s="18"/>
       <c r="X77" s="18"/>
-      <c r="Y77" s="62"/>
+      <c r="Y77" s="54"/>
       <c r="Z77" s="35"/>
       <c r="AA77" s="36"/>
       <c r="AB77" s="11"/>
@@ -22378,14 +22238,14 @@
       <c r="O78" s="27"/>
       <c r="P78" s="27"/>
       <c r="Q78" s="28"/>
-      <c r="R78" s="64"/>
+      <c r="R78" s="55"/>
       <c r="S78" s="29"/>
       <c r="T78" s="30"/>
-      <c r="U78" s="64"/>
+      <c r="U78" s="55"/>
       <c r="V78" s="30"/>
       <c r="W78" s="30"/>
       <c r="X78" s="30"/>
-      <c r="Y78" s="65"/>
+      <c r="Y78" s="56"/>
       <c r="Z78" s="37"/>
       <c r="AA78" s="38"/>
       <c r="AB78" s="11"/>
@@ -22636,14 +22496,14 @@
       <c r="O79" s="22"/>
       <c r="P79" s="22"/>
       <c r="Q79" s="18"/>
-      <c r="R79" s="61"/>
+      <c r="R79" s="53"/>
       <c r="S79" s="18"/>
       <c r="T79" s="18"/>
-      <c r="U79" s="61"/>
+      <c r="U79" s="53"/>
       <c r="V79" s="18"/>
       <c r="W79" s="18"/>
       <c r="X79" s="18"/>
-      <c r="Y79" s="62"/>
+      <c r="Y79" s="54"/>
       <c r="Z79" s="35"/>
       <c r="AA79" s="36"/>
       <c r="AB79" s="11"/>
@@ -22894,14 +22754,14 @@
       <c r="O80" s="27"/>
       <c r="P80" s="27"/>
       <c r="Q80" s="28"/>
-      <c r="R80" s="64"/>
+      <c r="R80" s="55"/>
       <c r="S80" s="29"/>
       <c r="T80" s="30"/>
-      <c r="U80" s="64"/>
+      <c r="U80" s="55"/>
       <c r="V80" s="30"/>
       <c r="W80" s="30"/>
       <c r="X80" s="30"/>
-      <c r="Y80" s="65"/>
+      <c r="Y80" s="56"/>
       <c r="Z80" s="37"/>
       <c r="AA80" s="38"/>
       <c r="AB80" s="11"/>
@@ -23152,14 +23012,14 @@
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
       <c r="Q81" s="18"/>
-      <c r="R81" s="61"/>
+      <c r="R81" s="53"/>
       <c r="S81" s="18"/>
       <c r="T81" s="18"/>
-      <c r="U81" s="61"/>
+      <c r="U81" s="53"/>
       <c r="V81" s="18"/>
       <c r="W81" s="18"/>
       <c r="X81" s="18"/>
-      <c r="Y81" s="62"/>
+      <c r="Y81" s="54"/>
       <c r="Z81" s="35"/>
       <c r="AA81" s="36"/>
       <c r="AB81" s="11"/>
@@ -23410,14 +23270,14 @@
       <c r="O82" s="27"/>
       <c r="P82" s="27"/>
       <c r="Q82" s="28"/>
-      <c r="R82" s="64"/>
+      <c r="R82" s="55"/>
       <c r="S82" s="29"/>
       <c r="T82" s="30"/>
-      <c r="U82" s="64"/>
+      <c r="U82" s="55"/>
       <c r="V82" s="30"/>
       <c r="W82" s="30"/>
       <c r="X82" s="30"/>
-      <c r="Y82" s="65"/>
+      <c r="Y82" s="56"/>
       <c r="Z82" s="37"/>
       <c r="AA82" s="38"/>
       <c r="AB82" s="11"/>
@@ -23668,14 +23528,14 @@
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
       <c r="Q83" s="18"/>
-      <c r="R83" s="61"/>
+      <c r="R83" s="53"/>
       <c r="S83" s="18"/>
       <c r="T83" s="18"/>
-      <c r="U83" s="61"/>
+      <c r="U83" s="53"/>
       <c r="V83" s="18"/>
       <c r="W83" s="18"/>
       <c r="X83" s="18"/>
-      <c r="Y83" s="62"/>
+      <c r="Y83" s="54"/>
       <c r="Z83" s="35"/>
       <c r="AA83" s="36"/>
       <c r="AB83" s="11"/>
@@ -23926,14 +23786,14 @@
       <c r="O84" s="27"/>
       <c r="P84" s="27"/>
       <c r="Q84" s="28"/>
-      <c r="R84" s="64"/>
+      <c r="R84" s="55"/>
       <c r="S84" s="29"/>
       <c r="T84" s="30"/>
-      <c r="U84" s="64"/>
+      <c r="U84" s="55"/>
       <c r="V84" s="30"/>
       <c r="W84" s="30"/>
       <c r="X84" s="30"/>
-      <c r="Y84" s="65"/>
+      <c r="Y84" s="56"/>
       <c r="Z84" s="37"/>
       <c r="AA84" s="38"/>
       <c r="AB84" s="11"/>
@@ -24184,14 +24044,14 @@
       <c r="O85" s="22"/>
       <c r="P85" s="22"/>
       <c r="Q85" s="18"/>
-      <c r="R85" s="61"/>
+      <c r="R85" s="53"/>
       <c r="S85" s="18"/>
       <c r="T85" s="18"/>
-      <c r="U85" s="61"/>
+      <c r="U85" s="53"/>
       <c r="V85" s="18"/>
       <c r="W85" s="18"/>
       <c r="X85" s="18"/>
-      <c r="Y85" s="62"/>
+      <c r="Y85" s="54"/>
       <c r="Z85" s="35"/>
       <c r="AA85" s="36"/>
       <c r="AB85" s="11"/>
@@ -24442,14 +24302,14 @@
       <c r="O86" s="27"/>
       <c r="P86" s="27"/>
       <c r="Q86" s="28"/>
-      <c r="R86" s="64"/>
+      <c r="R86" s="55"/>
       <c r="S86" s="29"/>
       <c r="T86" s="30"/>
-      <c r="U86" s="64"/>
+      <c r="U86" s="55"/>
       <c r="V86" s="30"/>
       <c r="W86" s="30"/>
       <c r="X86" s="30"/>
-      <c r="Y86" s="65"/>
+      <c r="Y86" s="56"/>
       <c r="Z86" s="37"/>
       <c r="AA86" s="38"/>
       <c r="AB86" s="11"/>
@@ -24700,14 +24560,14 @@
       <c r="O87" s="22"/>
       <c r="P87" s="22"/>
       <c r="Q87" s="18"/>
-      <c r="R87" s="61"/>
+      <c r="R87" s="53"/>
       <c r="S87" s="18"/>
       <c r="T87" s="18"/>
-      <c r="U87" s="61"/>
+      <c r="U87" s="53"/>
       <c r="V87" s="18"/>
       <c r="W87" s="18"/>
       <c r="X87" s="18"/>
-      <c r="Y87" s="62"/>
+      <c r="Y87" s="54"/>
       <c r="Z87" s="35"/>
       <c r="AA87" s="36"/>
       <c r="AB87" s="11"/>
@@ -24958,14 +24818,14 @@
       <c r="O88" s="27"/>
       <c r="P88" s="27"/>
       <c r="Q88" s="28"/>
-      <c r="R88" s="64"/>
+      <c r="R88" s="55"/>
       <c r="S88" s="29"/>
       <c r="T88" s="30"/>
-      <c r="U88" s="64"/>
+      <c r="U88" s="55"/>
       <c r="V88" s="30"/>
       <c r="W88" s="30"/>
       <c r="X88" s="30"/>
-      <c r="Y88" s="65"/>
+      <c r="Y88" s="56"/>
       <c r="Z88" s="37"/>
       <c r="AA88" s="38"/>
       <c r="AB88" s="11"/>
@@ -25216,14 +25076,14 @@
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
       <c r="Q89" s="18"/>
-      <c r="R89" s="61"/>
+      <c r="R89" s="53"/>
       <c r="S89" s="18"/>
       <c r="T89" s="18"/>
-      <c r="U89" s="61"/>
+      <c r="U89" s="53"/>
       <c r="V89" s="18"/>
       <c r="W89" s="18"/>
       <c r="X89" s="18"/>
-      <c r="Y89" s="62"/>
+      <c r="Y89" s="54"/>
       <c r="Z89" s="35"/>
       <c r="AA89" s="36"/>
       <c r="AB89" s="11"/>
@@ -25474,14 +25334,14 @@
       <c r="O90" s="27"/>
       <c r="P90" s="27"/>
       <c r="Q90" s="28"/>
-      <c r="R90" s="64"/>
+      <c r="R90" s="55"/>
       <c r="S90" s="29"/>
       <c r="T90" s="30"/>
-      <c r="U90" s="64"/>
+      <c r="U90" s="55"/>
       <c r="V90" s="30"/>
       <c r="W90" s="30"/>
       <c r="X90" s="30"/>
-      <c r="Y90" s="65"/>
+      <c r="Y90" s="56"/>
       <c r="Z90" s="37"/>
       <c r="AA90" s="38"/>
       <c r="AB90" s="11"/>
@@ -25732,14 +25592,14 @@
       <c r="O91" s="22"/>
       <c r="P91" s="22"/>
       <c r="Q91" s="18"/>
-      <c r="R91" s="61"/>
+      <c r="R91" s="53"/>
       <c r="S91" s="18"/>
       <c r="T91" s="18"/>
-      <c r="U91" s="61"/>
+      <c r="U91" s="53"/>
       <c r="V91" s="18"/>
       <c r="W91" s="18"/>
       <c r="X91" s="18"/>
-      <c r="Y91" s="62"/>
+      <c r="Y91" s="54"/>
       <c r="Z91" s="35"/>
       <c r="AA91" s="36"/>
       <c r="AB91" s="11"/>
@@ -25990,14 +25850,14 @@
       <c r="O92" s="27"/>
       <c r="P92" s="27"/>
       <c r="Q92" s="28"/>
-      <c r="R92" s="64"/>
+      <c r="R92" s="55"/>
       <c r="S92" s="29"/>
       <c r="T92" s="30"/>
-      <c r="U92" s="64"/>
+      <c r="U92" s="55"/>
       <c r="V92" s="30"/>
       <c r="W92" s="30"/>
       <c r="X92" s="30"/>
-      <c r="Y92" s="65"/>
+      <c r="Y92" s="56"/>
       <c r="Z92" s="37"/>
       <c r="AA92" s="38"/>
       <c r="AB92" s="11"/>
@@ -26248,14 +26108,14 @@
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
       <c r="Q93" s="18"/>
-      <c r="R93" s="61"/>
+      <c r="R93" s="53"/>
       <c r="S93" s="18"/>
       <c r="T93" s="18"/>
-      <c r="U93" s="61"/>
+      <c r="U93" s="53"/>
       <c r="V93" s="18"/>
       <c r="W93" s="18"/>
       <c r="X93" s="18"/>
-      <c r="Y93" s="62"/>
+      <c r="Y93" s="54"/>
       <c r="Z93" s="35"/>
       <c r="AA93" s="36"/>
       <c r="AB93" s="11"/>
@@ -26506,14 +26366,14 @@
       <c r="O94" s="27"/>
       <c r="P94" s="27"/>
       <c r="Q94" s="28"/>
-      <c r="R94" s="64"/>
+      <c r="R94" s="55"/>
       <c r="S94" s="29"/>
       <c r="T94" s="30"/>
-      <c r="U94" s="64"/>
+      <c r="U94" s="55"/>
       <c r="V94" s="30"/>
       <c r="W94" s="30"/>
       <c r="X94" s="30"/>
-      <c r="Y94" s="65"/>
+      <c r="Y94" s="56"/>
       <c r="Z94" s="37"/>
       <c r="AA94" s="38"/>
       <c r="AB94" s="11"/>
@@ -26764,14 +26624,14 @@
       <c r="O95" s="22"/>
       <c r="P95" s="22"/>
       <c r="Q95" s="18"/>
-      <c r="R95" s="61"/>
+      <c r="R95" s="53"/>
       <c r="S95" s="18"/>
       <c r="T95" s="18"/>
-      <c r="U95" s="61"/>
+      <c r="U95" s="53"/>
       <c r="V95" s="18"/>
       <c r="W95" s="18"/>
       <c r="X95" s="18"/>
-      <c r="Y95" s="62"/>
+      <c r="Y95" s="54"/>
       <c r="Z95" s="35"/>
       <c r="AA95" s="36"/>
       <c r="AB95" s="11"/>
@@ -27022,14 +26882,14 @@
       <c r="O96" s="27"/>
       <c r="P96" s="27"/>
       <c r="Q96" s="28"/>
-      <c r="R96" s="64"/>
+      <c r="R96" s="55"/>
       <c r="S96" s="29"/>
       <c r="T96" s="30"/>
-      <c r="U96" s="64"/>
+      <c r="U96" s="55"/>
       <c r="V96" s="30"/>
       <c r="W96" s="30"/>
       <c r="X96" s="30"/>
-      <c r="Y96" s="65"/>
+      <c r="Y96" s="56"/>
       <c r="Z96" s="37"/>
       <c r="AA96" s="38"/>
       <c r="AB96" s="11"/>
@@ -27280,14 +27140,14 @@
       <c r="O97" s="22"/>
       <c r="P97" s="22"/>
       <c r="Q97" s="18"/>
-      <c r="R97" s="61"/>
+      <c r="R97" s="53"/>
       <c r="S97" s="18"/>
       <c r="T97" s="18"/>
-      <c r="U97" s="61"/>
+      <c r="U97" s="53"/>
       <c r="V97" s="18"/>
       <c r="W97" s="18"/>
       <c r="X97" s="18"/>
-      <c r="Y97" s="62"/>
+      <c r="Y97" s="54"/>
       <c r="Z97" s="35"/>
       <c r="AA97" s="36"/>
       <c r="AB97" s="11"/>
@@ -27538,14 +27398,14 @@
       <c r="O98" s="27"/>
       <c r="P98" s="27"/>
       <c r="Q98" s="28"/>
-      <c r="R98" s="64"/>
+      <c r="R98" s="55"/>
       <c r="S98" s="29"/>
       <c r="T98" s="30"/>
-      <c r="U98" s="64"/>
+      <c r="U98" s="55"/>
       <c r="V98" s="30"/>
       <c r="W98" s="30"/>
       <c r="X98" s="30"/>
-      <c r="Y98" s="65"/>
+      <c r="Y98" s="56"/>
       <c r="Z98" s="37"/>
       <c r="AA98" s="38"/>
       <c r="AB98" s="11"/>
@@ -27796,14 +27656,14 @@
       <c r="O99" s="22"/>
       <c r="P99" s="22"/>
       <c r="Q99" s="18"/>
-      <c r="R99" s="61"/>
+      <c r="R99" s="53"/>
       <c r="S99" s="18"/>
       <c r="T99" s="18"/>
-      <c r="U99" s="61"/>
+      <c r="U99" s="53"/>
       <c r="V99" s="18"/>
       <c r="W99" s="18"/>
       <c r="X99" s="18"/>
-      <c r="Y99" s="62"/>
+      <c r="Y99" s="54"/>
       <c r="Z99" s="35"/>
       <c r="AA99" s="36"/>
       <c r="AB99" s="11"/>
@@ -28054,14 +27914,14 @@
       <c r="O100" s="27"/>
       <c r="P100" s="27"/>
       <c r="Q100" s="28"/>
-      <c r="R100" s="64"/>
+      <c r="R100" s="55"/>
       <c r="S100" s="29"/>
       <c r="T100" s="30"/>
-      <c r="U100" s="64"/>
+      <c r="U100" s="55"/>
       <c r="V100" s="30"/>
       <c r="W100" s="30"/>
       <c r="X100" s="30"/>
-      <c r="Y100" s="65"/>
+      <c r="Y100" s="56"/>
       <c r="Z100" s="37"/>
       <c r="AA100" s="38"/>
       <c r="AB100" s="11"/>
@@ -28312,14 +28172,14 @@
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
       <c r="Q101" s="18"/>
-      <c r="R101" s="61"/>
+      <c r="R101" s="53"/>
       <c r="S101" s="18"/>
       <c r="T101" s="18"/>
-      <c r="U101" s="61"/>
+      <c r="U101" s="53"/>
       <c r="V101" s="18"/>
       <c r="W101" s="18"/>
       <c r="X101" s="18"/>
-      <c r="Y101" s="62"/>
+      <c r="Y101" s="54"/>
       <c r="Z101" s="35"/>
       <c r="AA101" s="36"/>
       <c r="AB101" s="11"/>
@@ -28570,14 +28430,14 @@
       <c r="O102" s="27"/>
       <c r="P102" s="27"/>
       <c r="Q102" s="28"/>
-      <c r="R102" s="64"/>
+      <c r="R102" s="55"/>
       <c r="S102" s="29"/>
       <c r="T102" s="30"/>
-      <c r="U102" s="64"/>
+      <c r="U102" s="55"/>
       <c r="V102" s="30"/>
       <c r="W102" s="30"/>
       <c r="X102" s="30"/>
-      <c r="Y102" s="65"/>
+      <c r="Y102" s="56"/>
       <c r="Z102" s="37"/>
       <c r="AA102" s="38"/>
       <c r="AB102" s="11"/>
@@ -28828,14 +28688,14 @@
       <c r="O103" s="22"/>
       <c r="P103" s="22"/>
       <c r="Q103" s="18"/>
-      <c r="R103" s="61"/>
+      <c r="R103" s="53"/>
       <c r="S103" s="18"/>
       <c r="T103" s="18"/>
-      <c r="U103" s="61"/>
+      <c r="U103" s="53"/>
       <c r="V103" s="18"/>
       <c r="W103" s="18"/>
       <c r="X103" s="18"/>
-      <c r="Y103" s="62"/>
+      <c r="Y103" s="54"/>
       <c r="Z103" s="35"/>
       <c r="AA103" s="36"/>
       <c r="AB103" s="11"/>
@@ -29086,14 +28946,14 @@
       <c r="O104" s="27"/>
       <c r="P104" s="27"/>
       <c r="Q104" s="28"/>
-      <c r="R104" s="64"/>
+      <c r="R104" s="55"/>
       <c r="S104" s="29"/>
       <c r="T104" s="30"/>
-      <c r="U104" s="64"/>
+      <c r="U104" s="55"/>
       <c r="V104" s="30"/>
       <c r="W104" s="30"/>
       <c r="X104" s="30"/>
-      <c r="Y104" s="65"/>
+      <c r="Y104" s="56"/>
       <c r="Z104" s="37"/>
       <c r="AA104" s="38"/>
       <c r="AB104" s="11"/>
@@ -29344,14 +29204,14 @@
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
       <c r="Q105" s="18"/>
-      <c r="R105" s="61"/>
+      <c r="R105" s="53"/>
       <c r="S105" s="18"/>
       <c r="T105" s="18"/>
-      <c r="U105" s="61"/>
+      <c r="U105" s="53"/>
       <c r="V105" s="18"/>
       <c r="W105" s="18"/>
       <c r="X105" s="18"/>
-      <c r="Y105" s="62"/>
+      <c r="Y105" s="54"/>
       <c r="Z105" s="35"/>
       <c r="AA105" s="36"/>
       <c r="AB105" s="11"/>
@@ -29602,14 +29462,14 @@
       <c r="O106" s="27"/>
       <c r="P106" s="27"/>
       <c r="Q106" s="28"/>
-      <c r="R106" s="64"/>
+      <c r="R106" s="55"/>
       <c r="S106" s="29"/>
       <c r="T106" s="30"/>
-      <c r="U106" s="64"/>
+      <c r="U106" s="55"/>
       <c r="V106" s="30"/>
       <c r="W106" s="30"/>
       <c r="X106" s="30"/>
-      <c r="Y106" s="65"/>
+      <c r="Y106" s="56"/>
       <c r="Z106" s="37"/>
       <c r="AA106" s="38"/>
       <c r="AB106" s="11"/>
@@ -29860,14 +29720,14 @@
       <c r="O107" s="22"/>
       <c r="P107" s="22"/>
       <c r="Q107" s="18"/>
-      <c r="R107" s="61"/>
+      <c r="R107" s="53"/>
       <c r="S107" s="18"/>
       <c r="T107" s="18"/>
-      <c r="U107" s="61"/>
+      <c r="U107" s="53"/>
       <c r="V107" s="18"/>
       <c r="W107" s="18"/>
       <c r="X107" s="18"/>
-      <c r="Y107" s="62"/>
+      <c r="Y107" s="54"/>
       <c r="Z107" s="35"/>
       <c r="AA107" s="36"/>
       <c r="AB107" s="11"/>
@@ -30118,14 +29978,14 @@
       <c r="O108" s="27"/>
       <c r="P108" s="27"/>
       <c r="Q108" s="28"/>
-      <c r="R108" s="64"/>
+      <c r="R108" s="55"/>
       <c r="S108" s="29"/>
       <c r="T108" s="30"/>
-      <c r="U108" s="64"/>
+      <c r="U108" s="55"/>
       <c r="V108" s="30"/>
       <c r="W108" s="30"/>
       <c r="X108" s="30"/>
-      <c r="Y108" s="65"/>
+      <c r="Y108" s="56"/>
       <c r="Z108" s="37"/>
       <c r="AA108" s="38"/>
       <c r="AB108" s="11"/>
@@ -30376,14 +30236,14 @@
       <c r="O109" s="22"/>
       <c r="P109" s="22"/>
       <c r="Q109" s="18"/>
-      <c r="R109" s="61"/>
+      <c r="R109" s="53"/>
       <c r="S109" s="18"/>
       <c r="T109" s="18"/>
-      <c r="U109" s="61"/>
+      <c r="U109" s="53"/>
       <c r="V109" s="18"/>
       <c r="W109" s="18"/>
       <c r="X109" s="18"/>
-      <c r="Y109" s="62"/>
+      <c r="Y109" s="54"/>
       <c r="Z109" s="35"/>
       <c r="AA109" s="36"/>
       <c r="AB109" s="11"/>
@@ -30634,14 +30494,14 @@
       <c r="O110" s="27"/>
       <c r="P110" s="27"/>
       <c r="Q110" s="28"/>
-      <c r="R110" s="64"/>
+      <c r="R110" s="55"/>
       <c r="S110" s="29"/>
       <c r="T110" s="30"/>
-      <c r="U110" s="64"/>
+      <c r="U110" s="55"/>
       <c r="V110" s="30"/>
       <c r="W110" s="30"/>
       <c r="X110" s="30"/>
-      <c r="Y110" s="65"/>
+      <c r="Y110" s="56"/>
       <c r="Z110" s="37"/>
       <c r="AA110" s="38"/>
       <c r="AB110" s="11"/>
@@ -30892,14 +30752,14 @@
       <c r="O111" s="22"/>
       <c r="P111" s="22"/>
       <c r="Q111" s="18"/>
-      <c r="R111" s="61"/>
+      <c r="R111" s="53"/>
       <c r="S111" s="18"/>
       <c r="T111" s="18"/>
-      <c r="U111" s="61"/>
+      <c r="U111" s="53"/>
       <c r="V111" s="18"/>
       <c r="W111" s="18"/>
       <c r="X111" s="18"/>
-      <c r="Y111" s="62"/>
+      <c r="Y111" s="54"/>
       <c r="Z111" s="35"/>
       <c r="AA111" s="36"/>
       <c r="AB111" s="11"/>
@@ -31150,14 +31010,14 @@
       <c r="O112" s="27"/>
       <c r="P112" s="27"/>
       <c r="Q112" s="28"/>
-      <c r="R112" s="64"/>
+      <c r="R112" s="55"/>
       <c r="S112" s="29"/>
       <c r="T112" s="30"/>
-      <c r="U112" s="64"/>
+      <c r="U112" s="55"/>
       <c r="V112" s="30"/>
       <c r="W112" s="30"/>
       <c r="X112" s="30"/>
-      <c r="Y112" s="65"/>
+      <c r="Y112" s="56"/>
       <c r="Z112" s="37"/>
       <c r="AA112" s="38"/>
       <c r="AB112" s="11"/>
@@ -31408,14 +31268,14 @@
       <c r="O113" s="22"/>
       <c r="P113" s="22"/>
       <c r="Q113" s="18"/>
-      <c r="R113" s="61"/>
+      <c r="R113" s="53"/>
       <c r="S113" s="18"/>
       <c r="T113" s="18"/>
-      <c r="U113" s="61"/>
+      <c r="U113" s="53"/>
       <c r="V113" s="18"/>
       <c r="W113" s="18"/>
       <c r="X113" s="18"/>
-      <c r="Y113" s="62"/>
+      <c r="Y113" s="54"/>
       <c r="Z113" s="35"/>
       <c r="AA113" s="36"/>
       <c r="AB113" s="11"/>
@@ -31666,14 +31526,14 @@
       <c r="O114" s="27"/>
       <c r="P114" s="27"/>
       <c r="Q114" s="28"/>
-      <c r="R114" s="64"/>
+      <c r="R114" s="55"/>
       <c r="S114" s="29"/>
       <c r="T114" s="30"/>
-      <c r="U114" s="64"/>
+      <c r="U114" s="55"/>
       <c r="V114" s="30"/>
       <c r="W114" s="30"/>
       <c r="X114" s="30"/>
-      <c r="Y114" s="65"/>
+      <c r="Y114" s="56"/>
       <c r="Z114" s="37"/>
       <c r="AA114" s="38"/>
       <c r="AB114" s="11"/>
@@ -31924,14 +31784,14 @@
       <c r="O115" s="22"/>
       <c r="P115" s="22"/>
       <c r="Q115" s="18"/>
-      <c r="R115" s="61"/>
+      <c r="R115" s="53"/>
       <c r="S115" s="18"/>
       <c r="T115" s="18"/>
-      <c r="U115" s="61"/>
+      <c r="U115" s="53"/>
       <c r="V115" s="18"/>
       <c r="W115" s="18"/>
       <c r="X115" s="18"/>
-      <c r="Y115" s="62"/>
+      <c r="Y115" s="54"/>
       <c r="Z115" s="35"/>
       <c r="AA115" s="36"/>
       <c r="AB115" s="11"/>
@@ -32182,14 +32042,14 @@
       <c r="O116" s="27"/>
       <c r="P116" s="27"/>
       <c r="Q116" s="28"/>
-      <c r="R116" s="64"/>
+      <c r="R116" s="55"/>
       <c r="S116" s="29"/>
       <c r="T116" s="30"/>
-      <c r="U116" s="64"/>
+      <c r="U116" s="55"/>
       <c r="V116" s="30"/>
       <c r="W116" s="30"/>
       <c r="X116" s="30"/>
-      <c r="Y116" s="65"/>
+      <c r="Y116" s="56"/>
       <c r="Z116" s="37"/>
       <c r="AA116" s="38"/>
       <c r="AB116" s="11"/>
@@ -32440,14 +32300,14 @@
       <c r="O117" s="22"/>
       <c r="P117" s="22"/>
       <c r="Q117" s="18"/>
-      <c r="R117" s="61"/>
+      <c r="R117" s="53"/>
       <c r="S117" s="18"/>
       <c r="T117" s="18"/>
-      <c r="U117" s="61"/>
+      <c r="U117" s="53"/>
       <c r="V117" s="18"/>
       <c r="W117" s="18"/>
       <c r="X117" s="18"/>
-      <c r="Y117" s="62"/>
+      <c r="Y117" s="54"/>
       <c r="Z117" s="35"/>
       <c r="AA117" s="36"/>
       <c r="AB117" s="11"/>
@@ -32698,14 +32558,14 @@
       <c r="O118" s="27"/>
       <c r="P118" s="27"/>
       <c r="Q118" s="28"/>
-      <c r="R118" s="64"/>
+      <c r="R118" s="55"/>
       <c r="S118" s="29"/>
       <c r="T118" s="30"/>
-      <c r="U118" s="64"/>
+      <c r="U118" s="55"/>
       <c r="V118" s="30"/>
       <c r="W118" s="30"/>
       <c r="X118" s="30"/>
-      <c r="Y118" s="65"/>
+      <c r="Y118" s="56"/>
       <c r="Z118" s="37"/>
       <c r="AA118" s="38"/>
       <c r="AB118" s="11"/>
@@ -32956,14 +32816,14 @@
       <c r="O119" s="22"/>
       <c r="P119" s="22"/>
       <c r="Q119" s="18"/>
-      <c r="R119" s="61"/>
+      <c r="R119" s="53"/>
       <c r="S119" s="18"/>
       <c r="T119" s="18"/>
-      <c r="U119" s="61"/>
+      <c r="U119" s="53"/>
       <c r="V119" s="18"/>
       <c r="W119" s="18"/>
       <c r="X119" s="18"/>
-      <c r="Y119" s="62"/>
+      <c r="Y119" s="54"/>
       <c r="Z119" s="35"/>
       <c r="AA119" s="36"/>
       <c r="AB119" s="11"/>
@@ -33214,14 +33074,14 @@
       <c r="O120" s="27"/>
       <c r="P120" s="27"/>
       <c r="Q120" s="28"/>
-      <c r="R120" s="64"/>
+      <c r="R120" s="55"/>
       <c r="S120" s="29"/>
       <c r="T120" s="30"/>
-      <c r="U120" s="64"/>
+      <c r="U120" s="55"/>
       <c r="V120" s="30"/>
       <c r="W120" s="30"/>
       <c r="X120" s="30"/>
-      <c r="Y120" s="65"/>
+      <c r="Y120" s="56"/>
       <c r="Z120" s="37"/>
       <c r="AA120" s="38"/>
       <c r="AB120" s="11"/>
@@ -33472,14 +33332,14 @@
       <c r="O121" s="22"/>
       <c r="P121" s="22"/>
       <c r="Q121" s="18"/>
-      <c r="R121" s="61"/>
+      <c r="R121" s="53"/>
       <c r="S121" s="18"/>
       <c r="T121" s="18"/>
-      <c r="U121" s="61"/>
+      <c r="U121" s="53"/>
       <c r="V121" s="18"/>
       <c r="W121" s="18"/>
       <c r="X121" s="18"/>
-      <c r="Y121" s="62"/>
+      <c r="Y121" s="54"/>
       <c r="Z121" s="35"/>
       <c r="AA121" s="36"/>
       <c r="AB121" s="11"/>
@@ -33730,14 +33590,14 @@
       <c r="O122" s="27"/>
       <c r="P122" s="27"/>
       <c r="Q122" s="28"/>
-      <c r="R122" s="64"/>
+      <c r="R122" s="55"/>
       <c r="S122" s="29"/>
       <c r="T122" s="30"/>
-      <c r="U122" s="64"/>
+      <c r="U122" s="55"/>
       <c r="V122" s="30"/>
       <c r="W122" s="30"/>
       <c r="X122" s="30"/>
-      <c r="Y122" s="65"/>
+      <c r="Y122" s="56"/>
       <c r="Z122" s="37"/>
       <c r="AA122" s="38"/>
       <c r="AB122" s="11"/>
@@ -33988,14 +33848,14 @@
       <c r="O123" s="22"/>
       <c r="P123" s="22"/>
       <c r="Q123" s="18"/>
-      <c r="R123" s="61"/>
+      <c r="R123" s="53"/>
       <c r="S123" s="18"/>
       <c r="T123" s="18"/>
-      <c r="U123" s="61"/>
+      <c r="U123" s="53"/>
       <c r="V123" s="18"/>
       <c r="W123" s="18"/>
       <c r="X123" s="18"/>
-      <c r="Y123" s="62"/>
+      <c r="Y123" s="54"/>
       <c r="Z123" s="35"/>
       <c r="AA123" s="36"/>
       <c r="AB123" s="11"/>
@@ -34246,14 +34106,14 @@
       <c r="O124" s="27"/>
       <c r="P124" s="27"/>
       <c r="Q124" s="28"/>
-      <c r="R124" s="64"/>
+      <c r="R124" s="55"/>
       <c r="S124" s="29"/>
       <c r="T124" s="30"/>
-      <c r="U124" s="64"/>
+      <c r="U124" s="55"/>
       <c r="V124" s="30"/>
       <c r="W124" s="30"/>
       <c r="X124" s="30"/>
-      <c r="Y124" s="65"/>
+      <c r="Y124" s="56"/>
       <c r="Z124" s="37"/>
       <c r="AA124" s="38"/>
       <c r="AB124" s="11"/>
@@ -34504,14 +34364,14 @@
       <c r="O125" s="22"/>
       <c r="P125" s="22"/>
       <c r="Q125" s="18"/>
-      <c r="R125" s="61"/>
+      <c r="R125" s="53"/>
       <c r="S125" s="18"/>
       <c r="T125" s="18"/>
-      <c r="U125" s="61"/>
+      <c r="U125" s="53"/>
       <c r="V125" s="18"/>
       <c r="W125" s="18"/>
       <c r="X125" s="18"/>
-      <c r="Y125" s="62"/>
+      <c r="Y125" s="54"/>
       <c r="Z125" s="35"/>
       <c r="AA125" s="36"/>
       <c r="AB125" s="11"/>
@@ -34762,14 +34622,14 @@
       <c r="O126" s="27"/>
       <c r="P126" s="27"/>
       <c r="Q126" s="28"/>
-      <c r="R126" s="64"/>
+      <c r="R126" s="55"/>
       <c r="S126" s="29"/>
       <c r="T126" s="30"/>
-      <c r="U126" s="64"/>
+      <c r="U126" s="55"/>
       <c r="V126" s="30"/>
       <c r="W126" s="30"/>
       <c r="X126" s="30"/>
-      <c r="Y126" s="65"/>
+      <c r="Y126" s="56"/>
       <c r="Z126" s="37"/>
       <c r="AA126" s="38"/>
       <c r="AB126" s="11"/>
@@ -35020,14 +34880,14 @@
       <c r="O127" s="22"/>
       <c r="P127" s="22"/>
       <c r="Q127" s="18"/>
-      <c r="R127" s="61"/>
+      <c r="R127" s="53"/>
       <c r="S127" s="18"/>
       <c r="T127" s="18"/>
-      <c r="U127" s="61"/>
+      <c r="U127" s="53"/>
       <c r="V127" s="18"/>
       <c r="W127" s="18"/>
       <c r="X127" s="18"/>
-      <c r="Y127" s="62"/>
+      <c r="Y127" s="54"/>
       <c r="Z127" s="35"/>
       <c r="AA127" s="36"/>
       <c r="AB127" s="11"/>
@@ -35278,14 +35138,14 @@
       <c r="O128" s="27"/>
       <c r="P128" s="27"/>
       <c r="Q128" s="28"/>
-      <c r="R128" s="64"/>
+      <c r="R128" s="55"/>
       <c r="S128" s="29"/>
       <c r="T128" s="30"/>
-      <c r="U128" s="64"/>
+      <c r="U128" s="55"/>
       <c r="V128" s="30"/>
       <c r="W128" s="30"/>
       <c r="X128" s="30"/>
-      <c r="Y128" s="65"/>
+      <c r="Y128" s="56"/>
       <c r="Z128" s="37"/>
       <c r="AA128" s="38"/>
       <c r="AB128" s="11"/>
@@ -35536,14 +35396,14 @@
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
       <c r="Q129" s="18"/>
-      <c r="R129" s="61"/>
+      <c r="R129" s="53"/>
       <c r="S129" s="18"/>
       <c r="T129" s="18"/>
-      <c r="U129" s="61"/>
+      <c r="U129" s="53"/>
       <c r="V129" s="18"/>
       <c r="W129" s="18"/>
       <c r="X129" s="18"/>
-      <c r="Y129" s="62"/>
+      <c r="Y129" s="54"/>
       <c r="Z129" s="35"/>
       <c r="AA129" s="36"/>
       <c r="AB129" s="11"/>
@@ -35794,14 +35654,14 @@
       <c r="O130" s="27"/>
       <c r="P130" s="27"/>
       <c r="Q130" s="28"/>
-      <c r="R130" s="64"/>
+      <c r="R130" s="55"/>
       <c r="S130" s="29"/>
       <c r="T130" s="30"/>
-      <c r="U130" s="64"/>
+      <c r="U130" s="55"/>
       <c r="V130" s="30"/>
       <c r="W130" s="30"/>
       <c r="X130" s="30"/>
-      <c r="Y130" s="65"/>
+      <c r="Y130" s="56"/>
       <c r="Z130" s="37"/>
       <c r="AA130" s="38"/>
       <c r="AB130" s="11"/>
@@ -36052,14 +35912,14 @@
       <c r="O131" s="22"/>
       <c r="P131" s="22"/>
       <c r="Q131" s="18"/>
-      <c r="R131" s="61"/>
+      <c r="R131" s="53"/>
       <c r="S131" s="18"/>
       <c r="T131" s="18"/>
-      <c r="U131" s="61"/>
+      <c r="U131" s="53"/>
       <c r="V131" s="18"/>
       <c r="W131" s="18"/>
       <c r="X131" s="18"/>
-      <c r="Y131" s="62"/>
+      <c r="Y131" s="54"/>
       <c r="Z131" s="35"/>
       <c r="AA131" s="36"/>
       <c r="AB131" s="11"/>
@@ -36310,14 +36170,14 @@
       <c r="O132" s="27"/>
       <c r="P132" s="27"/>
       <c r="Q132" s="28"/>
-      <c r="R132" s="64"/>
+      <c r="R132" s="55"/>
       <c r="S132" s="29"/>
       <c r="T132" s="30"/>
-      <c r="U132" s="64"/>
+      <c r="U132" s="55"/>
       <c r="V132" s="30"/>
       <c r="W132" s="30"/>
       <c r="X132" s="30"/>
-      <c r="Y132" s="65"/>
+      <c r="Y132" s="56"/>
       <c r="Z132" s="37"/>
       <c r="AA132" s="38"/>
       <c r="AB132" s="11"/>
@@ -36568,14 +36428,14 @@
       <c r="O133" s="22"/>
       <c r="P133" s="22"/>
       <c r="Q133" s="18"/>
-      <c r="R133" s="61"/>
+      <c r="R133" s="53"/>
       <c r="S133" s="18"/>
       <c r="T133" s="18"/>
-      <c r="U133" s="61"/>
+      <c r="U133" s="53"/>
       <c r="V133" s="18"/>
       <c r="W133" s="18"/>
       <c r="X133" s="18"/>
-      <c r="Y133" s="62"/>
+      <c r="Y133" s="54"/>
       <c r="Z133" s="35"/>
       <c r="AA133" s="36"/>
       <c r="AB133" s="11"/>
@@ -36826,14 +36686,14 @@
       <c r="O134" s="27"/>
       <c r="P134" s="27"/>
       <c r="Q134" s="28"/>
-      <c r="R134" s="64"/>
+      <c r="R134" s="55"/>
       <c r="S134" s="29"/>
       <c r="T134" s="30"/>
-      <c r="U134" s="64"/>
+      <c r="U134" s="55"/>
       <c r="V134" s="30"/>
       <c r="W134" s="30"/>
       <c r="X134" s="30"/>
-      <c r="Y134" s="65"/>
+      <c r="Y134" s="56"/>
       <c r="Z134" s="37"/>
       <c r="AA134" s="38"/>
       <c r="AB134" s="11"/>
@@ -37084,14 +36944,14 @@
       <c r="O135" s="22"/>
       <c r="P135" s="22"/>
       <c r="Q135" s="18"/>
-      <c r="R135" s="61"/>
+      <c r="R135" s="53"/>
       <c r="S135" s="18"/>
       <c r="T135" s="18"/>
-      <c r="U135" s="61"/>
+      <c r="U135" s="53"/>
       <c r="V135" s="18"/>
       <c r="W135" s="18"/>
       <c r="X135" s="18"/>
-      <c r="Y135" s="62"/>
+      <c r="Y135" s="54"/>
       <c r="Z135" s="35"/>
       <c r="AA135" s="36"/>
       <c r="AB135" s="11"/>
@@ -37342,14 +37202,14 @@
       <c r="O136" s="27"/>
       <c r="P136" s="27"/>
       <c r="Q136" s="28"/>
-      <c r="R136" s="64"/>
+      <c r="R136" s="55"/>
       <c r="S136" s="29"/>
       <c r="T136" s="30"/>
-      <c r="U136" s="64"/>
+      <c r="U136" s="55"/>
       <c r="V136" s="30"/>
       <c r="W136" s="30"/>
       <c r="X136" s="30"/>
-      <c r="Y136" s="65"/>
+      <c r="Y136" s="56"/>
       <c r="Z136" s="37"/>
       <c r="AA136" s="38"/>
       <c r="AB136" s="11"/>
@@ -37600,14 +37460,14 @@
       <c r="O137" s="22"/>
       <c r="P137" s="22"/>
       <c r="Q137" s="18"/>
-      <c r="R137" s="61"/>
+      <c r="R137" s="53"/>
       <c r="S137" s="18"/>
       <c r="T137" s="18"/>
-      <c r="U137" s="61"/>
+      <c r="U137" s="53"/>
       <c r="V137" s="18"/>
       <c r="W137" s="18"/>
       <c r="X137" s="18"/>
-      <c r="Y137" s="62"/>
+      <c r="Y137" s="54"/>
       <c r="Z137" s="35"/>
       <c r="AA137" s="36"/>
       <c r="AB137" s="11"/>
@@ -37858,14 +37718,14 @@
       <c r="O138" s="27"/>
       <c r="P138" s="27"/>
       <c r="Q138" s="28"/>
-      <c r="R138" s="64"/>
+      <c r="R138" s="55"/>
       <c r="S138" s="29"/>
       <c r="T138" s="30"/>
-      <c r="U138" s="64"/>
+      <c r="U138" s="55"/>
       <c r="V138" s="30"/>
       <c r="W138" s="30"/>
       <c r="X138" s="30"/>
-      <c r="Y138" s="65"/>
+      <c r="Y138" s="56"/>
       <c r="Z138" s="37"/>
       <c r="AA138" s="38"/>
       <c r="AB138" s="11"/>
@@ -38116,14 +37976,14 @@
       <c r="O139" s="22"/>
       <c r="P139" s="22"/>
       <c r="Q139" s="18"/>
-      <c r="R139" s="61"/>
+      <c r="R139" s="53"/>
       <c r="S139" s="18"/>
       <c r="T139" s="18"/>
-      <c r="U139" s="61"/>
+      <c r="U139" s="53"/>
       <c r="V139" s="18"/>
       <c r="W139" s="18"/>
       <c r="X139" s="18"/>
-      <c r="Y139" s="62"/>
+      <c r="Y139" s="54"/>
       <c r="Z139" s="35"/>
       <c r="AA139" s="36"/>
       <c r="AB139" s="11"/>
@@ -38374,14 +38234,14 @@
       <c r="O140" s="27"/>
       <c r="P140" s="27"/>
       <c r="Q140" s="28"/>
-      <c r="R140" s="64"/>
+      <c r="R140" s="55"/>
       <c r="S140" s="29"/>
       <c r="T140" s="30"/>
-      <c r="U140" s="64"/>
+      <c r="U140" s="55"/>
       <c r="V140" s="30"/>
       <c r="W140" s="30"/>
       <c r="X140" s="30"/>
-      <c r="Y140" s="65"/>
+      <c r="Y140" s="56"/>
       <c r="Z140" s="37"/>
       <c r="AA140" s="38"/>
       <c r="AB140" s="11"/>
@@ -38632,14 +38492,14 @@
       <c r="O141" s="22"/>
       <c r="P141" s="22"/>
       <c r="Q141" s="18"/>
-      <c r="R141" s="61"/>
+      <c r="R141" s="53"/>
       <c r="S141" s="18"/>
       <c r="T141" s="18"/>
-      <c r="U141" s="61"/>
+      <c r="U141" s="53"/>
       <c r="V141" s="18"/>
       <c r="W141" s="18"/>
       <c r="X141" s="18"/>
-      <c r="Y141" s="62"/>
+      <c r="Y141" s="54"/>
       <c r="Z141" s="35"/>
       <c r="AA141" s="36"/>
       <c r="AB141" s="11"/>
@@ -38890,14 +38750,14 @@
       <c r="O142" s="27"/>
       <c r="P142" s="27"/>
       <c r="Q142" s="28"/>
-      <c r="R142" s="64"/>
+      <c r="R142" s="55"/>
       <c r="S142" s="29"/>
       <c r="T142" s="30"/>
-      <c r="U142" s="64"/>
+      <c r="U142" s="55"/>
       <c r="V142" s="30"/>
       <c r="W142" s="30"/>
       <c r="X142" s="30"/>
-      <c r="Y142" s="65"/>
+      <c r="Y142" s="56"/>
       <c r="Z142" s="37"/>
       <c r="AA142" s="38"/>
       <c r="AB142" s="11"/>
@@ -39148,14 +39008,14 @@
       <c r="O143" s="22"/>
       <c r="P143" s="22"/>
       <c r="Q143" s="18"/>
-      <c r="R143" s="61"/>
+      <c r="R143" s="53"/>
       <c r="S143" s="18"/>
       <c r="T143" s="18"/>
-      <c r="U143" s="61"/>
+      <c r="U143" s="53"/>
       <c r="V143" s="18"/>
       <c r="W143" s="18"/>
       <c r="X143" s="18"/>
-      <c r="Y143" s="62"/>
+      <c r="Y143" s="54"/>
       <c r="Z143" s="35"/>
       <c r="AA143" s="36"/>
       <c r="AB143" s="11"/>
@@ -39406,14 +39266,14 @@
       <c r="O144" s="27"/>
       <c r="P144" s="27"/>
       <c r="Q144" s="28"/>
-      <c r="R144" s="64"/>
+      <c r="R144" s="55"/>
       <c r="S144" s="29"/>
       <c r="T144" s="30"/>
-      <c r="U144" s="64"/>
+      <c r="U144" s="55"/>
       <c r="V144" s="30"/>
       <c r="W144" s="30"/>
       <c r="X144" s="30"/>
-      <c r="Y144" s="65"/>
+      <c r="Y144" s="56"/>
       <c r="Z144" s="37"/>
       <c r="AA144" s="38"/>
       <c r="AB144" s="11"/>
@@ -39664,14 +39524,14 @@
       <c r="O145" s="22"/>
       <c r="P145" s="22"/>
       <c r="Q145" s="18"/>
-      <c r="R145" s="61"/>
+      <c r="R145" s="53"/>
       <c r="S145" s="18"/>
       <c r="T145" s="18"/>
-      <c r="U145" s="61"/>
+      <c r="U145" s="53"/>
       <c r="V145" s="18"/>
       <c r="W145" s="18"/>
       <c r="X145" s="18"/>
-      <c r="Y145" s="62"/>
+      <c r="Y145" s="54"/>
       <c r="Z145" s="35"/>
       <c r="AA145" s="36"/>
       <c r="AB145" s="11"/>
@@ -39922,14 +39782,14 @@
       <c r="O146" s="27"/>
       <c r="P146" s="27"/>
       <c r="Q146" s="28"/>
-      <c r="R146" s="64"/>
+      <c r="R146" s="55"/>
       <c r="S146" s="29"/>
       <c r="T146" s="30"/>
-      <c r="U146" s="64"/>
+      <c r="U146" s="55"/>
       <c r="V146" s="30"/>
       <c r="W146" s="30"/>
       <c r="X146" s="30"/>
-      <c r="Y146" s="65"/>
+      <c r="Y146" s="56"/>
       <c r="Z146" s="37"/>
       <c r="AA146" s="38"/>
       <c r="AB146" s="11"/>
@@ -40180,14 +40040,14 @@
       <c r="O147" s="22"/>
       <c r="P147" s="22"/>
       <c r="Q147" s="18"/>
-      <c r="R147" s="61"/>
+      <c r="R147" s="53"/>
       <c r="S147" s="18"/>
       <c r="T147" s="18"/>
-      <c r="U147" s="61"/>
+      <c r="U147" s="53"/>
       <c r="V147" s="18"/>
       <c r="W147" s="18"/>
       <c r="X147" s="18"/>
-      <c r="Y147" s="62"/>
+      <c r="Y147" s="54"/>
       <c r="Z147" s="35"/>
       <c r="AA147" s="36"/>
       <c r="AB147" s="11"/>
@@ -40438,14 +40298,14 @@
       <c r="O148" s="27"/>
       <c r="P148" s="27"/>
       <c r="Q148" s="28"/>
-      <c r="R148" s="64"/>
+      <c r="R148" s="55"/>
       <c r="S148" s="29"/>
       <c r="T148" s="30"/>
-      <c r="U148" s="64"/>
+      <c r="U148" s="55"/>
       <c r="V148" s="30"/>
       <c r="W148" s="30"/>
       <c r="X148" s="30"/>
-      <c r="Y148" s="65"/>
+      <c r="Y148" s="56"/>
       <c r="Z148" s="37"/>
       <c r="AA148" s="38"/>
       <c r="AB148" s="11"/>
@@ -40696,14 +40556,14 @@
       <c r="O149" s="22"/>
       <c r="P149" s="22"/>
       <c r="Q149" s="18"/>
-      <c r="R149" s="61"/>
+      <c r="R149" s="53"/>
       <c r="S149" s="18"/>
       <c r="T149" s="18"/>
-      <c r="U149" s="61"/>
+      <c r="U149" s="53"/>
       <c r="V149" s="18"/>
       <c r="W149" s="18"/>
       <c r="X149" s="18"/>
-      <c r="Y149" s="62"/>
+      <c r="Y149" s="54"/>
       <c r="Z149" s="35"/>
       <c r="AA149" s="36"/>
       <c r="AB149" s="11"/>
@@ -40954,14 +40814,14 @@
       <c r="O150" s="27"/>
       <c r="P150" s="27"/>
       <c r="Q150" s="28"/>
-      <c r="R150" s="64"/>
+      <c r="R150" s="55"/>
       <c r="S150" s="29"/>
       <c r="T150" s="30"/>
-      <c r="U150" s="64"/>
+      <c r="U150" s="55"/>
       <c r="V150" s="30"/>
       <c r="W150" s="30"/>
       <c r="X150" s="30"/>
-      <c r="Y150" s="65"/>
+      <c r="Y150" s="56"/>
       <c r="Z150" s="37"/>
       <c r="AA150" s="38"/>
       <c r="AB150" s="11"/>
@@ -41212,14 +41072,14 @@
       <c r="O151" s="22"/>
       <c r="P151" s="22"/>
       <c r="Q151" s="18"/>
-      <c r="R151" s="61"/>
+      <c r="R151" s="53"/>
       <c r="S151" s="18"/>
       <c r="T151" s="18"/>
-      <c r="U151" s="61"/>
+      <c r="U151" s="53"/>
       <c r="V151" s="18"/>
       <c r="W151" s="18"/>
       <c r="X151" s="18"/>
-      <c r="Y151" s="62"/>
+      <c r="Y151" s="54"/>
       <c r="Z151" s="35"/>
       <c r="AA151" s="36"/>
       <c r="AB151" s="11"/>
@@ -41470,14 +41330,14 @@
       <c r="O152" s="27"/>
       <c r="P152" s="27"/>
       <c r="Q152" s="28"/>
-      <c r="R152" s="64"/>
+      <c r="R152" s="55"/>
       <c r="S152" s="29"/>
       <c r="T152" s="30"/>
-      <c r="U152" s="64"/>
+      <c r="U152" s="55"/>
       <c r="V152" s="30"/>
       <c r="W152" s="30"/>
       <c r="X152" s="30"/>
-      <c r="Y152" s="65"/>
+      <c r="Y152" s="56"/>
       <c r="Z152" s="37"/>
       <c r="AA152" s="38"/>
       <c r="AB152" s="11"/>
@@ -41728,14 +41588,14 @@
       <c r="O153" s="22"/>
       <c r="P153" s="22"/>
       <c r="Q153" s="18"/>
-      <c r="R153" s="61"/>
+      <c r="R153" s="53"/>
       <c r="S153" s="18"/>
       <c r="T153" s="18"/>
-      <c r="U153" s="61"/>
+      <c r="U153" s="53"/>
       <c r="V153" s="18"/>
       <c r="W153" s="18"/>
       <c r="X153" s="18"/>
-      <c r="Y153" s="62"/>
+      <c r="Y153" s="54"/>
       <c r="Z153" s="35"/>
       <c r="AA153" s="36"/>
       <c r="AB153" s="11"/>
@@ -41986,14 +41846,14 @@
       <c r="O154" s="27"/>
       <c r="P154" s="27"/>
       <c r="Q154" s="28"/>
-      <c r="R154" s="64"/>
+      <c r="R154" s="55"/>
       <c r="S154" s="29"/>
       <c r="T154" s="30"/>
-      <c r="U154" s="64"/>
+      <c r="U154" s="55"/>
       <c r="V154" s="30"/>
       <c r="W154" s="30"/>
       <c r="X154" s="30"/>
-      <c r="Y154" s="65"/>
+      <c r="Y154" s="56"/>
       <c r="Z154" s="37"/>
       <c r="AA154" s="38"/>
       <c r="AB154" s="11"/>
@@ -42244,14 +42104,14 @@
       <c r="O155" s="22"/>
       <c r="P155" s="22"/>
       <c r="Q155" s="18"/>
-      <c r="R155" s="61"/>
+      <c r="R155" s="53"/>
       <c r="S155" s="18"/>
       <c r="T155" s="18"/>
-      <c r="U155" s="61"/>
+      <c r="U155" s="53"/>
       <c r="V155" s="18"/>
       <c r="W155" s="18"/>
       <c r="X155" s="18"/>
-      <c r="Y155" s="62"/>
+      <c r="Y155" s="54"/>
       <c r="Z155" s="35"/>
       <c r="AA155" s="36"/>
       <c r="AB155" s="11"/>
@@ -42502,14 +42362,14 @@
       <c r="O156" s="27"/>
       <c r="P156" s="27"/>
       <c r="Q156" s="28"/>
-      <c r="R156" s="64"/>
+      <c r="R156" s="55"/>
       <c r="S156" s="29"/>
       <c r="T156" s="30"/>
-      <c r="U156" s="64"/>
+      <c r="U156" s="55"/>
       <c r="V156" s="30"/>
       <c r="W156" s="30"/>
       <c r="X156" s="30"/>
-      <c r="Y156" s="65"/>
+      <c r="Y156" s="56"/>
       <c r="Z156" s="37"/>
       <c r="AA156" s="38"/>
       <c r="AB156" s="11"/>
@@ -42760,14 +42620,14 @@
       <c r="O157" s="22"/>
       <c r="P157" s="22"/>
       <c r="Q157" s="18"/>
-      <c r="R157" s="61"/>
+      <c r="R157" s="53"/>
       <c r="S157" s="18"/>
       <c r="T157" s="18"/>
-      <c r="U157" s="61"/>
+      <c r="U157" s="53"/>
       <c r="V157" s="18"/>
       <c r="W157" s="18"/>
       <c r="X157" s="18"/>
-      <c r="Y157" s="62"/>
+      <c r="Y157" s="54"/>
       <c r="Z157" s="35"/>
       <c r="AA157" s="36"/>
       <c r="AB157" s="11"/>
@@ -43018,14 +42878,14 @@
       <c r="O158" s="27"/>
       <c r="P158" s="27"/>
       <c r="Q158" s="28"/>
-      <c r="R158" s="64"/>
+      <c r="R158" s="55"/>
       <c r="S158" s="29"/>
       <c r="T158" s="30"/>
-      <c r="U158" s="64"/>
+      <c r="U158" s="55"/>
       <c r="V158" s="30"/>
       <c r="W158" s="30"/>
       <c r="X158" s="30"/>
-      <c r="Y158" s="65"/>
+      <c r="Y158" s="56"/>
       <c r="Z158" s="37"/>
       <c r="AA158" s="38"/>
       <c r="AB158" s="11"/>
@@ -43276,14 +43136,14 @@
       <c r="O159" s="22"/>
       <c r="P159" s="22"/>
       <c r="Q159" s="18"/>
-      <c r="R159" s="61"/>
+      <c r="R159" s="53"/>
       <c r="S159" s="18"/>
       <c r="T159" s="18"/>
-      <c r="U159" s="61"/>
+      <c r="U159" s="53"/>
       <c r="V159" s="18"/>
       <c r="W159" s="18"/>
       <c r="X159" s="18"/>
-      <c r="Y159" s="62"/>
+      <c r="Y159" s="54"/>
       <c r="Z159" s="35"/>
       <c r="AA159" s="36"/>
       <c r="AB159" s="11"/>
@@ -43534,14 +43394,14 @@
       <c r="O160" s="27"/>
       <c r="P160" s="27"/>
       <c r="Q160" s="28"/>
-      <c r="R160" s="64"/>
+      <c r="R160" s="55"/>
       <c r="S160" s="29"/>
       <c r="T160" s="30"/>
-      <c r="U160" s="64"/>
+      <c r="U160" s="55"/>
       <c r="V160" s="30"/>
       <c r="W160" s="30"/>
       <c r="X160" s="30"/>
-      <c r="Y160" s="65"/>
+      <c r="Y160" s="56"/>
       <c r="Z160" s="37"/>
       <c r="AA160" s="38"/>
       <c r="AB160" s="11"/>
@@ -43792,14 +43652,14 @@
       <c r="O161" s="22"/>
       <c r="P161" s="22"/>
       <c r="Q161" s="18"/>
-      <c r="R161" s="61"/>
+      <c r="R161" s="53"/>
       <c r="S161" s="18"/>
       <c r="T161" s="18"/>
-      <c r="U161" s="61"/>
+      <c r="U161" s="53"/>
       <c r="V161" s="18"/>
       <c r="W161" s="18"/>
       <c r="X161" s="18"/>
-      <c r="Y161" s="62"/>
+      <c r="Y161" s="54"/>
       <c r="Z161" s="35"/>
       <c r="AA161" s="36"/>
       <c r="AB161" s="11"/>
@@ -44050,14 +43910,14 @@
       <c r="O162" s="27"/>
       <c r="P162" s="27"/>
       <c r="Q162" s="28"/>
-      <c r="R162" s="64"/>
+      <c r="R162" s="55"/>
       <c r="S162" s="29"/>
       <c r="T162" s="30"/>
-      <c r="U162" s="64"/>
+      <c r="U162" s="55"/>
       <c r="V162" s="30"/>
       <c r="W162" s="30"/>
       <c r="X162" s="30"/>
-      <c r="Y162" s="65"/>
+      <c r="Y162" s="56"/>
       <c r="Z162" s="37"/>
       <c r="AA162" s="38"/>
       <c r="AB162" s="11"/>
@@ -44308,14 +44168,14 @@
       <c r="O163" s="22"/>
       <c r="P163" s="22"/>
       <c r="Q163" s="18"/>
-      <c r="R163" s="61"/>
+      <c r="R163" s="53"/>
       <c r="S163" s="18"/>
       <c r="T163" s="18"/>
-      <c r="U163" s="61"/>
+      <c r="U163" s="53"/>
       <c r="V163" s="18"/>
       <c r="W163" s="18"/>
       <c r="X163" s="18"/>
-      <c r="Y163" s="62"/>
+      <c r="Y163" s="54"/>
       <c r="Z163" s="35"/>
       <c r="AA163" s="36"/>
       <c r="AB163" s="11"/>
@@ -44566,14 +44426,14 @@
       <c r="O164" s="27"/>
       <c r="P164" s="27"/>
       <c r="Q164" s="28"/>
-      <c r="R164" s="64"/>
+      <c r="R164" s="55"/>
       <c r="S164" s="29"/>
       <c r="T164" s="30"/>
-      <c r="U164" s="64"/>
+      <c r="U164" s="55"/>
       <c r="V164" s="30"/>
       <c r="W164" s="30"/>
       <c r="X164" s="30"/>
-      <c r="Y164" s="65"/>
+      <c r="Y164" s="56"/>
       <c r="Z164" s="37"/>
       <c r="AA164" s="38"/>
       <c r="AB164" s="11"/>
@@ -44824,14 +44684,14 @@
       <c r="O165" s="22"/>
       <c r="P165" s="22"/>
       <c r="Q165" s="18"/>
-      <c r="R165" s="61"/>
+      <c r="R165" s="53"/>
       <c r="S165" s="18"/>
       <c r="T165" s="18"/>
-      <c r="U165" s="61"/>
+      <c r="U165" s="53"/>
       <c r="V165" s="18"/>
       <c r="W165" s="18"/>
       <c r="X165" s="18"/>
-      <c r="Y165" s="62"/>
+      <c r="Y165" s="54"/>
       <c r="Z165" s="35"/>
       <c r="AA165" s="36"/>
       <c r="AB165" s="11"/>
@@ -45082,14 +44942,14 @@
       <c r="O166" s="27"/>
       <c r="P166" s="27"/>
       <c r="Q166" s="28"/>
-      <c r="R166" s="64"/>
+      <c r="R166" s="55"/>
       <c r="S166" s="29"/>
       <c r="T166" s="30"/>
-      <c r="U166" s="64"/>
+      <c r="U166" s="55"/>
       <c r="V166" s="30"/>
       <c r="W166" s="30"/>
       <c r="X166" s="30"/>
-      <c r="Y166" s="65"/>
+      <c r="Y166" s="56"/>
       <c r="Z166" s="37"/>
       <c r="AA166" s="38"/>
       <c r="AB166" s="11"/>
@@ -45340,14 +45200,14 @@
       <c r="O167" s="22"/>
       <c r="P167" s="22"/>
       <c r="Q167" s="18"/>
-      <c r="R167" s="61"/>
+      <c r="R167" s="53"/>
       <c r="S167" s="18"/>
       <c r="T167" s="18"/>
-      <c r="U167" s="61"/>
+      <c r="U167" s="53"/>
       <c r="V167" s="18"/>
       <c r="W167" s="18"/>
       <c r="X167" s="18"/>
-      <c r="Y167" s="62"/>
+      <c r="Y167" s="54"/>
       <c r="Z167" s="35"/>
       <c r="AA167" s="36"/>
       <c r="AB167" s="11"/>
@@ -45598,14 +45458,14 @@
       <c r="O168" s="27"/>
       <c r="P168" s="27"/>
       <c r="Q168" s="28"/>
-      <c r="R168" s="64"/>
+      <c r="R168" s="55"/>
       <c r="S168" s="29"/>
       <c r="T168" s="30"/>
-      <c r="U168" s="64"/>
+      <c r="U168" s="55"/>
       <c r="V168" s="30"/>
       <c r="W168" s="30"/>
       <c r="X168" s="30"/>
-      <c r="Y168" s="65"/>
+      <c r="Y168" s="56"/>
       <c r="Z168" s="37"/>
       <c r="AA168" s="38"/>
       <c r="AB168" s="11"/>
@@ -59703,7 +59563,7 @@
       <c r="IV840" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:IV56">
+  <autoFilter ref="A6:IV59">
     <sortState ref="A7:IU54">
       <sortCondition ref="B6:B54"/>
     </sortState>
@@ -59718,82 +59578,82 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="B134:C134 B136:C136 B138:C138 B140:C140 B108:C108 B110:C110 B112:C112 B114:C114 B152:C152 B154:C154 B156:C156 B158:C158 B160:C160 B168:C168 B170:C170 B172:C172 B178:C178 B176:C176 B174:C174 B162:C162 B164:C164 B166:C166 B150:C150 B116:C116 B118:C118 B142:C142 B148:C148 B144:C144 B146:C146 B120:C120 B122:C122 B124:C124 B126:C126 B128:C128 B130:C130 B132:C132 B104:C104 B106:C106 B68:C68 B70:C70 B72:C72 B74:C74 B76:C76 B78:C78 B80:C80 B82:C82 B84:C84 B86:C86 B88:C88 B90:C90 B92:C92 B94:C94 B96:C96 B98:C98 B100:C100 B102:C102 A11:A12 A14 A19:A20 A22 A26 A28 B60:C60 B62:C62 B64:C64 B66:C66 A8:A9 A24 A16">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8 C9:C10">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21 C23 C25 C27 C19">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C35">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43 C45 C47 C49 C41 C39 C51:C57">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39 B41">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>"$A126:$W126"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59802,879 +59662,4 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="58.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55">
-        <v>1</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
-        <v>2</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
-        <v>3</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="68"/>
-    </row>
-    <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57">
-        <v>4</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-    </row>
-    <row r="5" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
-        <v>5</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="68"/>
-    </row>
-    <row r="6" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57">
-        <v>6</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="27"/>
-    </row>
-    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
-        <v>7</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="22"/>
-      <c r="P7" s="68"/>
-    </row>
-    <row r="8" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
-        <v>8</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55">
-        <v>9</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="68"/>
-    </row>
-    <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
-        <v>10</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-    </row>
-    <row r="11" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55">
-        <v>11</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="68"/>
-    </row>
-    <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
-        <v>12</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
-        <v>13</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="68"/>
-    </row>
-    <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
-        <v>14</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-    </row>
-    <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
-        <v>15</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="22"/>
-      <c r="P15" s="68"/>
-    </row>
-    <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57">
-        <v>16</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55">
-        <v>17</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" s="68"/>
-    </row>
-    <row r="18" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57">
-        <v>18</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
-        <v>19</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="18"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A4 A6 A8:A10 A14:A16 A12 A18">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>"$A126:$W126"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Docs/LIN Traceability Matrix Template.xlsx
+++ b/Docs/LIN Traceability Matrix Template.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="141">
   <si>
     <t>Program</t>
   </si>
@@ -274,9 +274,6 @@
     <t>Msg Data Length (bytes)</t>
   </si>
   <si>
-    <t>There sall be a total of 13 messages:</t>
-  </si>
-  <si>
     <t>ID: 0x11 / Name: MASTER_CMD_SLV2</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
   </si>
   <si>
     <t>Variables type definitions to be used</t>
-  </si>
-  <si>
-    <t>There will be 7 signal types definitions:</t>
   </si>
   <si>
     <t>Elements</t>
@@ -478,9 +472,6 @@
     <t>slave2_LEDstat</t>
   </si>
   <si>
-    <t>Two MPC5606B's On-board LEDs will be used to display LED status and node status, respectively.</t>
-  </si>
-  <si>
     <t>This slave node will be compliant to LIN 2.2 A version.</t>
   </si>
   <si>
@@ -537,12 +528,64 @@
   <si>
     <t>DSD_template_protocol_lin.doc/10.0 Lin Network</t>
   </si>
+  <si>
+    <t>There sall be a total of 4 messages:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functional</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Two MPC5606B's On-board LEDs will be used to display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LED statu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>node statu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s, respectively.</t>
+    </r>
+  </si>
+  <si>
+    <t>There will be 7 signal types definitions recognized by slave 2:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -675,6 +718,13 @@
       <b/>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1309,6 +1359,12 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,12 +1388,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1859,8 +1909,8 @@
   </sheetPr>
   <dimension ref="A1:IV840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1915,12 +1965,12 @@
       <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:256" s="7" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
       <c r="E2" s="52" t="s">
         <v>38</v>
       </c>
@@ -1948,12 +1998,12 @@
       <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:256" s="7" customFormat="1" ht="87.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="46" t="s">
         <v>34</v>
       </c>
@@ -1981,12 +2031,12 @@
       <c r="AB3" s="6"/>
     </row>
     <row r="4" spans="1:256" s="7" customFormat="1" ht="63" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="50" t="s">
         <v>39</v>
       </c>
@@ -2005,21 +2055,21 @@
       </c>
       <c r="Q4" s="44"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="95"/>
+      <c r="T4" s="97"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="99"/>
-      <c r="X4" s="100"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="102"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="93" t="s">
+      <c r="Z4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="94"/>
+      <c r="AA4" s="96"/>
       <c r="AB4" s="6"/>
     </row>
     <row r="5" spans="1:256" s="7" customFormat="1" ht="114.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2685,7 +2735,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="55"/>
       <c r="S8" s="90" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="T8" s="30"/>
       <c r="U8" s="55"/>
@@ -2956,7 +3006,7 @@
       <c r="Q9" s="18"/>
       <c r="R9" s="53"/>
       <c r="S9" s="92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T9" s="51"/>
       <c r="U9" s="53"/>
@@ -3225,7 +3275,7 @@
       <c r="Q10" s="28"/>
       <c r="R10" s="55"/>
       <c r="S10" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T10" s="30"/>
       <c r="U10" s="55"/>
@@ -3478,7 +3528,7 @@
         <v>49</v>
       </c>
       <c r="E11" s="74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -3498,7 +3548,7 @@
       </c>
       <c r="R11" s="53"/>
       <c r="S11" s="92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T11" s="51"/>
       <c r="U11" s="53"/>
@@ -3751,7 +3801,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="F12" s="58"/>
       <c r="G12" s="58"/>
@@ -3767,7 +3817,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="55"/>
       <c r="S12" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T12" s="30"/>
       <c r="U12" s="55"/>
@@ -4020,7 +4070,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>25</v>
@@ -4053,14 +4103,14 @@
         <v>25</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="22">
         <v>1</v>
       </c>
       <c r="R13" s="53"/>
       <c r="S13" s="92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T13" s="51"/>
       <c r="U13" s="53"/>
@@ -4313,7 +4363,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="58" t="s">
         <v>25</v>
@@ -4346,14 +4396,14 @@
         <v>25</v>
       </c>
       <c r="P14" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="58">
         <v>1</v>
       </c>
       <c r="R14" s="55"/>
       <c r="S14" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T14" s="30"/>
       <c r="U14" s="55"/>
@@ -4606,7 +4656,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>25</v>
@@ -4639,14 +4689,14 @@
         <v>25</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="22">
         <v>2</v>
       </c>
       <c r="R15" s="53"/>
       <c r="S15" s="91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T15" s="51"/>
       <c r="U15" s="53"/>
@@ -4899,7 +4949,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="58" t="s">
         <v>25</v>
@@ -4932,14 +4982,14 @@
         <v>25</v>
       </c>
       <c r="P16" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="58">
         <v>7</v>
       </c>
       <c r="R16" s="55"/>
       <c r="S16" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T16" s="30"/>
       <c r="U16" s="55"/>
@@ -5189,10 +5239,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="68" t="s">
         <v>60</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>61</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>25</v>
@@ -5228,7 +5278,7 @@
       <c r="Q17" s="70"/>
       <c r="R17" s="53"/>
       <c r="S17" s="92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T17" s="51"/>
       <c r="U17" s="53"/>
@@ -5478,10 +5528,10 @@
         <v>44</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="F18" s="58" t="s">
         <v>25</v>
@@ -5514,12 +5564,12 @@
         <v>25</v>
       </c>
       <c r="P18" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q18" s="73"/>
       <c r="R18" s="55"/>
       <c r="S18" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T18" s="30"/>
       <c r="U18" s="55"/>
@@ -5769,10 +5819,10 @@
         <v>28</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19" s="69" t="s">
         <v>25</v>
@@ -5805,12 +5855,12 @@
         <v>25</v>
       </c>
       <c r="P19" s="69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="70"/>
       <c r="R19" s="53"/>
       <c r="S19" s="91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T19" s="51"/>
       <c r="U19" s="53"/>
@@ -6060,10 +6110,10 @@
         <v>28</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>25</v>
@@ -6096,12 +6146,12 @@
         <v>25</v>
       </c>
       <c r="P20" s="58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="73"/>
       <c r="R20" s="55"/>
       <c r="S20" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T20" s="30"/>
       <c r="U20" s="55"/>
@@ -6351,10 +6401,10 @@
         <v>28</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>25</v>
@@ -6387,12 +6437,12 @@
         <v>25</v>
       </c>
       <c r="P21" s="69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="70"/>
       <c r="R21" s="53"/>
       <c r="S21" s="91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T21" s="51"/>
       <c r="U21" s="53"/>
@@ -6639,13 +6689,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="58" t="s">
         <v>25</v>
@@ -6678,14 +6728,14 @@
         <v>25</v>
       </c>
       <c r="P22" s="58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R22" s="55"/>
       <c r="S22" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T22" s="30"/>
       <c r="U22" s="55"/>
@@ -6935,10 +6985,10 @@
         <v>28</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="69" t="s">
         <v>25</v>
@@ -6971,12 +7021,12 @@
         <v>25</v>
       </c>
       <c r="P23" s="69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="70"/>
       <c r="R23" s="53"/>
       <c r="S23" s="92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T23" s="51"/>
       <c r="U23" s="53"/>
@@ -7226,10 +7276,10 @@
         <v>28</v>
       </c>
       <c r="D24" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F24" s="58" t="s">
         <v>25</v>
@@ -7262,12 +7312,12 @@
         <v>25</v>
       </c>
       <c r="P24" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="73"/>
       <c r="R24" s="55"/>
       <c r="S24" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T24" s="30"/>
       <c r="U24" s="55"/>
@@ -7517,10 +7567,10 @@
         <v>28</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F25" s="69" t="s">
         <v>25</v>
@@ -7553,12 +7603,12 @@
         <v>25</v>
       </c>
       <c r="P25" s="69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q25" s="70"/>
       <c r="R25" s="53"/>
       <c r="S25" s="91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T25" s="51"/>
       <c r="U25" s="53"/>
@@ -7808,10 +7858,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="58"/>
@@ -7824,14 +7874,14 @@
       <c r="N26" s="58"/>
       <c r="O26" s="58"/>
       <c r="P26" s="58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R26" s="55"/>
       <c r="S26" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T26" s="30"/>
       <c r="U26" s="55"/>
@@ -8081,10 +8131,10 @@
         <v>44</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="69"/>
       <c r="G27" s="69"/>
@@ -8100,7 +8150,7 @@
       <c r="Q27" s="70"/>
       <c r="R27" s="53"/>
       <c r="S27" s="91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T27" s="51"/>
       <c r="U27" s="53"/>
@@ -8350,10 +8400,10 @@
         <v>41</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F28" s="58"/>
       <c r="G28" s="58"/>
@@ -8369,7 +8419,7 @@
       <c r="Q28" s="73"/>
       <c r="R28" s="55"/>
       <c r="S28" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T28" s="30"/>
       <c r="U28" s="55"/>
@@ -8619,10 +8669,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="69" t="s">
         <v>25</v>
@@ -8655,14 +8705,14 @@
         <v>25</v>
       </c>
       <c r="P29" s="69" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q29" s="67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R29" s="53"/>
       <c r="S29" s="92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T29" s="51"/>
       <c r="U29" s="53"/>
@@ -8912,10 +8962,10 @@
         <v>28</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="58" t="s">
         <v>25</v>
@@ -8948,14 +8998,14 @@
         <v>25</v>
       </c>
       <c r="P30" s="58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R30" s="55"/>
       <c r="S30" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T30" s="30"/>
       <c r="U30" s="55"/>
@@ -9205,10 +9255,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F31" s="69" t="s">
         <v>25</v>
@@ -9241,14 +9291,14 @@
         <v>25</v>
       </c>
       <c r="P31" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R31" s="53"/>
       <c r="S31" s="91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T31" s="51"/>
       <c r="U31" s="53"/>
@@ -9498,10 +9548,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F32" s="58" t="s">
         <v>25</v>
@@ -9534,14 +9584,14 @@
         <v>25</v>
       </c>
       <c r="P32" s="58" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q32" s="58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R32" s="55"/>
       <c r="S32" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T32" s="30"/>
       <c r="U32" s="55"/>
@@ -9791,10 +9841,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F33" s="69" t="s">
         <v>25</v>
@@ -9827,14 +9877,14 @@
         <v>25</v>
       </c>
       <c r="P33" s="69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q33" s="67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R33" s="53"/>
       <c r="S33" s="91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T33" s="51"/>
       <c r="U33" s="53"/>
@@ -10084,10 +10134,10 @@
         <v>28</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F34" s="58" t="s">
         <v>25</v>
@@ -10120,14 +10170,14 @@
         <v>25</v>
       </c>
       <c r="P34" s="58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q34" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R34" s="55"/>
       <c r="S34" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T34" s="30"/>
       <c r="U34" s="55"/>
@@ -10377,10 +10427,10 @@
         <v>28</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F35" s="69" t="s">
         <v>25</v>
@@ -10415,8 +10465,8 @@
       <c r="P35" s="69"/>
       <c r="Q35" s="70"/>
       <c r="R35" s="53"/>
-      <c r="S35" s="101" t="s">
-        <v>136</v>
+      <c r="S35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="T35" s="51"/>
       <c r="U35" s="53"/>
@@ -10666,10 +10716,10 @@
         <v>28</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E36" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="58" t="s">
         <v>25</v>
@@ -10705,7 +10755,7 @@
       <c r="Q36" s="73"/>
       <c r="R36" s="55"/>
       <c r="S36" s="90" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T36" s="30"/>
       <c r="U36" s="55"/>
@@ -10955,10 +11005,10 @@
         <v>28</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
@@ -10974,7 +11024,7 @@
       <c r="Q37" s="70"/>
       <c r="R37" s="53"/>
       <c r="S37" s="91" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T37" s="51"/>
       <c r="U37" s="53"/>
@@ -11224,10 +11274,10 @@
         <v>44</v>
       </c>
       <c r="D38" s="59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E38" s="66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F38" s="58" t="s">
         <v>25</v>
@@ -11263,7 +11313,7 @@
       <c r="Q38" s="58"/>
       <c r="R38" s="55"/>
       <c r="S38" s="90" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="T38" s="30"/>
       <c r="U38" s="55"/>
@@ -11513,10 +11563,10 @@
         <v>44</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E39" s="68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F39" s="71" t="s">
         <v>25</v>
@@ -11552,7 +11602,7 @@
       <c r="Q39" s="70"/>
       <c r="R39" s="53"/>
       <c r="S39" s="91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T39" s="51"/>
       <c r="U39" s="53"/>
@@ -11802,10 +11852,10 @@
         <v>44</v>
       </c>
       <c r="D40" s="59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E40" s="66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F40" s="58" t="s">
         <v>25</v>
@@ -11840,8 +11890,8 @@
       <c r="P40" s="58"/>
       <c r="Q40" s="73"/>
       <c r="R40" s="55"/>
-      <c r="S40" s="102" t="s">
-        <v>138</v>
+      <c r="S40" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T40" s="30"/>
       <c r="U40" s="55"/>
@@ -12091,10 +12141,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F41" s="71" t="s">
         <v>25</v>
@@ -12130,7 +12180,7 @@
       <c r="Q41" s="70"/>
       <c r="R41" s="53"/>
       <c r="S41" s="91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T41" s="51"/>
       <c r="U41" s="53"/>
@@ -12380,10 +12430,10 @@
         <v>44</v>
       </c>
       <c r="D42" s="59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F42" s="58" t="s">
         <v>25</v>
@@ -12418,8 +12468,8 @@
       <c r="P42" s="58"/>
       <c r="Q42" s="73"/>
       <c r="R42" s="55"/>
-      <c r="S42" s="102" t="s">
-        <v>138</v>
+      <c r="S42" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T42" s="30"/>
       <c r="U42" s="55"/>
@@ -12669,10 +12719,10 @@
         <v>44</v>
       </c>
       <c r="D43" s="72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" s="71" t="s">
         <v>25</v>
@@ -12707,8 +12757,8 @@
       <c r="P43" s="69"/>
       <c r="Q43" s="70"/>
       <c r="R43" s="53"/>
-      <c r="S43" s="102" t="s">
-        <v>138</v>
+      <c r="S43" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T43" s="51"/>
       <c r="U43" s="53"/>
@@ -12958,10 +13008,10 @@
         <v>44</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E44" s="66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F44" s="58" t="s">
         <v>25</v>
@@ -12997,7 +13047,7 @@
       <c r="Q44" s="73"/>
       <c r="R44" s="55"/>
       <c r="S44" s="91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T44" s="30"/>
       <c r="U44" s="55"/>
@@ -13247,10 +13297,10 @@
         <v>44</v>
       </c>
       <c r="D45" s="72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E45" s="68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F45" s="71" t="s">
         <v>25</v>
@@ -13285,8 +13335,8 @@
       <c r="P45" s="69"/>
       <c r="Q45" s="70"/>
       <c r="R45" s="53"/>
-      <c r="S45" s="102" t="s">
-        <v>138</v>
+      <c r="S45" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T45" s="51"/>
       <c r="U45" s="53"/>
@@ -13536,10 +13586,10 @@
         <v>44</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F46" s="58" t="s">
         <v>25</v>
@@ -13574,8 +13624,8 @@
       <c r="P46" s="58"/>
       <c r="Q46" s="73"/>
       <c r="R46" s="55"/>
-      <c r="S46" s="102" t="s">
-        <v>138</v>
+      <c r="S46" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T46" s="30"/>
       <c r="U46" s="55"/>
@@ -13825,10 +13875,10 @@
         <v>44</v>
       </c>
       <c r="D47" s="72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E47" s="68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F47" s="71" t="s">
         <v>25</v>
@@ -13864,7 +13914,7 @@
       <c r="Q47" s="70"/>
       <c r="R47" s="53"/>
       <c r="S47" s="91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T47" s="51"/>
       <c r="U47" s="53"/>
@@ -14114,10 +14164,10 @@
         <v>44</v>
       </c>
       <c r="D48" s="59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E48" s="66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F48" s="58" t="s">
         <v>25</v>
@@ -14152,8 +14202,8 @@
       <c r="P48" s="58"/>
       <c r="Q48" s="58"/>
       <c r="R48" s="55"/>
-      <c r="S48" s="102" t="s">
-        <v>138</v>
+      <c r="S48" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T48" s="30"/>
       <c r="U48" s="55"/>
@@ -14403,10 +14453,10 @@
         <v>44</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E49" s="68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F49" s="71" t="s">
         <v>25</v>
@@ -14441,8 +14491,8 @@
       <c r="P49" s="69"/>
       <c r="Q49" s="70"/>
       <c r="R49" s="53"/>
-      <c r="S49" s="102" t="s">
-        <v>138</v>
+      <c r="S49" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T49" s="51"/>
       <c r="U49" s="53"/>
@@ -14692,10 +14742,10 @@
         <v>44</v>
       </c>
       <c r="D50" s="59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E50" s="66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" s="58" t="s">
         <v>25</v>
@@ -14731,7 +14781,7 @@
       <c r="Q50" s="73"/>
       <c r="R50" s="55"/>
       <c r="S50" s="91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T50" s="30"/>
       <c r="U50" s="55"/>
@@ -14981,10 +15031,10 @@
         <v>44</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E51" s="68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F51" s="71" t="s">
         <v>25</v>
@@ -15019,8 +15069,8 @@
       <c r="P51" s="69"/>
       <c r="Q51" s="67"/>
       <c r="R51" s="53"/>
-      <c r="S51" s="102" t="s">
-        <v>138</v>
+      <c r="S51" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T51" s="51"/>
       <c r="U51" s="53"/>
@@ -15270,10 +15320,10 @@
         <v>44</v>
       </c>
       <c r="D52" s="59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E52" s="66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F52" s="58" t="s">
         <v>25</v>
@@ -15306,12 +15356,12 @@
         <v>25</v>
       </c>
       <c r="P52" s="58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q52" s="58"/>
       <c r="R52" s="55"/>
-      <c r="S52" s="102" t="s">
-        <v>138</v>
+      <c r="S52" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T52" s="30"/>
       <c r="U52" s="55"/>
@@ -15561,10 +15611,10 @@
         <v>44</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E53" s="68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F53" s="71" t="s">
         <v>25</v>
@@ -15600,7 +15650,7 @@
       <c r="Q53" s="67"/>
       <c r="R53" s="53"/>
       <c r="S53" s="91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T53" s="51"/>
       <c r="U53" s="53"/>
@@ -15850,10 +15900,10 @@
         <v>44</v>
       </c>
       <c r="D54" s="59" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E54" s="66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F54" s="58" t="s">
         <v>25</v>
@@ -15888,8 +15938,8 @@
       <c r="P54" s="58"/>
       <c r="Q54" s="58"/>
       <c r="R54" s="55"/>
-      <c r="S54" s="102" t="s">
-        <v>138</v>
+      <c r="S54" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T54" s="30"/>
       <c r="U54" s="55"/>
@@ -16139,10 +16189,10 @@
         <v>44</v>
       </c>
       <c r="D55" s="67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F55" s="71" t="s">
         <v>25</v>
@@ -16177,8 +16227,8 @@
       <c r="P55" s="69"/>
       <c r="Q55" s="67"/>
       <c r="R55" s="53"/>
-      <c r="S55" s="102" t="s">
-        <v>138</v>
+      <c r="S55" s="94" t="s">
+        <v>135</v>
       </c>
       <c r="T55" s="51"/>
       <c r="U55" s="53"/>
@@ -16428,10 +16478,10 @@
         <v>44</v>
       </c>
       <c r="D56" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F56" s="58" t="s">
         <v>25</v>
@@ -16464,12 +16514,12 @@
         <v>25</v>
       </c>
       <c r="P56" s="58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q56" s="58"/>
       <c r="R56" s="55"/>
       <c r="S56" s="91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T56" s="30"/>
       <c r="U56" s="55"/>
@@ -16719,10 +16769,10 @@
         <v>28</v>
       </c>
       <c r="D57" s="67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" s="68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F57" s="69" t="s">
         <v>25</v>
@@ -16758,7 +16808,7 @@
       <c r="Q57" s="70"/>
       <c r="R57" s="53"/>
       <c r="S57" s="92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T57" s="18"/>
       <c r="U57" s="53"/>
@@ -17008,10 +17058,10 @@
         <v>28</v>
       </c>
       <c r="D58" s="89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E58" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F58" s="58" t="s">
         <v>25</v>
@@ -17047,7 +17097,7 @@
       <c r="Q58" s="73"/>
       <c r="R58" s="55"/>
       <c r="S58" s="90" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="T58" s="30"/>
       <c r="U58" s="55"/>
@@ -17297,10 +17347,10 @@
         <v>28</v>
       </c>
       <c r="D59" s="67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E59" s="68" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F59" s="69" t="s">
         <v>25</v>
@@ -17336,7 +17386,7 @@
       <c r="Q59" s="70"/>
       <c r="R59" s="53"/>
       <c r="S59" s="91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T59" s="18"/>
       <c r="U59" s="53"/>
